--- a/tests/testData/AutoMOFs_Logbook_Testing.xlsx
+++ b/tests/testData/AutoMOFs_Logbook_Testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Code\DACHS\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Code\DACHS\tests\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6040EF9-F6F5-4640-92D4-E9B03BD68823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFE73C0-9FEF-4445-BB1B-0C01E0FEA8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="30960" windowHeight="12204" tabRatio="483" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="483" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AutoMOFs" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="702">
   <si>
     <t>Molar Mass</t>
   </si>
@@ -2153,6 +2153,15 @@
   </si>
   <si>
     <t>Zn6H_3</t>
+  </si>
+  <si>
+    <t>Price Unit</t>
+  </si>
+  <si>
+    <t>euro</t>
+  </si>
+  <si>
+    <t>items</t>
   </si>
 </sst>
 </file>
@@ -2718,7 +2727,7 @@
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2838,17 +2847,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2864,9 +2867,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3756,7 +3756,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3798,7 +3798,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3825,7 +3825,7 @@
       <selection pane="bottomLeft" activeCell="Z8" sqref="Z8:AB14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.109375" style="1"/>
@@ -3860,7 +3860,7 @@
     <col min="42" max="42" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="12" style="1" customWidth="1"/>
     <col min="44" max="44" width="10.33203125" style="1" customWidth="1"/>
-    <col min="45" max="45" width="9.5546875" style="68" customWidth="1"/>
+    <col min="45" max="45" width="9.5546875" style="65" customWidth="1"/>
     <col min="46" max="46" width="12" style="1" customWidth="1"/>
     <col min="47" max="48" width="9.109375" style="1"/>
     <col min="49" max="49" width="13.44140625" style="1" customWidth="1"/>
@@ -3868,7 +3868,7 @@
     <col min="51" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="23" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" s="23" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="22" t="s">
         <v>21</v>
       </c>
@@ -3986,7 +3986,7 @@
       <c r="AM1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="AO1" s="96" t="s">
+      <c r="AO1" s="93" t="s">
         <v>358</v>
       </c>
       <c r="AP1" s="23" t="s">
@@ -3998,7 +3998,7 @@
       <c r="AR1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AS1" s="69" t="s">
+      <c r="AS1" s="66" t="s">
         <v>71</v>
       </c>
       <c r="AT1" s="23" t="s">
@@ -4014,7 +4014,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
@@ -4146,15 +4146,15 @@
       <c r="Z3" s="37"/>
       <c r="AA3" s="37"/>
       <c r="AB3" s="37"/>
-      <c r="AO3" s="97"/>
-      <c r="AS3" s="70"/>
+      <c r="AO3" s="94"/>
+      <c r="AS3" s="67"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A4" s="30" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>20220208</v>
       </c>
@@ -4288,16 +4288,16 @@
         <v>275</v>
       </c>
       <c r="AO5" s="34"/>
-      <c r="AP5" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ5" s="99" t="s">
+      <c r="AP5" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ5" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AV5" s="3"/>
       <c r="AX5" s="3"/>
     </row>
-    <row r="6" spans="1:50" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>20220208</v>
       </c>
@@ -4431,18 +4431,18 @@
         <v>266</v>
       </c>
       <c r="AO6" s="34"/>
-      <c r="AP6" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ6" s="99" t="s">
+      <c r="AP6" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ6" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AS6" s="1"/>
-      <c r="AT6" s="68"/>
+      <c r="AT6" s="65"/>
       <c r="AV6" s="3"/>
       <c r="AX6" s="3"/>
     </row>
-    <row r="7" spans="1:50" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>20220208</v>
       </c>
@@ -4576,18 +4576,18 @@
         <v>267</v>
       </c>
       <c r="AO7" s="34"/>
-      <c r="AP7" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ7" s="99" t="s">
+      <c r="AP7" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ7" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AS7" s="1"/>
-      <c r="AT7" s="68"/>
+      <c r="AT7" s="65"/>
       <c r="AV7" s="3"/>
       <c r="AX7" s="3"/>
     </row>
-    <row r="8" spans="1:50" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>20220208</v>
       </c>
@@ -4721,18 +4721,18 @@
         <v>268</v>
       </c>
       <c r="AO8" s="34"/>
-      <c r="AP8" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ8" s="99" t="s">
+      <c r="AP8" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ8" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AS8" s="1"/>
-      <c r="AT8" s="68"/>
+      <c r="AT8" s="65"/>
       <c r="AV8" s="3"/>
       <c r="AX8" s="3"/>
     </row>
-    <row r="9" spans="1:50" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>20220208</v>
       </c>
@@ -4866,18 +4866,18 @@
         <v>269</v>
       </c>
       <c r="AO9" s="34"/>
-      <c r="AP9" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ9" s="99" t="s">
+      <c r="AP9" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ9" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AS9" s="1"/>
-      <c r="AT9" s="68"/>
+      <c r="AT9" s="65"/>
       <c r="AV9" s="3"/>
       <c r="AX9" s="3"/>
     </row>
-    <row r="10" spans="1:50" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>20220208</v>
       </c>
@@ -5011,18 +5011,18 @@
         <v>270</v>
       </c>
       <c r="AO10" s="34"/>
-      <c r="AP10" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ10" s="99" t="s">
+      <c r="AP10" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ10" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AS10" s="1"/>
-      <c r="AT10" s="68"/>
+      <c r="AT10" s="65"/>
       <c r="AV10" s="3"/>
       <c r="AX10" s="3"/>
     </row>
-    <row r="11" spans="1:50" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>20220208</v>
       </c>
@@ -5156,18 +5156,18 @@
         <v>271</v>
       </c>
       <c r="AO11" s="34"/>
-      <c r="AP11" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ11" s="99" t="s">
+      <c r="AP11" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ11" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AS11" s="1"/>
-      <c r="AT11" s="68"/>
+      <c r="AT11" s="65"/>
       <c r="AV11" s="3"/>
       <c r="AX11" s="3"/>
     </row>
-    <row r="12" spans="1:50" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>20220208</v>
       </c>
@@ -5301,18 +5301,18 @@
         <v>272</v>
       </c>
       <c r="AO12" s="34"/>
-      <c r="AP12" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ12" s="99" t="s">
+      <c r="AP12" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ12" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AS12" s="1"/>
-      <c r="AT12" s="68"/>
+      <c r="AT12" s="65"/>
       <c r="AV12" s="3"/>
       <c r="AX12" s="3"/>
     </row>
-    <row r="13" spans="1:50" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
         <v>20220208</v>
       </c>
@@ -5446,16 +5446,16 @@
         <v>273</v>
       </c>
       <c r="AO13" s="34"/>
-      <c r="AP13" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ13" s="99" t="s">
+      <c r="AP13" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ13" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AV13" s="3"/>
       <c r="AX13" s="3"/>
     </row>
-    <row r="14" spans="1:50" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A14" s="1">
         <v>20220208</v>
       </c>
@@ -5589,16 +5589,16 @@
         <v>274</v>
       </c>
       <c r="AO14" s="34"/>
-      <c r="AP14" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ14" s="99" t="s">
+      <c r="AP14" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ14" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AV14" s="3"/>
       <c r="AX14" s="3"/>
     </row>
-    <row r="15" spans="1:50" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A15" s="1">
         <v>20220208</v>
       </c>
@@ -5732,16 +5732,16 @@
         <v>282</v>
       </c>
       <c r="AO15" s="34"/>
-      <c r="AP15" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ15" s="99" t="s">
+      <c r="AP15" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ15" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AV15" s="3"/>
       <c r="AX15" s="3"/>
     </row>
-    <row r="16" spans="1:50" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
         <v>20220208</v>
       </c>
@@ -5875,16 +5875,16 @@
         <v>283</v>
       </c>
       <c r="AO16" s="34"/>
-      <c r="AP16" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ16" s="99" t="s">
+      <c r="AP16" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ16" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AV16" s="3"/>
       <c r="AX16" s="3"/>
     </row>
-    <row r="17" spans="1:53" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
         <v>20220208</v>
       </c>
@@ -6018,16 +6018,16 @@
         <v>285</v>
       </c>
       <c r="AO17" s="34"/>
-      <c r="AP17" s="100" t="s">
+      <c r="AP17" s="97" t="s">
         <v>363</v>
       </c>
-      <c r="AQ17" s="100" t="s">
+      <c r="AQ17" s="97" t="s">
         <v>363</v>
       </c>
       <c r="AV17" s="3"/>
       <c r="AX17" s="3"/>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A18" s="38" t="s">
         <v>355</v>
       </c>
@@ -6051,7 +6051,7 @@
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
     </row>
-    <row r="19" spans="1:53" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A19" s="1">
         <v>20220223</v>
       </c>
@@ -6188,14 +6188,14 @@
       <c r="AO19" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="AP19" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ19" s="99" t="s">
+      <c r="AP19" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ19" s="96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:53" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A20" s="1">
         <v>20220223</v>
       </c>
@@ -6332,14 +6332,14 @@
       <c r="AO20" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="AP20" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ20" s="99" t="s">
+      <c r="AP20" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ20" s="96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:53" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A21" s="1">
         <v>20220223</v>
       </c>
@@ -6476,15 +6476,15 @@
       <c r="AO21" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="AP21" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ21" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV21" s="68"/>
+      <c r="AP21" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ21" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV21" s="65"/>
     </row>
-    <row r="22" spans="1:53" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
         <v>20220223</v>
       </c>
@@ -6537,7 +6537,7 @@
       <c r="P22" s="11">
         <v>20</v>
       </c>
-      <c r="Q22" s="73">
+      <c r="Q22" s="70">
         <v>5</v>
       </c>
       <c r="R22" s="12" t="s">
@@ -6621,15 +6621,15 @@
       <c r="AO22" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="AP22" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ22" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV22" s="68"/>
+      <c r="AP22" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ22" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV22" s="65"/>
     </row>
-    <row r="23" spans="1:53" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
         <v>20220223</v>
       </c>
@@ -6766,19 +6766,19 @@
       <c r="AO23" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="AP23" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ23" s="99" t="s">
+      <c r="AP23" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ23" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AU23" s="3"/>
-      <c r="AV23" s="68"/>
+      <c r="AV23" s="65"/>
       <c r="AY23" s="5"/>
       <c r="AZ23" s="3"/>
       <c r="BA23" s="3"/>
     </row>
-    <row r="24" spans="1:53" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A24" s="1">
         <v>20220223</v>
       </c>
@@ -6915,16 +6915,16 @@
       <c r="AO24" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="AP24" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ24" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV24" s="68"/>
+      <c r="AP24" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ24" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV24" s="65"/>
       <c r="AY24" s="5"/>
     </row>
-    <row r="25" spans="1:53" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A25" s="1">
         <v>20220223</v>
       </c>
@@ -7061,16 +7061,16 @@
       <c r="AO25" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="AP25" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ25" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV25" s="68"/>
+      <c r="AP25" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ25" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV25" s="65"/>
       <c r="AY25" s="5"/>
     </row>
-    <row r="26" spans="1:53" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A26" s="1">
         <v>20220223</v>
       </c>
@@ -7207,16 +7207,16 @@
       <c r="AO26" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="AP26" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ26" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV26" s="68"/>
+      <c r="AP26" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ26" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV26" s="65"/>
       <c r="AY26" s="5"/>
     </row>
-    <row r="27" spans="1:53" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A27" s="1">
         <v>20220223</v>
       </c>
@@ -7353,16 +7353,16 @@
       <c r="AO27" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="AP27" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ27" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV27" s="68"/>
+      <c r="AP27" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ27" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV27" s="65"/>
       <c r="AY27" s="5"/>
     </row>
-    <row r="28" spans="1:53" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A28" s="1">
         <v>20220223</v>
       </c>
@@ -7499,15 +7499,15 @@
       <c r="AO28" s="34" t="s">
         <v>360</v>
       </c>
-      <c r="AP28" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ28" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV28" s="68"/>
+      <c r="AP28" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ28" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV28" s="65"/>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A29" s="38" t="s">
         <v>354</v>
       </c>
@@ -7535,10 +7535,10 @@
       <c r="AO29" s="34"/>
       <c r="AP29" s="3"/>
       <c r="AQ29" s="3"/>
-      <c r="AS29" s="78"/>
-      <c r="AV29" s="68"/>
+      <c r="AS29" s="75"/>
+      <c r="AV29" s="65"/>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>20220714</v>
       </c>
@@ -7585,16 +7585,16 @@
       <c r="N30" s="11">
         <v>26</v>
       </c>
-      <c r="O30" s="72">
-        <v>0</v>
-      </c>
-      <c r="P30" s="72">
-        <v>20</v>
-      </c>
-      <c r="Q30" s="72">
+      <c r="O30" s="69">
+        <v>0</v>
+      </c>
+      <c r="P30" s="69">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="69">
         <v>15</v>
       </c>
-      <c r="R30" s="72" t="s">
+      <c r="R30" s="69" t="s">
         <v>2</v>
       </c>
       <c r="S30" s="12">
@@ -7660,19 +7660,19 @@
         <v>0.23056929964996001</v>
       </c>
       <c r="AL30" s="21"/>
-      <c r="AM30" s="77" t="s">
+      <c r="AM30" s="74" t="s">
         <v>339</v>
       </c>
-      <c r="AN30" s="77" t="s">
+      <c r="AN30" s="74" t="s">
         <v>339</v>
       </c>
-      <c r="AO30" s="98"/>
+      <c r="AO30" s="95"/>
       <c r="AP30" s="3"/>
       <c r="AQ30" s="3"/>
-      <c r="AS30" s="78"/>
-      <c r="AV30" s="68"/>
+      <c r="AS30" s="75"/>
+      <c r="AV30" s="65"/>
     </row>
-    <row r="31" spans="1:53" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A31" s="3">
         <v>20220714</v>
       </c>
@@ -7719,16 +7719,16 @@
       <c r="N31" s="11">
         <v>26</v>
       </c>
-      <c r="O31" s="72">
-        <v>0</v>
-      </c>
-      <c r="P31" s="72">
-        <v>20</v>
-      </c>
-      <c r="Q31" s="72">
+      <c r="O31" s="69">
+        <v>0</v>
+      </c>
+      <c r="P31" s="69">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="69">
         <v>15</v>
       </c>
-      <c r="R31" s="72" t="s">
+      <c r="R31" s="69" t="s">
         <v>2</v>
       </c>
       <c r="S31" s="12">
@@ -7808,16 +7808,16 @@
         <v>266</v>
       </c>
       <c r="AO31" s="32"/>
-      <c r="AP31" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ31" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS31" s="78"/>
-      <c r="AV31" s="68"/>
+      <c r="AP31" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ31" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS31" s="75"/>
+      <c r="AV31" s="65"/>
     </row>
-    <row r="32" spans="1:53" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A32" s="3">
         <v>20220714</v>
       </c>
@@ -7864,16 +7864,16 @@
       <c r="N32" s="11">
         <v>26</v>
       </c>
-      <c r="O32" s="72">
+      <c r="O32" s="69">
         <v>50</v>
       </c>
-      <c r="P32" s="72">
-        <v>20</v>
-      </c>
-      <c r="Q32" s="72">
+      <c r="P32" s="69">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="69">
         <v>15</v>
       </c>
-      <c r="R32" s="72" t="s">
+      <c r="R32" s="69" t="s">
         <v>2</v>
       </c>
       <c r="S32" s="12">
@@ -7953,16 +7953,16 @@
         <v>267</v>
       </c>
       <c r="AO32" s="32"/>
-      <c r="AP32" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ32" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS32" s="78"/>
-      <c r="AV32" s="68"/>
+      <c r="AP32" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ32" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS32" s="75"/>
+      <c r="AV32" s="65"/>
     </row>
-    <row r="33" spans="1:53" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A33" s="3">
         <v>20220714</v>
       </c>
@@ -8009,16 +8009,16 @@
       <c r="N33" s="11">
         <v>26</v>
       </c>
-      <c r="O33" s="72">
+      <c r="O33" s="69">
         <v>300</v>
       </c>
-      <c r="P33" s="72">
-        <v>20</v>
-      </c>
-      <c r="Q33" s="72">
+      <c r="P33" s="69">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="69">
         <v>15</v>
       </c>
-      <c r="R33" s="72" t="s">
+      <c r="R33" s="69" t="s">
         <v>2</v>
       </c>
       <c r="S33" s="12">
@@ -8098,16 +8098,16 @@
         <v>268</v>
       </c>
       <c r="AO33" s="32"/>
-      <c r="AP33" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ33" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS33" s="78"/>
-      <c r="AV33" s="68"/>
+      <c r="AP33" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ33" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS33" s="75"/>
+      <c r="AV33" s="65"/>
     </row>
-    <row r="34" spans="1:53" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A34" s="3">
         <v>20220714</v>
       </c>
@@ -8154,16 +8154,16 @@
       <c r="N34" s="11">
         <v>26</v>
       </c>
-      <c r="O34" s="72">
+      <c r="O34" s="69">
         <v>300</v>
       </c>
-      <c r="P34" s="72">
-        <v>20</v>
-      </c>
-      <c r="Q34" s="72">
+      <c r="P34" s="69">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="69">
         <v>15</v>
       </c>
-      <c r="R34" s="72" t="s">
+      <c r="R34" s="69" t="s">
         <v>2</v>
       </c>
       <c r="S34" s="12">
@@ -8243,16 +8243,16 @@
         <v>269</v>
       </c>
       <c r="AO34" s="32"/>
-      <c r="AP34" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ34" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS34" s="78"/>
-      <c r="AV34" s="68"/>
+      <c r="AP34" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ34" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS34" s="75"/>
+      <c r="AV34" s="65"/>
     </row>
-    <row r="35" spans="1:53" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A35" s="3">
         <v>20220714</v>
       </c>
@@ -8299,16 +8299,16 @@
       <c r="N35" s="11">
         <v>26</v>
       </c>
-      <c r="O35" s="72">
+      <c r="O35" s="69">
         <v>300</v>
       </c>
-      <c r="P35" s="72">
+      <c r="P35" s="69">
         <v>1440</v>
       </c>
-      <c r="Q35" s="72">
+      <c r="Q35" s="69">
         <v>15</v>
       </c>
-      <c r="R35" s="72" t="s">
+      <c r="R35" s="69" t="s">
         <v>2</v>
       </c>
       <c r="S35" s="12">
@@ -8388,19 +8388,19 @@
         <v>270</v>
       </c>
       <c r="AO35" s="32"/>
-      <c r="AP35" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ35" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS35" s="78"/>
-      <c r="AV35" s="68"/>
+      <c r="AP35" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ35" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS35" s="75"/>
+      <c r="AV35" s="65"/>
       <c r="AY35" s="5"/>
       <c r="AZ35" s="3"/>
       <c r="BA35" s="3"/>
     </row>
-    <row r="36" spans="1:53" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A36" s="3">
         <v>20220714</v>
       </c>
@@ -8447,16 +8447,16 @@
       <c r="N36" s="11">
         <v>26</v>
       </c>
-      <c r="O36" s="72">
-        <v>0</v>
-      </c>
-      <c r="P36" s="72">
+      <c r="O36" s="69">
+        <v>0</v>
+      </c>
+      <c r="P36" s="69">
         <v>1440</v>
       </c>
-      <c r="Q36" s="72">
+      <c r="Q36" s="69">
         <v>15</v>
       </c>
-      <c r="R36" s="72" t="s">
+      <c r="R36" s="69" t="s">
         <v>2</v>
       </c>
       <c r="S36" s="12">
@@ -8536,17 +8536,17 @@
         <v>271</v>
       </c>
       <c r="AO36" s="32"/>
-      <c r="AP36" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ36" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS36" s="78"/>
-      <c r="AV36" s="68"/>
+      <c r="AP36" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ36" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS36" s="75"/>
+      <c r="AV36" s="65"/>
       <c r="AY36" s="5"/>
     </row>
-    <row r="37" spans="1:53" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A37" s="3">
         <v>20220714</v>
       </c>
@@ -8593,16 +8593,16 @@
       <c r="N37" s="11">
         <v>26</v>
       </c>
-      <c r="O37" s="72">
+      <c r="O37" s="69">
         <v>150</v>
       </c>
-      <c r="P37" s="72">
-        <v>20</v>
-      </c>
-      <c r="Q37" s="72">
+      <c r="P37" s="69">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="69">
         <v>15</v>
       </c>
-      <c r="R37" s="72" t="s">
+      <c r="R37" s="69" t="s">
         <v>2</v>
       </c>
       <c r="S37" s="12">
@@ -8682,19 +8682,19 @@
         <v>272</v>
       </c>
       <c r="AO37" s="32"/>
-      <c r="AP37" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ37" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS37" s="78"/>
-      <c r="AV37" s="68"/>
+      <c r="AP37" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ37" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS37" s="75"/>
+      <c r="AV37" s="65"/>
       <c r="AY37" s="5"/>
       <c r="AZ37" s="3"/>
       <c r="BA37" s="3"/>
     </row>
-    <row r="38" spans="1:53" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A38" s="3">
         <v>20220714</v>
       </c>
@@ -8741,16 +8741,16 @@
       <c r="N38" s="11">
         <v>26</v>
       </c>
-      <c r="O38" s="72">
+      <c r="O38" s="69">
         <v>150</v>
       </c>
-      <c r="P38" s="72">
-        <v>60</v>
-      </c>
-      <c r="Q38" s="72">
+      <c r="P38" s="69">
+        <v>60</v>
+      </c>
+      <c r="Q38" s="69">
         <v>15</v>
       </c>
-      <c r="R38" s="72" t="s">
+      <c r="R38" s="69" t="s">
         <v>2</v>
       </c>
       <c r="S38" s="12">
@@ -8830,20 +8830,20 @@
         <v>273</v>
       </c>
       <c r="AO38" s="32"/>
-      <c r="AP38" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ38" s="99" t="s">
+      <c r="AP38" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ38" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AR38" s="3"/>
-      <c r="AS38" s="78"/>
-      <c r="AV38" s="68"/>
+      <c r="AS38" s="75"/>
+      <c r="AV38" s="65"/>
       <c r="AY38" s="5"/>
       <c r="AZ38" s="3"/>
       <c r="BA38" s="3"/>
     </row>
-    <row r="39" spans="1:53" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A39" s="3">
         <v>20220714</v>
       </c>
@@ -8890,16 +8890,16 @@
       <c r="N39" s="11">
         <v>26</v>
       </c>
-      <c r="O39" s="72">
+      <c r="O39" s="69">
         <v>300</v>
       </c>
-      <c r="P39" s="72">
+      <c r="P39" s="69">
         <v>40</v>
       </c>
-      <c r="Q39" s="72">
+      <c r="Q39" s="69">
         <v>15</v>
       </c>
-      <c r="R39" s="72" t="s">
+      <c r="R39" s="69" t="s">
         <v>2</v>
       </c>
       <c r="S39" s="12">
@@ -8979,17 +8979,17 @@
         <v>274</v>
       </c>
       <c r="AO39" s="32"/>
-      <c r="AP39" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ39" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS39" s="78"/>
-      <c r="AV39" s="68"/>
+      <c r="AP39" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ39" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS39" s="75"/>
+      <c r="AV39" s="65"/>
       <c r="AY39" s="5"/>
     </row>
-    <row r="40" spans="1:53" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A40" s="3">
         <v>20220714</v>
       </c>
@@ -9036,16 +9036,16 @@
       <c r="N40" s="11">
         <v>26</v>
       </c>
-      <c r="O40" s="72">
+      <c r="O40" s="69">
         <v>300</v>
       </c>
-      <c r="P40" s="72">
-        <v>20</v>
-      </c>
-      <c r="Q40" s="72">
+      <c r="P40" s="69">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="69">
         <v>15</v>
       </c>
-      <c r="R40" s="72" t="s">
+      <c r="R40" s="69" t="s">
         <v>2</v>
       </c>
       <c r="S40" s="12">
@@ -9125,17 +9125,17 @@
         <v>282</v>
       </c>
       <c r="AO40" s="32"/>
-      <c r="AP40" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ40" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS40" s="78"/>
-      <c r="AV40" s="68"/>
+      <c r="AP40" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ40" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS40" s="75"/>
+      <c r="AV40" s="65"/>
       <c r="AY40" s="5"/>
     </row>
-    <row r="41" spans="1:53" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A41" s="3">
         <v>20220714</v>
       </c>
@@ -9182,16 +9182,16 @@
       <c r="N41" s="11">
         <v>26</v>
       </c>
-      <c r="O41" s="72">
+      <c r="O41" s="69">
         <v>300</v>
       </c>
-      <c r="P41" s="72">
-        <v>20</v>
-      </c>
-      <c r="Q41" s="72">
+      <c r="P41" s="69">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="69">
         <v>15</v>
       </c>
-      <c r="R41" s="72" t="s">
+      <c r="R41" s="69" t="s">
         <v>2</v>
       </c>
       <c r="S41" s="12">
@@ -9271,17 +9271,17 @@
         <v>283</v>
       </c>
       <c r="AO41" s="32"/>
-      <c r="AP41" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ41" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS41" s="78"/>
-      <c r="AV41" s="68"/>
+      <c r="AP41" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ41" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS41" s="75"/>
+      <c r="AV41" s="65"/>
       <c r="AY41" s="5"/>
     </row>
-    <row r="42" spans="1:53" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A42" s="3">
         <v>20220715</v>
       </c>
@@ -9328,16 +9328,16 @@
       <c r="N42" s="11">
         <v>26</v>
       </c>
-      <c r="O42" s="72">
+      <c r="O42" s="69">
         <v>300</v>
       </c>
-      <c r="P42" s="72">
-        <v>20</v>
-      </c>
-      <c r="Q42" s="72">
+      <c r="P42" s="69">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="69">
         <v>15</v>
       </c>
-      <c r="R42" s="72" t="s">
+      <c r="R42" s="69" t="s">
         <v>2</v>
       </c>
       <c r="S42" s="12">
@@ -9417,17 +9417,17 @@
         <v>285</v>
       </c>
       <c r="AO42" s="32"/>
-      <c r="AP42" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ42" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS42" s="78"/>
-      <c r="AV42" s="68"/>
+      <c r="AP42" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ42" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS42" s="75"/>
+      <c r="AV42" s="65"/>
       <c r="AY42" s="5"/>
     </row>
-    <row r="43" spans="1:53" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A43" s="3">
         <v>20220715</v>
       </c>
@@ -9474,16 +9474,16 @@
       <c r="N43" s="11">
         <v>26</v>
       </c>
-      <c r="O43" s="72">
+      <c r="O43" s="69">
         <v>300</v>
       </c>
-      <c r="P43" s="72">
-        <v>20</v>
-      </c>
-      <c r="Q43" s="72">
+      <c r="P43" s="69">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="69">
         <v>15</v>
       </c>
-      <c r="R43" s="72" t="s">
+      <c r="R43" s="69" t="s">
         <v>2</v>
       </c>
       <c r="S43" s="12">
@@ -9563,16 +9563,16 @@
         <v>287</v>
       </c>
       <c r="AO43" s="32"/>
-      <c r="AP43" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ43" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS43" s="78"/>
-      <c r="AV43" s="68"/>
+      <c r="AP43" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ43" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS43" s="75"/>
+      <c r="AV43" s="65"/>
     </row>
-    <row r="44" spans="1:53" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A44" s="3">
         <v>20220726</v>
       </c>
@@ -9619,16 +9619,16 @@
       <c r="N44" s="11">
         <v>26</v>
       </c>
-      <c r="O44" s="72">
+      <c r="O44" s="69">
         <v>300</v>
       </c>
-      <c r="P44" s="72">
-        <v>20</v>
-      </c>
-      <c r="Q44" s="72">
+      <c r="P44" s="69">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="69">
         <v>15</v>
       </c>
-      <c r="R44" s="72" t="s">
+      <c r="R44" s="69" t="s">
         <v>2</v>
       </c>
       <c r="S44" s="12">
@@ -9708,20 +9708,20 @@
       <c r="AO44" s="34" t="s">
         <v>418</v>
       </c>
-      <c r="AP44" s="100" t="s">
+      <c r="AP44" s="97" t="s">
         <v>363</v>
       </c>
-      <c r="AQ44" s="100" t="s">
+      <c r="AQ44" s="97" t="s">
         <v>363</v>
       </c>
-      <c r="AS44" s="78"/>
-      <c r="AV44" s="68"/>
-      <c r="AW44" s="68"/>
+      <c r="AS44" s="75"/>
+      <c r="AV44" s="65"/>
+      <c r="AW44" s="65"/>
       <c r="AY44" s="5"/>
       <c r="AZ44" s="3"/>
       <c r="BA44" s="3"/>
     </row>
-    <row r="45" spans="1:53" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A45" s="3">
         <v>20220726</v>
       </c>
@@ -9768,16 +9768,16 @@
       <c r="N45" s="11">
         <v>26</v>
       </c>
-      <c r="O45" s="72">
+      <c r="O45" s="69">
         <v>300</v>
       </c>
-      <c r="P45" s="72">
-        <v>20</v>
-      </c>
-      <c r="Q45" s="72">
+      <c r="P45" s="69">
+        <v>20</v>
+      </c>
+      <c r="Q45" s="69">
         <v>15</v>
       </c>
-      <c r="R45" s="72" t="s">
+      <c r="R45" s="69" t="s">
         <v>2</v>
       </c>
       <c r="S45" s="12">
@@ -9857,17 +9857,17 @@
       <c r="AO45" s="34" t="s">
         <v>418</v>
       </c>
-      <c r="AP45" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ45" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV45" s="68"/>
-      <c r="AW45" s="68"/>
+      <c r="AP45" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ45" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV45" s="65"/>
+      <c r="AW45" s="65"/>
       <c r="AY45" s="5"/>
     </row>
-    <row r="46" spans="1:53" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A46" s="3">
         <v>20220726</v>
       </c>
@@ -9914,16 +9914,16 @@
       <c r="N46" s="11">
         <v>26</v>
       </c>
-      <c r="O46" s="72">
+      <c r="O46" s="69">
         <v>300</v>
       </c>
-      <c r="P46" s="72">
-        <v>20</v>
-      </c>
-      <c r="Q46" s="72">
+      <c r="P46" s="69">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="69">
         <v>15</v>
       </c>
-      <c r="R46" s="72" t="s">
+      <c r="R46" s="69" t="s">
         <v>2</v>
       </c>
       <c r="S46" s="12">
@@ -10003,17 +10003,17 @@
       <c r="AO46" s="34" t="s">
         <v>418</v>
       </c>
-      <c r="AP46" s="100" t="s">
+      <c r="AP46" s="97" t="s">
         <v>363</v>
       </c>
-      <c r="AQ46" s="100" t="s">
+      <c r="AQ46" s="97" t="s">
         <v>363</v>
       </c>
-      <c r="AV46" s="105"/>
-      <c r="AW46" s="68"/>
+      <c r="AV46" s="102"/>
+      <c r="AW46" s="65"/>
       <c r="AY46" s="5"/>
     </row>
-    <row r="47" spans="1:53" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A47" s="3">
         <v>20220726</v>
       </c>
@@ -10060,16 +10060,16 @@
       <c r="N47" s="11">
         <v>26</v>
       </c>
-      <c r="O47" s="72">
+      <c r="O47" s="69">
         <v>300</v>
       </c>
-      <c r="P47" s="72">
-        <v>20</v>
-      </c>
-      <c r="Q47" s="72">
+      <c r="P47" s="69">
+        <v>20</v>
+      </c>
+      <c r="Q47" s="69">
         <v>15</v>
       </c>
-      <c r="R47" s="72" t="s">
+      <c r="R47" s="69" t="s">
         <v>2</v>
       </c>
       <c r="S47" s="12">
@@ -10149,17 +10149,17 @@
       <c r="AO47" s="34" t="s">
         <v>418</v>
       </c>
-      <c r="AP47" s="100" t="s">
+      <c r="AP47" s="97" t="s">
         <v>363</v>
       </c>
-      <c r="AQ47" s="100" t="s">
+      <c r="AQ47" s="97" t="s">
         <v>363</v>
       </c>
-      <c r="AV47" s="105"/>
-      <c r="AW47" s="68"/>
+      <c r="AV47" s="102"/>
+      <c r="AW47" s="65"/>
       <c r="AY47" s="5"/>
     </row>
-    <row r="48" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A48" s="38" t="s">
         <v>262</v>
       </c>
@@ -10170,9 +10170,9 @@
       <c r="X48" s="12"/>
       <c r="Y48" s="12"/>
       <c r="AK48" s="3"/>
-      <c r="AV48" s="105"/>
+      <c r="AV48" s="102"/>
     </row>
-    <row r="49" spans="1:63" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>20220727</v>
       </c>
@@ -10307,14 +10307,14 @@
       <c r="AN49" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AP49" s="99" t="s">
+      <c r="AP49" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AU49" s="3"/>
-      <c r="AV49" s="106"/>
+      <c r="AV49" s="103"/>
       <c r="AX49" s="3"/>
     </row>
-    <row r="50" spans="1:63" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>20220727</v>
       </c>
@@ -10449,14 +10449,14 @@
       <c r="AN50" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="AP50" s="99" t="s">
+      <c r="AP50" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AU50" s="3"/>
-      <c r="AV50" s="106"/>
+      <c r="AV50" s="103"/>
       <c r="AX50" s="3"/>
     </row>
-    <row r="51" spans="1:63" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>20220727</v>
       </c>
@@ -10591,14 +10591,14 @@
       <c r="AN51" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AP51" s="99" t="s">
+      <c r="AP51" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AU51" s="3"/>
-      <c r="AV51" s="106"/>
+      <c r="AV51" s="103"/>
       <c r="AX51" s="3"/>
     </row>
-    <row r="52" spans="1:63" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>20220727</v>
       </c>
@@ -10733,15 +10733,15 @@
       <c r="AN52" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AP52" s="99" t="s">
+      <c r="AP52" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AR52" s="38"/>
       <c r="AU52" s="3"/>
-      <c r="AV52" s="106"/>
+      <c r="AV52" s="103"/>
       <c r="AX52" s="3"/>
     </row>
-    <row r="53" spans="1:63" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>20220727</v>
       </c>
@@ -10876,14 +10876,14 @@
       <c r="AN53" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AP53" s="99" t="s">
+      <c r="AP53" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AU53" s="3"/>
-      <c r="AV53" s="106"/>
+      <c r="AV53" s="103"/>
       <c r="AX53" s="3"/>
     </row>
-    <row r="54" spans="1:63" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>20220727</v>
       </c>
@@ -11018,16 +11018,16 @@
       <c r="AN54" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="AP54" s="99" t="s">
+      <c r="AP54" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AR54" s="38"/>
-      <c r="AS54" s="78"/>
+      <c r="AS54" s="75"/>
       <c r="AU54" s="3"/>
-      <c r="AV54" s="106"/>
+      <c r="AV54" s="103"/>
       <c r="AX54" s="3"/>
     </row>
-    <row r="55" spans="1:63" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>20220727</v>
       </c>
@@ -11162,15 +11162,15 @@
       <c r="AN55" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="AP55" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS55" s="78"/>
+      <c r="AP55" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS55" s="75"/>
       <c r="AU55" s="3"/>
-      <c r="AV55" s="106"/>
+      <c r="AV55" s="103"/>
       <c r="AX55" s="3"/>
     </row>
-    <row r="56" spans="1:63" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>20220727</v>
       </c>
@@ -11305,15 +11305,15 @@
       <c r="AN56" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="AP56" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS56" s="79"/>
+      <c r="AP56" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS56" s="76"/>
       <c r="AU56" s="3"/>
-      <c r="AV56" s="106"/>
+      <c r="AV56" s="103"/>
       <c r="AX56" s="3"/>
     </row>
-    <row r="57" spans="1:63" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>20220727</v>
       </c>
@@ -11448,16 +11448,16 @@
       <c r="AN57" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="AP57" s="99" t="s">
+      <c r="AP57" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AU57" s="3"/>
-      <c r="AV57" s="106"/>
+      <c r="AV57" s="103"/>
       <c r="AX57" s="3"/>
       <c r="BA57" s="3"/>
       <c r="BB57" s="3"/>
     </row>
-    <row r="58" spans="1:63" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>20220727</v>
       </c>
@@ -11592,16 +11592,16 @@
       <c r="AN58" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP58" s="99" t="s">
+      <c r="AP58" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AU58" s="3"/>
-      <c r="AV58" s="106"/>
+      <c r="AV58" s="103"/>
       <c r="AX58" s="3"/>
-      <c r="BA58" s="75"/>
-      <c r="BB58" s="75"/>
+      <c r="BA58" s="72"/>
+      <c r="BB58" s="72"/>
     </row>
-    <row r="59" spans="1:63" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>20220727</v>
       </c>
@@ -11736,17 +11736,17 @@
       <c r="AN59" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="AP59" s="99" t="s">
+      <c r="AP59" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AR59" s="38"/>
-      <c r="AS59" s="78"/>
+      <c r="AS59" s="75"/>
       <c r="AU59" s="3"/>
-      <c r="AV59" s="108"/>
+      <c r="AV59" s="105"/>
       <c r="AX59" s="3"/>
-      <c r="BB59" s="76"/>
+      <c r="BB59" s="73"/>
     </row>
-    <row r="60" spans="1:63" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>20220727</v>
       </c>
@@ -11881,15 +11881,15 @@
       <c r="AN60" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="AP60" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS60" s="78"/>
+      <c r="AP60" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS60" s="75"/>
       <c r="AU60" s="3"/>
-      <c r="AV60" s="108"/>
+      <c r="AV60" s="105"/>
       <c r="AX60" s="3"/>
     </row>
-    <row r="61" spans="1:63" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>20220727</v>
       </c>
@@ -12024,15 +12024,15 @@
       <c r="AN61" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AP61" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS61" s="78"/>
+      <c r="AP61" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS61" s="75"/>
       <c r="AU61" s="3"/>
-      <c r="AV61" s="108"/>
+      <c r="AV61" s="105"/>
       <c r="AX61" s="3"/>
     </row>
-    <row r="62" spans="1:63" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>20220727</v>
       </c>
@@ -12167,23 +12167,23 @@
       <c r="AN62" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AP62" s="99" t="s">
+      <c r="AP62" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AR62" s="38"/>
-      <c r="AS62" s="78"/>
+      <c r="AS62" s="75"/>
       <c r="AU62" s="3"/>
-      <c r="AV62" s="108"/>
+      <c r="AV62" s="105"/>
       <c r="AX62" s="3"/>
       <c r="BE62" s="8"/>
       <c r="BF62" s="8"/>
-      <c r="BG62" s="102"/>
+      <c r="BG62" s="99"/>
       <c r="BH62" s="8"/>
       <c r="BI62" s="8"/>
       <c r="BJ62" s="8"/>
-      <c r="BK62" s="102"/>
+      <c r="BK62" s="99"/>
     </row>
-    <row r="63" spans="1:63" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>20220727</v>
       </c>
@@ -12318,23 +12318,23 @@
       <c r="AN63" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="AP63" s="99" t="s">
+      <c r="AP63" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AR63" s="4"/>
-      <c r="AS63" s="78"/>
+      <c r="AS63" s="75"/>
       <c r="AU63" s="3"/>
-      <c r="AV63" s="108"/>
+      <c r="AV63" s="105"/>
       <c r="AX63" s="3"/>
       <c r="BE63" s="8"/>
       <c r="BF63" s="8"/>
-      <c r="BG63" s="102"/>
+      <c r="BG63" s="99"/>
       <c r="BH63" s="8"/>
       <c r="BI63" s="8"/>
       <c r="BJ63" s="8"/>
-      <c r="BK63" s="102"/>
+      <c r="BK63" s="99"/>
     </row>
-    <row r="64" spans="1:63" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>20220727</v>
       </c>
@@ -12469,22 +12469,22 @@
       <c r="AN64" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="AP64" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS64" s="79"/>
+      <c r="AP64" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS64" s="76"/>
       <c r="AU64" s="3"/>
-      <c r="AV64" s="108"/>
+      <c r="AV64" s="105"/>
       <c r="AX64" s="3"/>
       <c r="BE64" s="8"/>
-      <c r="BF64" s="103"/>
-      <c r="BG64" s="102"/>
-      <c r="BH64" s="104"/>
+      <c r="BF64" s="100"/>
+      <c r="BG64" s="99"/>
+      <c r="BH64" s="101"/>
       <c r="BI64" s="8"/>
       <c r="BJ64" s="8"/>
-      <c r="BK64" s="102"/>
+      <c r="BK64" s="99"/>
     </row>
-    <row r="65" spans="1:63" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>20220727</v>
       </c>
@@ -12619,22 +12619,22 @@
       <c r="AN65" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AP65" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS65" s="78"/>
+      <c r="AP65" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS65" s="75"/>
       <c r="AU65" s="3"/>
-      <c r="AV65" s="108"/>
+      <c r="AV65" s="105"/>
       <c r="AX65" s="3"/>
       <c r="BE65" s="8"/>
       <c r="BF65" s="8"/>
-      <c r="BG65" s="102"/>
-      <c r="BH65" s="104"/>
+      <c r="BG65" s="99"/>
+      <c r="BH65" s="101"/>
       <c r="BI65" s="8"/>
       <c r="BJ65" s="8"/>
-      <c r="BK65" s="102"/>
+      <c r="BK65" s="99"/>
     </row>
-    <row r="66" spans="1:63" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>20220727</v>
       </c>
@@ -12769,22 +12769,22 @@
       <c r="AN66" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="AP66" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS66" s="78"/>
+      <c r="AP66" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS66" s="75"/>
       <c r="AU66" s="3"/>
-      <c r="AV66" s="108"/>
+      <c r="AV66" s="105"/>
       <c r="AX66" s="3"/>
       <c r="BE66" s="8"/>
       <c r="BF66" s="8"/>
-      <c r="BG66" s="102"/>
-      <c r="BH66" s="104"/>
+      <c r="BG66" s="99"/>
+      <c r="BH66" s="101"/>
       <c r="BI66" s="8"/>
       <c r="BJ66" s="8"/>
-      <c r="BK66" s="102"/>
+      <c r="BK66" s="99"/>
     </row>
-    <row r="67" spans="1:63" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>20220727</v>
       </c>
@@ -12919,25 +12919,25 @@
       <c r="AN67" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="AP67" s="99" t="s">
+      <c r="AP67" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AR67" s="4"/>
-      <c r="AS67" s="78"/>
+      <c r="AS67" s="75"/>
       <c r="AU67" s="3"/>
-      <c r="AV67" s="108"/>
+      <c r="AV67" s="105"/>
       <c r="AX67" s="3"/>
       <c r="BA67" s="3"/>
       <c r="BB67" s="3"/>
       <c r="BE67" s="8"/>
       <c r="BF67" s="8"/>
-      <c r="BG67" s="102"/>
-      <c r="BH67" s="104"/>
+      <c r="BG67" s="99"/>
+      <c r="BH67" s="101"/>
       <c r="BI67" s="8"/>
       <c r="BJ67" s="8"/>
-      <c r="BK67" s="102"/>
+      <c r="BK67" s="99"/>
     </row>
-    <row r="68" spans="1:63" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>20220727</v>
       </c>
@@ -13072,24 +13072,24 @@
       <c r="AN68" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="AP68" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS68" s="78"/>
+      <c r="AP68" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS68" s="75"/>
       <c r="AU68" s="3"/>
-      <c r="AV68" s="108"/>
+      <c r="AV68" s="105"/>
       <c r="AX68" s="3"/>
-      <c r="BA68" s="75"/>
-      <c r="BB68" s="75"/>
+      <c r="BA68" s="72"/>
+      <c r="BB68" s="72"/>
       <c r="BE68" s="8"/>
       <c r="BF68" s="8"/>
-      <c r="BG68" s="102"/>
-      <c r="BH68" s="104"/>
+      <c r="BG68" s="99"/>
+      <c r="BH68" s="101"/>
       <c r="BI68" s="8"/>
-      <c r="BJ68" s="103"/>
-      <c r="BK68" s="102"/>
+      <c r="BJ68" s="100"/>
+      <c r="BK68" s="99"/>
     </row>
-    <row r="69" spans="1:63" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:63" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A69" s="1">
         <v>20220727</v>
       </c>
@@ -13225,24 +13225,24 @@
         <v>303</v>
       </c>
       <c r="AO69"/>
-      <c r="AP69" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS69" s="78"/>
+      <c r="AP69" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS69" s="75"/>
       <c r="AU69" s="3"/>
-      <c r="AV69" s="107"/>
+      <c r="AV69" s="104"/>
       <c r="AX69" s="3"/>
-      <c r="AY69" s="74"/>
-      <c r="BB69" s="76"/>
+      <c r="AY69" s="71"/>
+      <c r="BB69" s="73"/>
       <c r="BE69" s="8"/>
       <c r="BF69" s="8"/>
-      <c r="BG69" s="102"/>
-      <c r="BH69" s="104"/>
+      <c r="BG69" s="99"/>
+      <c r="BH69" s="101"/>
       <c r="BI69" s="8"/>
       <c r="BJ69" s="8"/>
-      <c r="BK69" s="102"/>
+      <c r="BK69" s="99"/>
     </row>
-    <row r="70" spans="1:63" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:63" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A70" s="1">
         <v>20220727</v>
       </c>
@@ -13378,23 +13378,23 @@
         <v>304</v>
       </c>
       <c r="AO70"/>
-      <c r="AP70" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS70" s="78"/>
+      <c r="AP70" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS70" s="75"/>
       <c r="AU70" s="3"/>
-      <c r="AV70" s="107"/>
+      <c r="AV70" s="104"/>
       <c r="AX70" s="3"/>
-      <c r="AY70" s="74"/>
+      <c r="AY70" s="71"/>
       <c r="BE70" s="8"/>
       <c r="BF70" s="8"/>
-      <c r="BG70" s="102"/>
-      <c r="BH70" s="104"/>
+      <c r="BG70" s="99"/>
+      <c r="BH70" s="101"/>
       <c r="BI70" s="8"/>
       <c r="BJ70" s="8"/>
-      <c r="BK70" s="102"/>
+      <c r="BK70" s="99"/>
     </row>
-    <row r="71" spans="1:63" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:63" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A71" s="1">
         <v>20220727</v>
       </c>
@@ -13530,24 +13530,24 @@
         <v>305</v>
       </c>
       <c r="AO71"/>
-      <c r="AP71" s="99" t="s">
+      <c r="AP71" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AR71" s="38"/>
-      <c r="AS71" s="78"/>
+      <c r="AS71" s="75"/>
       <c r="AU71" s="3"/>
-      <c r="AV71" s="74"/>
+      <c r="AV71" s="71"/>
       <c r="AX71" s="3"/>
-      <c r="AY71" s="74"/>
+      <c r="AY71" s="71"/>
       <c r="BE71" s="8"/>
-      <c r="BF71" s="103"/>
-      <c r="BG71" s="102"/>
-      <c r="BH71" s="104"/>
+      <c r="BF71" s="100"/>
+      <c r="BG71" s="99"/>
+      <c r="BH71" s="101"/>
       <c r="BI71" s="8"/>
-      <c r="BJ71" s="103"/>
-      <c r="BK71" s="102"/>
+      <c r="BJ71" s="100"/>
+      <c r="BK71" s="99"/>
     </row>
-    <row r="72" spans="1:63" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:63" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A72" s="1">
         <v>20220727</v>
       </c>
@@ -13683,23 +13683,23 @@
         <v>306</v>
       </c>
       <c r="AO72"/>
-      <c r="AP72" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS72" s="78"/>
+      <c r="AP72" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS72" s="75"/>
       <c r="AU72" s="3"/>
-      <c r="AV72" s="74"/>
+      <c r="AV72" s="71"/>
       <c r="AX72" s="3"/>
-      <c r="AY72" s="74"/>
+      <c r="AY72" s="71"/>
       <c r="BE72" s="8"/>
       <c r="BF72" s="8"/>
       <c r="BG72" s="8"/>
-      <c r="BH72" s="104"/>
+      <c r="BH72" s="101"/>
       <c r="BI72" s="8"/>
       <c r="BJ72" s="8"/>
       <c r="BK72" s="8"/>
     </row>
-    <row r="73" spans="1:63" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:63" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A73" s="1">
         <v>20220727</v>
       </c>
@@ -13835,17 +13835,17 @@
         <v>307</v>
       </c>
       <c r="AO73"/>
-      <c r="AP73" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS73" s="78"/>
+      <c r="AP73" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS73" s="75"/>
       <c r="AU73" s="3"/>
-      <c r="AV73" s="74"/>
+      <c r="AV73" s="71"/>
       <c r="AX73" s="3"/>
-      <c r="AY73" s="74"/>
-      <c r="BH73" s="101"/>
+      <c r="AY73" s="71"/>
+      <c r="BH73" s="98"/>
     </row>
-    <row r="74" spans="1:63" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:63" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A74" s="1">
         <v>20220727</v>
       </c>
@@ -13981,16 +13981,16 @@
         <v>308</v>
       </c>
       <c r="AO74"/>
-      <c r="AP74" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS74" s="78"/>
+      <c r="AP74" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS74" s="75"/>
       <c r="AU74" s="3"/>
-      <c r="AV74" s="74"/>
+      <c r="AV74" s="71"/>
       <c r="AX74" s="3"/>
-      <c r="AY74" s="74"/>
+      <c r="AY74" s="71"/>
     </row>
-    <row r="75" spans="1:63" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:63" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A75" s="1">
         <v>20220727</v>
       </c>
@@ -14126,16 +14126,16 @@
         <v>309</v>
       </c>
       <c r="AO75"/>
-      <c r="AP75" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS75" s="78"/>
+      <c r="AP75" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS75" s="75"/>
       <c r="AU75" s="3"/>
-      <c r="AV75" s="74"/>
+      <c r="AV75" s="71"/>
       <c r="AX75" s="3"/>
-      <c r="AY75" s="74"/>
+      <c r="AY75" s="71"/>
     </row>
-    <row r="76" spans="1:63" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:63" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A76" s="1">
         <v>20220727</v>
       </c>
@@ -14271,16 +14271,16 @@
         <v>310</v>
       </c>
       <c r="AO76"/>
-      <c r="AP76" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS76" s="78"/>
+      <c r="AP76" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS76" s="75"/>
       <c r="AU76" s="3"/>
-      <c r="AV76" s="74"/>
+      <c r="AV76" s="71"/>
       <c r="AX76" s="3"/>
-      <c r="AY76" s="74"/>
+      <c r="AY76" s="71"/>
     </row>
-    <row r="77" spans="1:63" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:63" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A77" s="1">
         <v>20220727</v>
       </c>
@@ -14416,20 +14416,20 @@
         <v>311</v>
       </c>
       <c r="AO77"/>
-      <c r="AP77" s="99" t="s">
+      <c r="AP77" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AR77" s="38"/>
-      <c r="AS77" s="78"/>
-      <c r="AT77" s="79"/>
+      <c r="AS77" s="75"/>
+      <c r="AT77" s="76"/>
       <c r="AU77" s="3"/>
-      <c r="AV77" s="74"/>
+      <c r="AV77" s="71"/>
       <c r="AX77" s="3"/>
-      <c r="AY77" s="74"/>
+      <c r="AY77" s="71"/>
       <c r="BA77" s="3"/>
       <c r="BB77" s="3"/>
     </row>
-    <row r="78" spans="1:63" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:63" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A78" s="1">
         <v>20220727</v>
       </c>
@@ -14565,19 +14565,19 @@
         <v>312</v>
       </c>
       <c r="AO78"/>
-      <c r="AP78" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS78" s="78"/>
+      <c r="AP78" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS78" s="75"/>
       <c r="AU78" s="3"/>
-      <c r="AV78" s="74"/>
+      <c r="AV78" s="71"/>
       <c r="AX78" s="3"/>
-      <c r="AY78" s="74"/>
-      <c r="AZ78" s="76"/>
-      <c r="BA78" s="75"/>
-      <c r="BB78" s="75"/>
+      <c r="AY78" s="71"/>
+      <c r="AZ78" s="73"/>
+      <c r="BA78" s="72"/>
+      <c r="BB78" s="72"/>
     </row>
-    <row r="79" spans="1:63" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:63" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A79" s="1">
         <v>20220727</v>
       </c>
@@ -14715,14 +14715,14 @@
       <c r="AO79" s="34" t="s">
         <v>359</v>
       </c>
-      <c r="AP79" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS79" s="78"/>
-      <c r="AV79" s="68"/>
-      <c r="BB79" s="76"/>
+      <c r="AP79" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS79" s="75"/>
+      <c r="AV79" s="65"/>
+      <c r="BB79" s="73"/>
     </row>
-    <row r="80" spans="1:63" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:63" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A80" s="1">
         <v>20220727</v>
       </c>
@@ -14857,15 +14857,15 @@
       <c r="AN80" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="AP80" s="99" t="s">
+      <c r="AP80" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AQ80" s="3"/>
-      <c r="AS80" s="78"/>
-      <c r="AV80" s="75"/>
-      <c r="AW80" s="76"/>
+      <c r="AS80" s="75"/>
+      <c r="AV80" s="72"/>
+      <c r="AW80" s="73"/>
     </row>
-    <row r="81" spans="1:51" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A81" s="1">
         <v>20220727</v>
       </c>
@@ -15000,15 +15000,15 @@
       <c r="AN81" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AP81" s="99" t="s">
+      <c r="AP81" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AQ81" s="3"/>
-      <c r="AS81" s="78"/>
-      <c r="AV81" s="75"/>
-      <c r="AW81" s="76"/>
+      <c r="AS81" s="75"/>
+      <c r="AV81" s="72"/>
+      <c r="AW81" s="73"/>
     </row>
-    <row r="82" spans="1:51" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A82" s="1">
         <v>20220727</v>
       </c>
@@ -15143,15 +15143,15 @@
       <c r="AN82" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="AP82" s="99" t="s">
+      <c r="AP82" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AQ82" s="3"/>
-      <c r="AS82" s="78"/>
-      <c r="AV82" s="75"/>
-      <c r="AW82" s="76"/>
+      <c r="AS82" s="75"/>
+      <c r="AV82" s="72"/>
+      <c r="AW82" s="73"/>
     </row>
-    <row r="83" spans="1:51" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A83" s="1">
         <v>20220727</v>
       </c>
@@ -15286,15 +15286,15 @@
       <c r="AN83" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="AP83" s="99" t="s">
+      <c r="AP83" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AQ83" s="3"/>
-      <c r="AS83" s="78"/>
-      <c r="AV83" s="75"/>
-      <c r="AW83" s="76"/>
+      <c r="AS83" s="75"/>
+      <c r="AV83" s="72"/>
+      <c r="AW83" s="73"/>
     </row>
-    <row r="84" spans="1:51" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A84" s="1">
         <v>20220727</v>
       </c>
@@ -15429,15 +15429,15 @@
       <c r="AN84" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="AP84" s="99" t="s">
+      <c r="AP84" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AQ84" s="3"/>
-      <c r="AS84" s="78"/>
-      <c r="AV84" s="75"/>
-      <c r="AW84" s="76"/>
+      <c r="AS84" s="75"/>
+      <c r="AV84" s="72"/>
+      <c r="AW84" s="73"/>
     </row>
-    <row r="85" spans="1:51" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A85" s="1">
         <v>20220727</v>
       </c>
@@ -15569,14 +15569,14 @@
       <c r="AN85" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="AP85" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS85" s="78"/>
-      <c r="AV85" s="75"/>
-      <c r="AW85" s="76"/>
+      <c r="AP85" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS85" s="75"/>
+      <c r="AV85" s="72"/>
+      <c r="AW85" s="73"/>
     </row>
-    <row r="86" spans="1:51" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A86" s="1">
         <v>20220727</v>
       </c>
@@ -15708,15 +15708,15 @@
       <c r="AN86" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="AP86" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS86" s="78"/>
-      <c r="AV86" s="75"/>
-      <c r="AW86" s="76"/>
-      <c r="AY86" s="74"/>
+      <c r="AP86" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS86" s="75"/>
+      <c r="AV86" s="72"/>
+      <c r="AW86" s="73"/>
+      <c r="AY86" s="71"/>
     </row>
-    <row r="87" spans="1:51" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A87" s="1">
         <v>20220727</v>
       </c>
@@ -15848,15 +15848,15 @@
       <c r="AN87" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="AP87" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS87" s="78"/>
-      <c r="AV87" s="75"/>
-      <c r="AW87" s="76"/>
-      <c r="AY87" s="74"/>
+      <c r="AP87" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS87" s="75"/>
+      <c r="AV87" s="72"/>
+      <c r="AW87" s="73"/>
+      <c r="AY87" s="71"/>
     </row>
-    <row r="88" spans="1:51" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A88" s="1">
         <v>20220727</v>
       </c>
@@ -15988,15 +15988,15 @@
       <c r="AN88" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="AP88" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS88" s="78"/>
-      <c r="AV88" s="75"/>
-      <c r="AW88" s="76"/>
-      <c r="AY88" s="74"/>
+      <c r="AP88" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS88" s="75"/>
+      <c r="AV88" s="72"/>
+      <c r="AW88" s="73"/>
+      <c r="AY88" s="71"/>
     </row>
-    <row r="89" spans="1:51" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A89" s="1">
         <v>20220727</v>
       </c>
@@ -16128,15 +16128,15 @@
       <c r="AN89" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="AP89" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS89" s="78"/>
-      <c r="AV89" s="75"/>
-      <c r="AW89" s="76"/>
-      <c r="AY89" s="74"/>
+      <c r="AP89" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS89" s="75"/>
+      <c r="AV89" s="72"/>
+      <c r="AW89" s="73"/>
+      <c r="AY89" s="71"/>
     </row>
-    <row r="90" spans="1:51" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A90" s="1">
         <v>20220727</v>
       </c>
@@ -16268,15 +16268,15 @@
       <c r="AN90" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AP90" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS90" s="78"/>
-      <c r="AV90" s="75"/>
-      <c r="AW90" s="76"/>
-      <c r="AY90" s="74"/>
+      <c r="AP90" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS90" s="75"/>
+      <c r="AV90" s="72"/>
+      <c r="AW90" s="73"/>
+      <c r="AY90" s="71"/>
     </row>
-    <row r="91" spans="1:51" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A91" s="1">
         <v>20220727</v>
       </c>
@@ -16408,14 +16408,14 @@
       <c r="AN91" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="AP91" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS91" s="78"/>
-      <c r="AV91" s="75"/>
-      <c r="AW91" s="76"/>
+      <c r="AP91" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS91" s="75"/>
+      <c r="AV91" s="72"/>
+      <c r="AW91" s="73"/>
     </row>
-    <row r="92" spans="1:51" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A92" s="1">
         <v>20220727</v>
       </c>
@@ -16547,15 +16547,15 @@
       <c r="AN92" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="AP92" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS92" s="78"/>
-      <c r="AV92" s="75"/>
-      <c r="AW92" s="76"/>
-      <c r="AY92" s="74"/>
+      <c r="AP92" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS92" s="75"/>
+      <c r="AV92" s="72"/>
+      <c r="AW92" s="73"/>
+      <c r="AY92" s="71"/>
     </row>
-    <row r="93" spans="1:51" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A93" s="1">
         <v>20220727</v>
       </c>
@@ -16650,7 +16650,7 @@
         <f t="shared" ref="AB93:AB102" si="49">Y93/W93</f>
         <v>600.71385578106742</v>
       </c>
-      <c r="AC93" s="71">
+      <c r="AC93" s="68">
         <v>10.0867</v>
       </c>
       <c r="AD93" s="13">
@@ -16691,15 +16691,15 @@
         <v>283</v>
       </c>
       <c r="AO93" s="34"/>
-      <c r="AP93" s="99" t="s">
+      <c r="AP93" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AQ93" s="3"/>
-      <c r="AS93" s="78"/>
-      <c r="AV93" s="75"/>
-      <c r="AY93" s="74"/>
+      <c r="AS93" s="75"/>
+      <c r="AV93" s="72"/>
+      <c r="AY93" s="71"/>
     </row>
-    <row r="94" spans="1:51" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A94" s="1">
         <v>20220727</v>
       </c>
@@ -16835,15 +16835,15 @@
         <v>285</v>
       </c>
       <c r="AO94" s="34"/>
-      <c r="AP94" s="99" t="s">
+      <c r="AP94" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AQ94" s="3"/>
-      <c r="AS94" s="78"/>
-      <c r="AV94" s="75"/>
-      <c r="AY94" s="74"/>
+      <c r="AS94" s="75"/>
+      <c r="AV94" s="72"/>
+      <c r="AY94" s="71"/>
     </row>
-    <row r="95" spans="1:51" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A95" s="1">
         <v>20220727</v>
       </c>
@@ -16979,14 +16979,14 @@
         <v>287</v>
       </c>
       <c r="AO95" s="34"/>
-      <c r="AP95" s="99" t="s">
+      <c r="AP95" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AQ95" s="3"/>
-      <c r="AV95" s="75"/>
-      <c r="AY95" s="74"/>
+      <c r="AV95" s="72"/>
+      <c r="AY95" s="71"/>
     </row>
-    <row r="96" spans="1:51" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A96" s="1">
         <v>20220727</v>
       </c>
@@ -17122,14 +17122,14 @@
         <v>289</v>
       </c>
       <c r="AO96" s="34"/>
-      <c r="AP96" s="99" t="s">
+      <c r="AP96" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AQ96" s="3"/>
-      <c r="AV96" s="75"/>
-      <c r="AY96" s="74"/>
+      <c r="AV96" s="72"/>
+      <c r="AY96" s="71"/>
     </row>
-    <row r="97" spans="1:54" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A97" s="1">
         <v>20220727</v>
       </c>
@@ -17265,14 +17265,14 @@
         <v>291</v>
       </c>
       <c r="AO97" s="34"/>
-      <c r="AP97" s="99" t="s">
+      <c r="AP97" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AQ97" s="3"/>
-      <c r="AV97" s="75"/>
-      <c r="AY97" s="74"/>
+      <c r="AV97" s="72"/>
+      <c r="AY97" s="71"/>
     </row>
-    <row r="98" spans="1:54" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A98" s="1">
         <v>20220727</v>
       </c>
@@ -17408,15 +17408,15 @@
         <v>284</v>
       </c>
       <c r="AO98" s="34"/>
-      <c r="AP98" s="99" t="s">
+      <c r="AP98" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AQ98" s="3"/>
       <c r="AR98" s="3"/>
-      <c r="AV98" s="75"/>
-      <c r="AY98" s="74"/>
+      <c r="AV98" s="72"/>
+      <c r="AY98" s="71"/>
     </row>
-    <row r="99" spans="1:54" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A99" s="1">
         <v>20220727</v>
       </c>
@@ -17552,15 +17552,15 @@
         <v>286</v>
       </c>
       <c r="AO99" s="34"/>
-      <c r="AP99" s="99" t="s">
+      <c r="AP99" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AQ99" s="3"/>
       <c r="AR99" s="3"/>
-      <c r="AV99" s="75"/>
-      <c r="AY99" s="74"/>
+      <c r="AV99" s="72"/>
+      <c r="AY99" s="71"/>
     </row>
-    <row r="100" spans="1:54" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A100" s="1">
         <v>20220727</v>
       </c>
@@ -17696,15 +17696,15 @@
         <v>288</v>
       </c>
       <c r="AO100" s="34"/>
-      <c r="AP100" s="99" t="s">
+      <c r="AP100" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AQ100" s="3"/>
       <c r="AR100" s="3"/>
-      <c r="AV100" s="75"/>
-      <c r="AY100" s="74"/>
+      <c r="AV100" s="72"/>
+      <c r="AY100" s="71"/>
     </row>
-    <row r="101" spans="1:54" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A101" s="1">
         <v>20220727</v>
       </c>
@@ -17840,15 +17840,15 @@
         <v>290</v>
       </c>
       <c r="AO101" s="34"/>
-      <c r="AP101" s="99" t="s">
+      <c r="AP101" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AQ101" s="3"/>
       <c r="AR101" s="3"/>
-      <c r="AV101" s="75"/>
-      <c r="AY101" s="74"/>
+      <c r="AV101" s="72"/>
+      <c r="AY101" s="71"/>
     </row>
-    <row r="102" spans="1:54" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A102" s="1">
         <v>20220727</v>
       </c>
@@ -17984,15 +17984,15 @@
         <v>292</v>
       </c>
       <c r="AO102" s="34"/>
-      <c r="AP102" s="99" t="s">
+      <c r="AP102" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AQ102" s="3"/>
       <c r="AR102" s="3"/>
-      <c r="AV102" s="75"/>
-      <c r="AY102" s="74"/>
+      <c r="AV102" s="72"/>
+      <c r="AY102" s="71"/>
     </row>
-    <row r="103" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A103" s="38" t="s">
         <v>342</v>
       </c>
@@ -18006,9 +18006,9 @@
       <c r="X103" s="12"/>
       <c r="Y103" s="12"/>
       <c r="AK103" s="3"/>
-      <c r="AV103" s="105"/>
+      <c r="AV103" s="102"/>
     </row>
-    <row r="104" spans="1:54" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:54" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>20220808</v>
       </c>
@@ -18144,14 +18144,14 @@
       <c r="AN104" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AP104" s="100" t="s">
+      <c r="AP104" s="97" t="s">
         <v>363</v>
       </c>
       <c r="AU104" s="3"/>
-      <c r="AV104" s="106"/>
+      <c r="AV104" s="103"/>
       <c r="AX104" s="3"/>
     </row>
-    <row r="105" spans="1:54" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:54" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>20220808</v>
       </c>
@@ -18287,14 +18287,14 @@
       <c r="AN105" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="AP105" s="100" t="s">
+      <c r="AP105" s="97" t="s">
         <v>363</v>
       </c>
       <c r="AU105" s="3"/>
-      <c r="AV105" s="106"/>
+      <c r="AV105" s="103"/>
       <c r="AX105" s="3"/>
     </row>
-    <row r="106" spans="1:54" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:54" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>20220808</v>
       </c>
@@ -18430,14 +18430,14 @@
       <c r="AN106" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AP106" s="100" t="s">
+      <c r="AP106" s="97" t="s">
         <v>363</v>
       </c>
       <c r="AU106" s="3"/>
-      <c r="AV106" s="106"/>
+      <c r="AV106" s="103"/>
       <c r="AX106" s="3"/>
     </row>
-    <row r="107" spans="1:54" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:54" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>20220808</v>
       </c>
@@ -18573,14 +18573,14 @@
       <c r="AN107" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AP107" s="100" t="s">
+      <c r="AP107" s="97" t="s">
         <v>363</v>
       </c>
       <c r="AU107" s="3"/>
-      <c r="AV107" s="106"/>
+      <c r="AV107" s="103"/>
       <c r="AX107" s="3"/>
     </row>
-    <row r="108" spans="1:54" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:54" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>20220808</v>
       </c>
@@ -18716,14 +18716,14 @@
       <c r="AN108" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AP108" s="100" t="s">
+      <c r="AP108" s="97" t="s">
         <v>363</v>
       </c>
       <c r="AU108" s="3"/>
-      <c r="AV108" s="106"/>
+      <c r="AV108" s="103"/>
       <c r="AX108" s="3"/>
     </row>
-    <row r="109" spans="1:54" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:54" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>20220808</v>
       </c>
@@ -18859,14 +18859,14 @@
       <c r="AN109" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="AP109" s="100" t="s">
+      <c r="AP109" s="97" t="s">
         <v>363</v>
       </c>
       <c r="AU109" s="3"/>
-      <c r="AV109" s="106"/>
+      <c r="AV109" s="103"/>
       <c r="AX109" s="3"/>
     </row>
-    <row r="110" spans="1:54" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:54" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>20220808</v>
       </c>
@@ -19002,14 +19002,14 @@
       <c r="AN110" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="AP110" s="100" t="s">
+      <c r="AP110" s="97" t="s">
         <v>363</v>
       </c>
       <c r="AU110" s="3"/>
-      <c r="AV110" s="106"/>
+      <c r="AV110" s="103"/>
       <c r="AX110" s="3"/>
     </row>
-    <row r="111" spans="1:54" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:54" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>20220808</v>
       </c>
@@ -19145,14 +19145,14 @@
       <c r="AN111" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="AP111" s="100" t="s">
+      <c r="AP111" s="97" t="s">
         <v>363</v>
       </c>
       <c r="AU111" s="3"/>
-      <c r="AV111" s="106"/>
+      <c r="AV111" s="103"/>
       <c r="AX111" s="3"/>
     </row>
-    <row r="112" spans="1:54" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:54" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>20220808</v>
       </c>
@@ -19288,17 +19288,17 @@
       <c r="AN112" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="AP112" s="100" t="s">
+      <c r="AP112" s="97" t="s">
         <v>363</v>
       </c>
-      <c r="AR112" s="75"/>
+      <c r="AR112" s="72"/>
       <c r="AU112" s="3"/>
-      <c r="AV112" s="106"/>
+      <c r="AV112" s="103"/>
       <c r="AX112" s="3"/>
       <c r="BA112" s="3"/>
       <c r="BB112" s="3"/>
     </row>
-    <row r="113" spans="1:54" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:54" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>20220808</v>
       </c>
@@ -19434,16 +19434,16 @@
       <c r="AN113" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AP113" s="100" t="s">
+      <c r="AP113" s="97" t="s">
         <v>363</v>
       </c>
       <c r="AU113" s="3"/>
-      <c r="AV113" s="106"/>
+      <c r="AV113" s="103"/>
       <c r="AX113" s="3"/>
-      <c r="BA113" s="75"/>
-      <c r="BB113" s="75"/>
+      <c r="BA113" s="72"/>
+      <c r="BB113" s="72"/>
     </row>
-    <row r="114" spans="1:54" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A114" s="1">
         <v>20220808</v>
       </c>
@@ -19579,16 +19579,16 @@
       <c r="AN114" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AP114" s="100" t="s">
+      <c r="AP114" s="97" t="s">
         <v>363</v>
       </c>
       <c r="AU114" s="3"/>
-      <c r="AV114" s="107"/>
+      <c r="AV114" s="104"/>
       <c r="AX114" s="3"/>
-      <c r="AY114" s="74"/>
-      <c r="BB114" s="76"/>
+      <c r="AY114" s="71"/>
+      <c r="BB114" s="73"/>
     </row>
-    <row r="115" spans="1:54" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A115" s="1">
         <v>20220808</v>
       </c>
@@ -19724,15 +19724,15 @@
       <c r="AN115" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="AP115" s="100" t="s">
+      <c r="AP115" s="97" t="s">
         <v>363</v>
       </c>
       <c r="AU115" s="3"/>
-      <c r="AV115" s="74"/>
+      <c r="AV115" s="71"/>
       <c r="AX115" s="3"/>
-      <c r="AY115" s="74"/>
+      <c r="AY115" s="71"/>
     </row>
-    <row r="116" spans="1:54" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A116" s="1">
         <v>20220808</v>
       </c>
@@ -19868,15 +19868,15 @@
       <c r="AN116" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AP116" s="100" t="s">
+      <c r="AP116" s="97" t="s">
         <v>363</v>
       </c>
       <c r="AU116" s="3"/>
-      <c r="AV116" s="74"/>
+      <c r="AV116" s="71"/>
       <c r="AX116" s="3"/>
-      <c r="AY116" s="74"/>
+      <c r="AY116" s="71"/>
     </row>
-    <row r="117" spans="1:54" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A117" s="1">
         <v>20220808</v>
       </c>
@@ -20012,15 +20012,15 @@
       <c r="AN117" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="AP117" s="100" t="s">
+      <c r="AP117" s="97" t="s">
         <v>363</v>
       </c>
       <c r="AU117" s="3"/>
-      <c r="AV117" s="74"/>
+      <c r="AV117" s="71"/>
       <c r="AX117" s="3"/>
-      <c r="AY117" s="74"/>
+      <c r="AY117" s="71"/>
     </row>
-    <row r="118" spans="1:54" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A118" s="1">
         <v>20220808</v>
       </c>
@@ -20156,15 +20156,15 @@
       <c r="AN118" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="AP118" s="100" t="s">
+      <c r="AP118" s="97" t="s">
         <v>363</v>
       </c>
       <c r="AU118" s="3"/>
-      <c r="AV118" s="74"/>
+      <c r="AV118" s="71"/>
       <c r="AX118" s="3"/>
-      <c r="AY118" s="74"/>
+      <c r="AY118" s="71"/>
     </row>
-    <row r="119" spans="1:54" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A119" s="1">
         <v>20220808</v>
       </c>
@@ -20300,15 +20300,15 @@
       <c r="AN119" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="AP119" s="100" t="s">
+      <c r="AP119" s="97" t="s">
         <v>363</v>
       </c>
       <c r="AU119" s="3"/>
-      <c r="AV119" s="74"/>
+      <c r="AV119" s="71"/>
       <c r="AX119" s="3"/>
-      <c r="AY119" s="74"/>
+      <c r="AY119" s="71"/>
     </row>
-    <row r="120" spans="1:54" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A120" s="1">
         <v>20220808</v>
       </c>
@@ -20444,16 +20444,16 @@
       <c r="AN120" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="AP120" s="100" t="s">
+      <c r="AP120" s="97" t="s">
         <v>363</v>
       </c>
-      <c r="AR120" s="75"/>
+      <c r="AR120" s="72"/>
       <c r="AU120" s="3"/>
-      <c r="AV120" s="74"/>
+      <c r="AV120" s="71"/>
       <c r="AX120" s="3"/>
-      <c r="AY120" s="74"/>
+      <c r="AY120" s="71"/>
     </row>
-    <row r="121" spans="1:54" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A121" s="1">
         <v>20220808</v>
       </c>
@@ -20589,15 +20589,15 @@
       <c r="AN121" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="AP121" s="100" t="s">
+      <c r="AP121" s="97" t="s">
         <v>363</v>
       </c>
       <c r="AU121" s="3"/>
-      <c r="AV121" s="74"/>
+      <c r="AV121" s="71"/>
       <c r="AX121" s="3"/>
-      <c r="AY121" s="74"/>
+      <c r="AY121" s="71"/>
     </row>
-    <row r="122" spans="1:54" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A122" s="1">
         <v>20220808</v>
       </c>
@@ -20733,17 +20733,17 @@
       <c r="AN122" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="AP122" s="100" t="s">
+      <c r="AP122" s="97" t="s">
         <v>363</v>
       </c>
       <c r="AU122" s="3"/>
-      <c r="AV122" s="74"/>
+      <c r="AV122" s="71"/>
       <c r="AX122" s="3"/>
-      <c r="AY122" s="74"/>
+      <c r="AY122" s="71"/>
       <c r="BA122" s="3"/>
       <c r="BB122" s="3"/>
     </row>
-    <row r="123" spans="1:54" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A123" s="1">
         <v>20220808</v>
       </c>
@@ -20879,18 +20879,18 @@
       <c r="AN123" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="AP123" s="100" t="s">
+      <c r="AP123" s="97" t="s">
         <v>363</v>
       </c>
       <c r="AR123" s="3"/>
-      <c r="AS123" s="74"/>
+      <c r="AS123" s="71"/>
       <c r="AU123" s="3"/>
-      <c r="AV123" s="74"/>
-      <c r="AW123" s="76"/>
-      <c r="AX123" s="75"/>
-      <c r="AY123" s="75"/>
+      <c r="AV123" s="71"/>
+      <c r="AW123" s="73"/>
+      <c r="AX123" s="72"/>
+      <c r="AY123" s="72"/>
     </row>
-    <row r="124" spans="1:54" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A124" s="1">
         <v>20220808</v>
       </c>
@@ -21026,12 +21026,12 @@
       <c r="AN124" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AP124" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AY124" s="76"/>
+      <c r="AP124" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY124" s="73"/>
     </row>
-    <row r="125" spans="1:54" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A125" s="1">
         <v>20220808</v>
       </c>
@@ -21167,13 +21167,13 @@
       <c r="AN125" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="AP125" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS125" s="75"/>
-      <c r="AT125" s="76"/>
+      <c r="AP125" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS125" s="72"/>
+      <c r="AT125" s="73"/>
     </row>
-    <row r="126" spans="1:54" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A126" s="1">
         <v>20220808</v>
       </c>
@@ -21309,13 +21309,13 @@
       <c r="AN126" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AP126" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS126" s="75"/>
-      <c r="AT126" s="76"/>
+      <c r="AP126" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS126" s="72"/>
+      <c r="AT126" s="73"/>
     </row>
-    <row r="127" spans="1:54" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A127" s="1">
         <v>20220808</v>
       </c>
@@ -21451,13 +21451,13 @@
       <c r="AN127" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="AP127" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS127" s="75"/>
-      <c r="AT127" s="76"/>
+      <c r="AP127" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS127" s="72"/>
+      <c r="AT127" s="73"/>
     </row>
-    <row r="128" spans="1:54" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A128" s="1">
         <v>20220808</v>
       </c>
@@ -21593,13 +21593,13 @@
       <c r="AN128" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="AP128" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS128" s="75"/>
-      <c r="AT128" s="76"/>
+      <c r="AP128" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS128" s="72"/>
+      <c r="AT128" s="73"/>
     </row>
-    <row r="129" spans="1:48" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A129" s="1">
         <v>20220808</v>
       </c>
@@ -21735,13 +21735,13 @@
       <c r="AN129" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="AP129" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS129" s="75"/>
-      <c r="AT129" s="76"/>
+      <c r="AP129" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS129" s="72"/>
+      <c r="AT129" s="73"/>
     </row>
-    <row r="130" spans="1:48" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A130" s="1">
         <v>20220808</v>
       </c>
@@ -21877,13 +21877,13 @@
       <c r="AN130" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="AP130" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS130" s="75"/>
-      <c r="AT130" s="76"/>
+      <c r="AP130" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS130" s="72"/>
+      <c r="AT130" s="73"/>
     </row>
-    <row r="131" spans="1:48" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A131" s="1">
         <v>20220808</v>
       </c>
@@ -22019,14 +22019,14 @@
       <c r="AN131" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="AP131" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS131" s="75"/>
-      <c r="AT131" s="76"/>
-      <c r="AV131" s="74"/>
+      <c r="AP131" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS131" s="72"/>
+      <c r="AT131" s="73"/>
+      <c r="AV131" s="71"/>
     </row>
-    <row r="132" spans="1:48" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A132" s="1">
         <v>20220808</v>
       </c>
@@ -22162,14 +22162,14 @@
       <c r="AN132" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="AP132" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS132" s="75"/>
-      <c r="AT132" s="76"/>
-      <c r="AV132" s="74"/>
+      <c r="AP132" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS132" s="72"/>
+      <c r="AT132" s="73"/>
+      <c r="AV132" s="71"/>
     </row>
-    <row r="133" spans="1:48" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A133" s="1">
         <v>20220808</v>
       </c>
@@ -22305,14 +22305,14 @@
       <c r="AN133" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="AP133" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS133" s="75"/>
-      <c r="AT133" s="76"/>
-      <c r="AV133" s="74"/>
+      <c r="AP133" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS133" s="72"/>
+      <c r="AT133" s="73"/>
+      <c r="AV133" s="71"/>
     </row>
-    <row r="134" spans="1:48" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A134" s="1">
         <v>20220808</v>
       </c>
@@ -22448,14 +22448,14 @@
       <c r="AN134" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="AP134" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS134" s="75"/>
-      <c r="AT134" s="76"/>
-      <c r="AV134" s="74"/>
+      <c r="AP134" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS134" s="72"/>
+      <c r="AT134" s="73"/>
+      <c r="AV134" s="71"/>
     </row>
-    <row r="135" spans="1:48" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A135" s="1">
         <v>20220808</v>
       </c>
@@ -22591,14 +22591,14 @@
       <c r="AN135" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AP135" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS135" s="75"/>
-      <c r="AT135" s="76"/>
-      <c r="AV135" s="74"/>
+      <c r="AP135" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS135" s="72"/>
+      <c r="AT135" s="73"/>
+      <c r="AV135" s="71"/>
     </row>
-    <row r="136" spans="1:48" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A136" s="1">
         <v>20220808</v>
       </c>
@@ -22734,13 +22734,13 @@
       <c r="AN136" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="AP136" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS136" s="75"/>
-      <c r="AT136" s="76"/>
+      <c r="AP136" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS136" s="72"/>
+      <c r="AT136" s="73"/>
     </row>
-    <row r="137" spans="1:48" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A137" s="1">
         <v>20220808</v>
       </c>
@@ -22876,14 +22876,14 @@
       <c r="AN137" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="AP137" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS137" s="75"/>
-      <c r="AT137" s="76"/>
-      <c r="AV137" s="74"/>
+      <c r="AP137" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS137" s="72"/>
+      <c r="AT137" s="73"/>
+      <c r="AV137" s="71"/>
     </row>
-    <row r="138" spans="1:48" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A138" s="1">
         <v>20220808</v>
       </c>
@@ -23019,14 +23019,14 @@
       <c r="AN138" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="AP138" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS138" s="75"/>
-      <c r="AT138" s="76"/>
-      <c r="AV138" s="74"/>
+      <c r="AP138" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS138" s="72"/>
+      <c r="AT138" s="73"/>
+      <c r="AV138" s="71"/>
     </row>
-    <row r="139" spans="1:48" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A139" s="1">
         <v>20220808</v>
       </c>
@@ -23162,14 +23162,14 @@
       <c r="AN139" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="AP139" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS139" s="75"/>
-      <c r="AT139" s="76"/>
-      <c r="AV139" s="74"/>
+      <c r="AP139" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS139" s="72"/>
+      <c r="AT139" s="73"/>
+      <c r="AV139" s="71"/>
     </row>
-    <row r="140" spans="1:48" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A140" s="1">
         <v>20220808</v>
       </c>
@@ -23305,13 +23305,13 @@
       <c r="AN140" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="AP140" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS140" s="75"/>
-      <c r="AT140" s="76"/>
+      <c r="AP140" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS140" s="72"/>
+      <c r="AT140" s="73"/>
     </row>
-    <row r="141" spans="1:48" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A141" s="1">
         <v>20220808</v>
       </c>
@@ -23447,14 +23447,14 @@
       <c r="AN141" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AP141" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS141" s="75"/>
-      <c r="AT141" s="76"/>
-      <c r="AV141" s="74"/>
+      <c r="AP141" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS141" s="72"/>
+      <c r="AT141" s="73"/>
+      <c r="AV141" s="71"/>
     </row>
-    <row r="142" spans="1:48" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A142" s="1">
         <v>20220808</v>
       </c>
@@ -23590,14 +23590,14 @@
       <c r="AN142" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="AP142" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS142" s="75"/>
-      <c r="AT142" s="76"/>
-      <c r="AV142" s="74"/>
+      <c r="AP142" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS142" s="72"/>
+      <c r="AT142" s="73"/>
+      <c r="AV142" s="71"/>
     </row>
-    <row r="143" spans="1:48" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A143" s="1">
         <v>20220808</v>
       </c>
@@ -23733,14 +23733,14 @@
       <c r="AN143" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="AP143" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS143" s="75"/>
-      <c r="AT143" s="76"/>
-      <c r="AV143" s="74"/>
+      <c r="AP143" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS143" s="72"/>
+      <c r="AT143" s="73"/>
+      <c r="AV143" s="71"/>
     </row>
-    <row r="144" spans="1:48" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A144" s="1">
         <v>20220808</v>
       </c>
@@ -23876,13 +23876,13 @@
       <c r="AN144" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="AP144" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS144" s="75"/>
-      <c r="AT144" s="76"/>
+      <c r="AP144" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS144" s="72"/>
+      <c r="AT144" s="73"/>
     </row>
-    <row r="145" spans="1:48" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A145" s="1">
         <v>20220808</v>
       </c>
@@ -24018,14 +24018,14 @@
       <c r="AN145" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="AP145" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AS145" s="75"/>
-      <c r="AT145" s="76"/>
-      <c r="AV145" s="74"/>
+      <c r="AP145" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS145" s="72"/>
+      <c r="AT145" s="73"/>
+      <c r="AV145" s="71"/>
     </row>
-    <row r="146" spans="1:48" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A146" s="1">
         <v>20220808</v>
       </c>
@@ -24121,7 +24121,7 @@
         <f t="shared" si="67"/>
         <v>313.12754140743937</v>
       </c>
-      <c r="AC146" s="71">
+      <c r="AC146" s="68">
         <v>10.0867</v>
       </c>
       <c r="AD146" s="13">
@@ -24162,14 +24162,14 @@
         <v>283</v>
       </c>
       <c r="AO146" s="34"/>
-      <c r="AP146" s="100" t="s">
+      <c r="AP146" s="97" t="s">
         <v>363</v>
       </c>
       <c r="AQ146" s="3"/>
-      <c r="AS146" s="75"/>
-      <c r="AV146" s="74"/>
+      <c r="AS146" s="72"/>
+      <c r="AV146" s="71"/>
     </row>
-    <row r="147" spans="1:48" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A147" s="1">
         <v>20220808</v>
       </c>
@@ -24306,14 +24306,14 @@
         <v>285</v>
       </c>
       <c r="AO147" s="34"/>
-      <c r="AP147" s="100" t="s">
+      <c r="AP147" s="97" t="s">
         <v>363</v>
       </c>
       <c r="AQ147" s="3"/>
-      <c r="AS147" s="75"/>
-      <c r="AV147" s="74"/>
+      <c r="AS147" s="72"/>
+      <c r="AV147" s="71"/>
     </row>
-    <row r="148" spans="1:48" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A148" s="1">
         <v>20220808</v>
       </c>
@@ -24450,14 +24450,14 @@
         <v>287</v>
       </c>
       <c r="AO148" s="34"/>
-      <c r="AP148" s="100" t="s">
+      <c r="AP148" s="97" t="s">
         <v>363</v>
       </c>
       <c r="AQ148" s="3"/>
-      <c r="AS148" s="75"/>
-      <c r="AV148" s="74"/>
+      <c r="AS148" s="72"/>
+      <c r="AV148" s="71"/>
     </row>
-    <row r="149" spans="1:48" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A149" s="1">
         <v>20220808</v>
       </c>
@@ -24594,14 +24594,14 @@
         <v>289</v>
       </c>
       <c r="AO149" s="34"/>
-      <c r="AP149" s="100" t="s">
+      <c r="AP149" s="97" t="s">
         <v>363</v>
       </c>
       <c r="AQ149" s="3"/>
-      <c r="AS149" s="75"/>
-      <c r="AV149" s="74"/>
+      <c r="AS149" s="72"/>
+      <c r="AV149" s="71"/>
     </row>
-    <row r="150" spans="1:48" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A150" s="1">
         <v>20220808</v>
       </c>
@@ -24738,14 +24738,14 @@
         <v>291</v>
       </c>
       <c r="AO150" s="34"/>
-      <c r="AP150" s="100" t="s">
+      <c r="AP150" s="97" t="s">
         <v>363</v>
       </c>
       <c r="AQ150" s="3"/>
-      <c r="AS150" s="75"/>
-      <c r="AV150" s="74"/>
+      <c r="AS150" s="72"/>
+      <c r="AV150" s="71"/>
     </row>
-    <row r="151" spans="1:48" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A151" s="1">
         <v>20220808</v>
       </c>
@@ -24882,14 +24882,14 @@
         <v>284</v>
       </c>
       <c r="AO151" s="34"/>
-      <c r="AP151" s="99" t="s">
+      <c r="AP151" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AQ151" s="3"/>
-      <c r="AS151" s="75"/>
-      <c r="AV151" s="74"/>
+      <c r="AS151" s="72"/>
+      <c r="AV151" s="71"/>
     </row>
-    <row r="152" spans="1:48" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A152" s="1">
         <v>20220808</v>
       </c>
@@ -25026,14 +25026,14 @@
         <v>286</v>
       </c>
       <c r="AO152" s="34"/>
-      <c r="AP152" s="99" t="s">
+      <c r="AP152" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AQ152" s="3"/>
-      <c r="AS152" s="75"/>
-      <c r="AV152" s="74"/>
+      <c r="AS152" s="72"/>
+      <c r="AV152" s="71"/>
     </row>
-    <row r="153" spans="1:48" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A153" s="1">
         <v>20220808</v>
       </c>
@@ -25170,14 +25170,14 @@
         <v>288</v>
       </c>
       <c r="AO153" s="34"/>
-      <c r="AP153" s="99" t="s">
+      <c r="AP153" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AQ153" s="3"/>
-      <c r="AS153" s="75"/>
-      <c r="AV153" s="74"/>
+      <c r="AS153" s="72"/>
+      <c r="AV153" s="71"/>
     </row>
-    <row r="154" spans="1:48" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A154" s="1">
         <v>20220808</v>
       </c>
@@ -25273,7 +25273,7 @@
         <f t="shared" si="67"/>
         <v>315.63105548666744</v>
       </c>
-      <c r="AC154" s="102">
+      <c r="AC154" s="99">
         <v>10.0945</v>
       </c>
       <c r="AD154" s="13">
@@ -25288,7 +25288,7 @@
       <c r="AG154" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AH154" s="102">
+      <c r="AH154" s="99">
         <v>10.24</v>
       </c>
       <c r="AI154" s="1">
@@ -25314,14 +25314,14 @@
         <v>290</v>
       </c>
       <c r="AO154" s="34"/>
-      <c r="AP154" s="99" t="s">
+      <c r="AP154" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AQ154" s="3"/>
-      <c r="AS154" s="75"/>
-      <c r="AV154" s="74"/>
+      <c r="AS154" s="72"/>
+      <c r="AV154" s="71"/>
     </row>
-    <row r="155" spans="1:48" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A155" s="1">
         <v>20220808</v>
       </c>
@@ -25458,14 +25458,14 @@
         <v>292</v>
       </c>
       <c r="AO155" s="34"/>
-      <c r="AP155" s="99" t="s">
+      <c r="AP155" s="96" t="s">
         <v>20</v>
       </c>
       <c r="AQ155" s="3"/>
-      <c r="AS155" s="75"/>
-      <c r="AV155" s="74"/>
+      <c r="AS155" s="72"/>
+      <c r="AV155" s="71"/>
     </row>
-    <row r="156" spans="1:48" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A156" s="1">
         <v>20220808</v>
       </c>
@@ -25561,7 +25561,7 @@
         <f t="shared" ref="AB156:AB157" si="76">Y156/W156</f>
         <v>316.25691283926102</v>
       </c>
-      <c r="AC156" s="102">
+      <c r="AC156" s="99">
         <v>10.092000000000001</v>
       </c>
       <c r="AD156" s="13">
@@ -25576,7 +25576,7 @@
       <c r="AG156" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AH156" s="102">
+      <c r="AH156" s="99">
         <v>10.228300000000001</v>
       </c>
       <c r="AI156" s="1">
@@ -25602,11 +25602,11 @@
         <v>419</v>
       </c>
       <c r="AO156" s="34"/>
-      <c r="AP156" s="99" t="s">
+      <c r="AP156" s="96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:48" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A157" s="1">
         <v>20220808</v>
       </c>
@@ -25702,7 +25702,7 @@
         <f t="shared" si="76"/>
         <v>316.56983834059383</v>
       </c>
-      <c r="AC157" s="102">
+      <c r="AC157" s="99">
         <v>10.0082</v>
       </c>
       <c r="AD157" s="13">
@@ -25717,7 +25717,7 @@
       <c r="AG157" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AH157" s="102">
+      <c r="AH157" s="99">
         <v>10.1744</v>
       </c>
       <c r="AI157" s="1">
@@ -25743,11 +25743,11 @@
         <v>420</v>
       </c>
       <c r="AO157" s="34"/>
-      <c r="AP157" s="99" t="s">
+      <c r="AP157" s="96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D158" s="16"/>
       <c r="F158" s="16"/>
       <c r="J158" s="19"/>
@@ -25772,7 +25772,7 @@
       <c r="AN158" s="3"/>
       <c r="AO158" s="34"/>
     </row>
-    <row r="159" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D159" s="16"/>
       <c r="F159" s="16"/>
       <c r="J159" s="19"/>
@@ -25797,7 +25797,7 @@
       <c r="AN159" s="3"/>
       <c r="AO159" s="34"/>
     </row>
-    <row r="160" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D160" s="16"/>
       <c r="F160" s="16"/>
       <c r="J160" s="19"/>
@@ -25822,7 +25822,7 @@
       <c r="AN160" s="3"/>
       <c r="AO160" s="34"/>
     </row>
-    <row r="161" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:41" x14ac:dyDescent="0.4">
       <c r="D161" s="16"/>
       <c r="F161" s="16"/>
       <c r="J161" s="19"/>
@@ -25847,7 +25847,7 @@
       <c r="AN161" s="3"/>
       <c r="AO161" s="34"/>
     </row>
-    <row r="162" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:41" x14ac:dyDescent="0.4">
       <c r="D162" s="16"/>
       <c r="F162" s="16"/>
       <c r="J162" s="19"/>
@@ -25872,7 +25872,7 @@
       <c r="AN162" s="3"/>
       <c r="AO162" s="34"/>
     </row>
-    <row r="163" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:41" x14ac:dyDescent="0.4">
       <c r="D163" s="16"/>
       <c r="F163" s="16"/>
       <c r="J163" s="19"/>
@@ -25897,7 +25897,7 @@
       <c r="AN163" s="3"/>
       <c r="AO163" s="34"/>
     </row>
-    <row r="164" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:41" x14ac:dyDescent="0.4">
       <c r="D164" s="16"/>
       <c r="F164" s="16"/>
       <c r="J164" s="19"/>
@@ -25922,7 +25922,7 @@
       <c r="AN164" s="3"/>
       <c r="AO164" s="34"/>
     </row>
-    <row r="165" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:41" x14ac:dyDescent="0.4">
       <c r="D165" s="16"/>
       <c r="F165" s="16"/>
       <c r="J165" s="19"/>
@@ -25947,7 +25947,7 @@
       <c r="AN165" s="3"/>
       <c r="AO165" s="34"/>
     </row>
-    <row r="166" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:41" x14ac:dyDescent="0.4">
       <c r="D166" s="16"/>
       <c r="F166" s="16"/>
       <c r="J166" s="19"/>
@@ -25972,7 +25972,7 @@
       <c r="AN166" s="3"/>
       <c r="AO166" s="34"/>
     </row>
-    <row r="167" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:41" x14ac:dyDescent="0.4">
       <c r="D167" s="16"/>
       <c r="F167" s="16"/>
       <c r="J167" s="19"/>
@@ -25997,7 +25997,7 @@
       <c r="AN167" s="3"/>
       <c r="AO167" s="34"/>
     </row>
-    <row r="168" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:41" x14ac:dyDescent="0.4">
       <c r="D168" s="16"/>
       <c r="F168" s="16"/>
       <c r="J168" s="19"/>
@@ -26022,7 +26022,7 @@
       <c r="AN168" s="3"/>
       <c r="AO168" s="34"/>
     </row>
-    <row r="169" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:41" x14ac:dyDescent="0.4">
       <c r="D169" s="16"/>
       <c r="F169" s="16"/>
       <c r="J169" s="19"/>
@@ -26047,7 +26047,7 @@
       <c r="AN169" s="3"/>
       <c r="AO169" s="34"/>
     </row>
-    <row r="170" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:41" x14ac:dyDescent="0.4">
       <c r="D170" s="16"/>
       <c r="F170" s="16"/>
       <c r="J170" s="19"/>
@@ -26072,7 +26072,7 @@
       <c r="AN170" s="3"/>
       <c r="AO170" s="34"/>
     </row>
-    <row r="171" spans="4:41" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:41" x14ac:dyDescent="0.4">
       <c r="D171" s="16"/>
       <c r="F171" s="16"/>
       <c r="J171" s="19"/>
@@ -26109,27 +26109,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2091D322-726D-4E97-8E9F-19841C93C3A6}">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.88671875" style="33" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.88671875" style="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="60" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.109375" style="1"/>
-    <col min="9" max="9" width="42.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="33"/>
+    <col min="6" max="6" width="9.88671875" style="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="57" customWidth="1"/>
+    <col min="8" max="9" width="9.109375" style="1"/>
+    <col min="10" max="10" width="42.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="32" t="s">
         <v>170</v>
       </c>
@@ -26149,16 +26150,19 @@
         <v>128</v>
       </c>
       <c r="G1" s="38" t="s">
+        <v>699</v>
+      </c>
+      <c r="H1" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="I1" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="J1" s="32" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="32" t="s">
         <v>615</v>
       </c>
@@ -26174,18 +26178,21 @@
       <c r="E2" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="F2" s="60">
+      <c r="F2" s="57">
         <v>9756</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>62</v>
+      <c r="I2" s="3" t="s">
+        <v>701</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+    <row r="3" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="77" t="s">
         <v>616</v>
       </c>
       <c r="B3" s="40" t="s">
@@ -26194,24 +26201,27 @@
       <c r="C3" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="58">
         <v>1341.35</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H3" s="13">
         <v>1</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>62</v>
+      <c r="I3" s="3" t="s">
+        <v>701</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+    <row r="4" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="77" t="s">
         <v>617</v>
       </c>
       <c r="B4" s="40" t="s">
@@ -26220,49 +26230,55 @@
       <c r="C4" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4" s="58">
         <v>1370.3</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H4" s="13">
         <v>1</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>62</v>
+      <c r="I4" s="3" t="s">
+        <v>701</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
+    <row r="5" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="77" t="s">
         <v>618</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F5" s="58">
         <v>475</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H5" s="13">
         <v>1</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>62</v>
+      <c r="I5" s="3" t="s">
+        <v>701</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="32" t="s">
         <v>619</v>
       </c>
@@ -26278,57 +26294,64 @@
       <c r="E6" s="33">
         <v>1206</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="57">
         <v>2000</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="J6" s="34" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="81" t="s">
+    <row r="7" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="78" t="s">
         <v>620</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="F7" s="62">
+      <c r="F7" s="59">
         <v>23.8</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H7" s="41">
         <v>1</v>
       </c>
-      <c r="H7" s="41" t="s">
-        <v>62</v>
+      <c r="I7" s="3" t="s">
+        <v>701</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
+    <row r="8" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="78" t="s">
         <v>621</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="32" t="s">
         <v>622</v>
       </c>
@@ -26338,12 +26361,15 @@
       <c r="D9" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="57">
         <v>2500</v>
       </c>
+      <c r="G9" s="57" t="s">
+        <v>700</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="82" t="s">
+    <row r="10" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="79" t="s">
         <v>623</v>
       </c>
       <c r="B10" s="39" t="s">
@@ -26358,19 +26384,22 @@
       <c r="E10" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="60">
         <v>2940</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H10" s="12">
         <v>1</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" s="39"/>
+      <c r="I10" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="J10" s="39"/>
     </row>
-    <row r="11" spans="1:9" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="s">
+    <row r="11" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="79" t="s">
         <v>624</v>
       </c>
       <c r="B11" s="39" t="s">
@@ -26385,19 +26414,22 @@
       <c r="E11" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="60">
         <v>920</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H11" s="12">
         <v>0.35499999999999998</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="I11" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
     </row>
-    <row r="12" spans="1:9" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="82" t="s">
+    <row r="12" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="79" t="s">
         <v>625</v>
       </c>
       <c r="B12" s="39" t="s">
@@ -26412,19 +26444,22 @@
       <c r="E12" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="60">
         <v>172.5</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H12" s="12">
         <v>15</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="I12" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
     </row>
-    <row r="13" spans="1:9" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="82" t="s">
+    <row r="13" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="79" t="s">
         <v>626</v>
       </c>
       <c r="B13" s="39" t="s">
@@ -26439,19 +26474,22 @@
       <c r="E13" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="60">
         <v>236</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H13" s="12">
         <v>1</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="39"/>
+      <c r="I13" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="J13" s="39"/>
     </row>
-    <row r="14" spans="1:9" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="82" t="s">
+    <row r="14" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="79" t="s">
         <v>627</v>
       </c>
       <c r="B14" s="39" t="s">
@@ -26466,19 +26504,22 @@
       <c r="E14" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="60">
         <v>236</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H14" s="12">
         <v>1</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="39"/>
+      <c r="I14" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="J14" s="39"/>
     </row>
-    <row r="15" spans="1:9" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="82" t="s">
+    <row r="15" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="79" t="s">
         <v>628</v>
       </c>
       <c r="B15" s="39" t="s">
@@ -26493,19 +26534,22 @@
       <c r="E15" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="60">
         <v>244</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H15" s="12">
         <v>1</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="39"/>
+      <c r="I15" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="J15" s="39"/>
     </row>
-    <row r="16" spans="1:9" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="82" t="s">
+    <row r="16" spans="1:10" s="55" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="79" t="s">
         <v>629</v>
       </c>
       <c r="B16" s="39" t="s">
@@ -26520,18 +26564,21 @@
       <c r="E16" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="F16" s="63">
+      <c r="F16" s="60">
         <v>446</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H16" s="12">
         <v>1</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" s="39"/>
+      <c r="I16" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="J16" s="39"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="32" t="s">
         <v>630</v>
       </c>
@@ -26544,20 +26591,23 @@
       <c r="D17" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="F17" s="60">
+      <c r="F17" s="57">
         <v>16000</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H17" s="1">
         <v>1</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="34" t="s">
+      <c r="I17" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="J17" s="34" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="32" t="s">
         <v>631</v>
       </c>
@@ -26570,18 +26620,21 @@
       <c r="D18" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="F18" s="60">
+      <c r="F18" s="57">
         <v>1500</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="34"/>
+      <c r="I18" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="J18" s="34"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="32" t="s">
         <v>632</v>
       </c>
@@ -26597,276 +26650,309 @@
       <c r="E19" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="F19" s="60">
+      <c r="F19" s="57">
         <v>1200</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H19" s="1">
         <v>1</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="80" t="s">
+        <v>633</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="45">
+        <v>20002694</v>
+      </c>
+      <c r="F20" s="61">
+        <v>900</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H20" s="43">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="J20" s="44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="80" t="s">
+        <v>634</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="45">
+        <v>25000631</v>
+      </c>
+      <c r="F21" s="61">
+        <v>63</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H21" s="43">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="J21" s="44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="80" t="s">
+        <v>635</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="44" t="s">
         <v>62</v>
       </c>
+      <c r="D22" s="56" t="s">
+        <v>475</v>
+      </c>
+      <c r="F22" s="61">
+        <v>31</v>
+      </c>
+      <c r="G22" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H22" s="43">
+        <v>10</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>701</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="83" t="s">
-        <v>633</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="C20" s="46" t="s">
+    <row r="23" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="80" t="s">
+        <v>636</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>476</v>
+      </c>
+      <c r="E23" s="45">
+        <v>7695101</v>
+      </c>
+      <c r="F23" s="61">
+        <v>31</v>
+      </c>
+      <c r="G23" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H23" s="43">
+        <v>10</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="80" t="s">
+        <v>637</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="C24" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="E20" s="47">
-        <v>20002694</v>
-      </c>
-      <c r="F20" s="64">
-        <v>900</v>
-      </c>
-      <c r="G20" s="45">
+      <c r="D24" s="44" t="s">
+        <v>490</v>
+      </c>
+      <c r="E24" s="45">
+        <v>20027388</v>
+      </c>
+      <c r="F24" s="61">
+        <v>749</v>
+      </c>
+      <c r="G24" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H24" s="43">
+        <v>2</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="80" t="s">
+        <v>638</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>487</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>488</v>
+      </c>
+      <c r="E25" s="45">
+        <v>20103426</v>
+      </c>
+      <c r="F25" s="61">
+        <v>279</v>
+      </c>
+      <c r="G25" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H25" s="43">
         <v>1</v>
       </c>
-      <c r="H20" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" s="46" t="s">
-        <v>135</v>
+      <c r="I25" s="3" t="s">
+        <v>701</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="83" t="s">
-        <v>634</v>
-      </c>
-      <c r="B21" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="46" t="s">
+    <row r="26" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="80" t="s">
+        <v>639</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>487</v>
+      </c>
+      <c r="C26" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="47">
-        <v>25000631</v>
-      </c>
-      <c r="F21" s="64">
-        <v>63</v>
-      </c>
-      <c r="G21" s="45">
+      <c r="D26" s="44" t="s">
+        <v>489</v>
+      </c>
+      <c r="E26" s="45">
+        <v>20112966</v>
+      </c>
+      <c r="F26" s="61">
+        <v>55</v>
+      </c>
+      <c r="G26" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H26" s="43">
         <v>1</v>
       </c>
-      <c r="H21" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" s="46" t="s">
-        <v>143</v>
+      <c r="I26" s="3" t="s">
+        <v>701</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="83" t="s">
-        <v>635</v>
-      </c>
-      <c r="B22" s="47" t="s">
+    <row r="27" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="80" t="s">
+        <v>661</v>
+      </c>
+      <c r="B27" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="C22" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="59" t="s">
+      <c r="C27" s="44"/>
+      <c r="D27" s="56" t="s">
+        <v>476</v>
+      </c>
+      <c r="E27" s="45">
+        <v>9197515</v>
+      </c>
+      <c r="F27" s="61">
+        <v>5.65</v>
+      </c>
+      <c r="G27" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H27" s="43">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="80" t="s">
+        <v>664</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="44"/>
+      <c r="D28" s="56" t="s">
         <v>475</v>
       </c>
-      <c r="F22" s="64">
-        <v>31</v>
-      </c>
-      <c r="G22" s="45">
-        <v>10</v>
-      </c>
-      <c r="H22" s="44" t="s">
-        <v>62</v>
+      <c r="E28" s="45">
+        <v>7019638</v>
+      </c>
+      <c r="F28" s="61">
+        <v>5.65</v>
+      </c>
+      <c r="G28" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H28" s="43">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>701</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="83" t="s">
-        <v>636</v>
-      </c>
-      <c r="B23" s="47" t="s">
+    <row r="29" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="80" t="s">
+        <v>665</v>
+      </c>
+      <c r="B29" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="C23" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="D23" s="59" t="s">
-        <v>476</v>
-      </c>
-      <c r="E23" s="47">
+      <c r="C29" s="44" t="s">
+        <v>662</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>663</v>
+      </c>
+      <c r="E29" s="45">
         <v>7695101</v>
       </c>
-      <c r="F23" s="64">
-        <v>31</v>
-      </c>
-      <c r="G23" s="45">
-        <v>10</v>
-      </c>
-      <c r="H23" s="44" t="s">
-        <v>62</v>
+      <c r="F29" s="61">
+        <v>5.65</v>
+      </c>
+      <c r="G29" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H29" s="43">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>701</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="83" t="s">
-        <v>637</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>486</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>490</v>
-      </c>
-      <c r="E24" s="47">
-        <v>20027388</v>
-      </c>
-      <c r="F24" s="64">
-        <v>749</v>
-      </c>
-      <c r="G24" s="45">
-        <v>2</v>
-      </c>
-      <c r="H24" s="44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="83" t="s">
-        <v>638</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>487</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="46" t="s">
-        <v>488</v>
-      </c>
-      <c r="E25" s="47">
-        <v>20103426</v>
-      </c>
-      <c r="F25" s="64">
-        <v>279</v>
-      </c>
-      <c r="G25" s="45">
-        <v>1</v>
-      </c>
-      <c r="H25" s="44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="83" t="s">
-        <v>639</v>
-      </c>
-      <c r="B26" s="46" t="s">
-        <v>487</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>489</v>
-      </c>
-      <c r="E26" s="47">
-        <v>20112966</v>
-      </c>
-      <c r="F26" s="64">
-        <v>55</v>
-      </c>
-      <c r="G26" s="45">
-        <v>1</v>
-      </c>
-      <c r="H26" s="44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="83" t="s">
-        <v>661</v>
-      </c>
-      <c r="B27" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="59" t="s">
-        <v>476</v>
-      </c>
-      <c r="E27" s="47">
-        <v>9197515</v>
-      </c>
-      <c r="F27" s="64">
-        <v>5.65</v>
-      </c>
-      <c r="G27" s="45">
-        <v>1</v>
-      </c>
-      <c r="H27" s="44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="83" t="s">
-        <v>664</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="59" t="s">
-        <v>475</v>
-      </c>
-      <c r="E28" s="47">
-        <v>7019638</v>
-      </c>
-      <c r="F28" s="64">
-        <v>5.65</v>
-      </c>
-      <c r="G28" s="45">
-        <v>1</v>
-      </c>
-      <c r="H28" s="44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="83" t="s">
-        <v>665</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>662</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>663</v>
-      </c>
-      <c r="E29" s="47">
-        <v>7695101</v>
-      </c>
-      <c r="F29" s="64">
-        <v>5.65</v>
-      </c>
-      <c r="G29" s="45">
-        <v>1</v>
-      </c>
-      <c r="H29" s="44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="32" t="s">
         <v>640</v>
       </c>
@@ -26882,17 +26968,20 @@
       <c r="E30" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="F30" s="60">
+      <c r="F30" s="57">
         <v>300</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H30" s="1">
         <v>1</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>62</v>
+      <c r="I30" s="3" t="s">
+        <v>701</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="32" t="s">
         <v>641</v>
       </c>
@@ -26908,196 +26997,216 @@
       <c r="E31" s="33">
         <v>5650</v>
       </c>
-      <c r="F31" s="60">
+      <c r="F31" s="57">
         <v>1300</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H31" s="1">
         <v>1</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>62</v>
+      <c r="I31" s="3" t="s">
+        <v>701</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="84" t="s">
+    <row r="32" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="81" t="s">
         <v>642</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="47" t="s">
         <v>659</v>
       </c>
-      <c r="E32" s="49">
+      <c r="E32" s="47">
         <v>85020</v>
       </c>
-      <c r="F32" s="65">
+      <c r="F32" s="62">
         <v>370</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H32" s="10">
         <v>1</v>
       </c>
-      <c r="H32" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="I32" s="48" t="s">
+      <c r="I32" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="J32" s="46" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="84" t="s">
+    <row r="33" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="81" t="s">
         <v>643</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="D33" s="48" t="s">
+      <c r="D33" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="F33" s="65"/>
-      <c r="G33" s="10">
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="10">
         <v>1</v>
       </c>
-      <c r="H33" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="I33" s="48"/>
+      <c r="I33" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="J33" s="46"/>
     </row>
-    <row r="34" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="84" t="s">
+    <row r="34" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="81" t="s">
         <v>657</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="49" t="s">
+      <c r="D34" s="47" t="s">
         <v>660</v>
       </c>
-      <c r="E34" s="49">
+      <c r="E34" s="47">
         <v>82520</v>
       </c>
-      <c r="F34" s="65">
+      <c r="F34" s="62">
         <v>310</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H34" s="10">
         <v>1</v>
       </c>
-      <c r="H34" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="I34" s="48" t="s">
+      <c r="I34" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="J34" s="46" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="84" t="s">
+    <row r="35" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="81" t="s">
         <v>644</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="49" t="s">
+      <c r="D35" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="E35" s="49" t="s">
+      <c r="E35" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="F35" s="65">
+      <c r="F35" s="62">
         <v>6300</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H35" s="10">
         <v>1</v>
       </c>
-      <c r="H35" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="I35" s="49" t="s">
+      <c r="I35" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="J35" s="47" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="84" t="s">
+    <row r="36" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="81" t="s">
         <v>645</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="F36" s="65"/>
-      <c r="G36" s="10"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
       <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
     </row>
-    <row r="37" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="84" t="s">
+    <row r="37" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="81" t="s">
         <v>646</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="47" t="s">
         <v>256</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="D37" s="48" t="s">
+      <c r="D37" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="E37" s="48"/>
-      <c r="F37" s="65">
+      <c r="E37" s="46"/>
+      <c r="F37" s="62">
         <v>170</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H37" s="10">
         <v>3</v>
       </c>
-      <c r="H37" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="I37" s="49" t="s">
+      <c r="I37" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="J37" s="47" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="84" t="s">
+    <row r="38" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="81" t="s">
         <v>647</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="49" t="s">
+      <c r="D38" s="47" t="s">
         <v>491</v>
       </c>
-      <c r="E38" s="49" t="s">
+      <c r="E38" s="47" t="s">
         <v>492</v>
       </c>
-      <c r="F38" s="65">
+      <c r="F38" s="62">
         <v>5040</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H38" s="10">
         <v>1</v>
       </c>
-      <c r="H38" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="I38" s="49" t="s">
+      <c r="I38" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="J38" s="47" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="32" t="s">
         <v>648</v>
       </c>
@@ -27113,250 +27222,277 @@
       <c r="E39" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F39" s="60">
+      <c r="F39" s="57">
         <v>2.5</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H39" s="3">
         <v>1</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="I39" s="34" t="s">
+      <c r="J39" s="34" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="32" t="s">
         <v>649</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="D40" s="54" t="s">
+      <c r="D40" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="E40" s="55" t="s">
+      <c r="E40" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="F40" s="66">
+      <c r="F40" s="63">
         <v>5.5</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H40" s="5">
         <v>1</v>
       </c>
-      <c r="H40" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I40" s="54" t="s">
+      <c r="I40" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="J40" s="51" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="32" t="s">
         <v>650</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="D41" s="54" t="s">
+      <c r="D41" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="E41" s="55" t="s">
+      <c r="E41" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="F41" s="66">
+      <c r="F41" s="63">
         <v>10.53</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H41" s="5">
         <v>1</v>
       </c>
-      <c r="H41" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I41" s="55"/>
+      <c r="I41" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="J41" s="52"/>
     </row>
-    <row r="42" spans="1:9" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="85" t="s">
+    <row r="42" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="82" t="s">
         <v>651</v>
       </c>
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="D42" s="55" t="s">
+      <c r="D42" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="E42" s="55" t="s">
+      <c r="E42" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="F42" s="66">
+      <c r="F42" s="63">
         <v>121</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H42" s="5">
         <v>1</v>
       </c>
-      <c r="H42" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I42" s="55"/>
+      <c r="I42" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="J42" s="52"/>
     </row>
-    <row r="43" spans="1:9" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="86" t="s">
+    <row r="43" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="83" t="s">
         <v>652</v>
       </c>
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="C43" s="52" t="s">
+      <c r="C43" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="E43" s="52">
+      <c r="E43" s="49">
         <v>7696884</v>
       </c>
-      <c r="F43" s="67">
+      <c r="F43" s="64">
         <v>202</v>
       </c>
-      <c r="G43" s="51">
+      <c r="G43" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H43" s="48">
         <v>300</v>
       </c>
-      <c r="H43" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="I43" s="52"/>
+      <c r="I43" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="J43" s="49"/>
     </row>
-    <row r="44" spans="1:9" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="86" t="s">
+    <row r="44" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="83" t="s">
         <v>653</v>
       </c>
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="C44" s="52" t="s">
+      <c r="C44" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="D44" s="52" t="s">
+      <c r="D44" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="E44" s="53" t="s">
+      <c r="E44" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="F44" s="67">
+      <c r="F44" s="64">
         <v>33</v>
       </c>
-      <c r="G44" s="51">
+      <c r="G44" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H44" s="48">
         <v>1</v>
       </c>
-      <c r="H44" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="I44" s="53" t="s">
+      <c r="I44" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="J44" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="86" t="s">
+    <row r="45" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="83" t="s">
         <v>654</v>
       </c>
-      <c r="B45" s="53" t="s">
+      <c r="B45" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="C45" s="53" t="s">
+      <c r="C45" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="D45" s="53" t="s">
+      <c r="D45" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="E45" s="53" t="s">
+      <c r="E45" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="F45" s="67">
+      <c r="F45" s="64">
         <v>56.92</v>
       </c>
-      <c r="G45" s="51">
+      <c r="G45" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H45" s="48">
         <v>2</v>
       </c>
-      <c r="H45" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="I45" s="52"/>
+      <c r="I45" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="J45" s="49"/>
     </row>
-    <row r="46" spans="1:9" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="86" t="s">
+    <row r="46" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="83" t="s">
         <v>655</v>
       </c>
-      <c r="B46" s="53" t="s">
+      <c r="B46" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="C46" s="53" t="s">
+      <c r="C46" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="D46" s="53" t="s">
+      <c r="D46" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="E46" s="53" t="s">
+      <c r="E46" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="F46" s="67">
+      <c r="F46" s="64">
         <v>16.399999999999999</v>
       </c>
-      <c r="G46" s="51">
+      <c r="G46" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H46" s="48">
         <v>4</v>
       </c>
-      <c r="H46" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="I46" s="52"/>
+      <c r="I46" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="J46" s="49"/>
     </row>
-    <row r="47" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="84" t="s">
+    <row r="47" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="81" t="s">
         <v>656</v>
       </c>
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="46" t="s">
         <v>483</v>
       </c>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="46" t="s">
         <v>484</v>
       </c>
-      <c r="D47" s="48" t="s">
+      <c r="D47" s="46" t="s">
         <v>485</v>
       </c>
-      <c r="E47" s="49">
+      <c r="E47" s="47">
         <v>3123000071</v>
       </c>
-      <c r="F47" s="65">
+      <c r="F47" s="62">
         <v>275</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="57" t="s">
+        <v>700</v>
+      </c>
+      <c r="H47" s="10">
         <v>1</v>
       </c>
-      <c r="H47" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="I47" s="48"/>
+      <c r="I47" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="J47" s="46"/>
     </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:6" x14ac:dyDescent="0.4">
       <c r="E53" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="F53" s="60">
+      <c r="F53" s="57">
         <f>SUM(F2:F52)</f>
         <v>57998.75</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I47">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J47">
     <sortCondition ref="A2:A47"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -27373,91 +27509,91 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A1" s="68" t="s">
         <v>477</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="68" t="s">
         <v>666</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="68" t="s">
         <v>667</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="68" t="s">
         <v>668</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="68" t="s">
         <v>669</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="68" t="s">
         <v>671</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="68" t="s">
         <v>672</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="68" t="s">
         <v>673</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="68" t="s">
         <v>674</v>
       </c>
-      <c r="L1" s="71" t="s">
+      <c r="L1" s="68" t="s">
         <v>675</v>
       </c>
-      <c r="M1" s="71" t="s">
+      <c r="M1" s="68" t="s">
         <v>676</v>
       </c>
-      <c r="N1" s="71" t="s">
+      <c r="N1" s="68" t="s">
         <v>677</v>
       </c>
-      <c r="O1" s="71" t="s">
+      <c r="O1" s="68" t="s">
         <v>678</v>
       </c>
-      <c r="P1" s="71" t="s">
+      <c r="P1" s="68" t="s">
         <v>679</v>
       </c>
-      <c r="Q1" s="71" t="s">
+      <c r="Q1" s="68" t="s">
         <v>680</v>
       </c>
-      <c r="R1" s="71" t="s">
+      <c r="R1" s="68" t="s">
         <v>681</v>
       </c>
-      <c r="S1" s="71" t="s">
+      <c r="S1" s="68" t="s">
         <v>682</v>
       </c>
-      <c r="T1" s="71" t="s">
+      <c r="T1" s="68" t="s">
         <v>683</v>
       </c>
-      <c r="U1" s="71" t="s">
+      <c r="U1" s="68" t="s">
         <v>684</v>
       </c>
-      <c r="V1" s="71" t="s">
+      <c r="V1" s="68" t="s">
         <v>685</v>
       </c>
-      <c r="W1" s="71" t="s">
+      <c r="W1" s="68" t="s">
         <v>686</v>
       </c>
-      <c r="X1" s="71" t="s">
+      <c r="X1" s="68" t="s">
         <v>687</v>
       </c>
-      <c r="Y1" s="71" t="s">
+      <c r="Y1" s="68" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>603</v>
       </c>
@@ -27470,47 +27606,47 @@
       <c r="D2" s="32" t="s">
         <v>619</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="80" t="s">
         <v>633</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="80" t="s">
         <v>634</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="80" t="s">
         <v>635</v>
       </c>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="81" t="s">
         <v>643</v>
       </c>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="81" t="s">
         <v>644</v>
       </c>
       <c r="J2" s="32" t="s">
         <v>648</v>
       </c>
-      <c r="K2" s="85" t="s">
+      <c r="K2" s="82" t="s">
         <v>649</v>
       </c>
-      <c r="L2" s="85" t="s">
+      <c r="L2" s="82" t="s">
         <v>650</v>
       </c>
-      <c r="M2" s="85" t="s">
+      <c r="M2" s="82" t="s">
         <v>651</v>
       </c>
-      <c r="N2" s="86" t="s">
+      <c r="N2" s="83" t="s">
         <v>652</v>
       </c>
-      <c r="O2" s="86" t="s">
+      <c r="O2" s="83" t="s">
         <v>653</v>
       </c>
-      <c r="P2" s="86" t="s">
+      <c r="P2" s="83" t="s">
         <v>654</v>
       </c>
-      <c r="Q2" s="86" t="s">
+      <c r="Q2" s="83" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>604</v>
       </c>
@@ -27521,7 +27657,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>605</v>
       </c>
@@ -27537,23 +27673,23 @@
       <c r="E4" s="32" t="s">
         <v>632</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="80" t="s">
         <v>633</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="G4" s="80" t="s">
         <v>634</v>
       </c>
-      <c r="H4" s="83" t="s">
+      <c r="H4" s="80" t="s">
         <v>635</v>
       </c>
-      <c r="I4" s="83" t="s">
+      <c r="I4" s="80" t="s">
         <v>656</v>
       </c>
-      <c r="J4" s="86" t="s">
+      <c r="J4" s="83" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>606</v>
       </c>
@@ -27566,10 +27702,10 @@
       <c r="D5" s="32" t="s">
         <v>619</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="78" t="s">
         <v>620</v>
       </c>
-      <c r="F5" s="81" t="s">
+      <c r="F5" s="78" t="s">
         <v>621</v>
       </c>
       <c r="G5" s="32" t="s">
@@ -27584,10 +27720,10 @@
       <c r="J5" s="32" t="s">
         <v>632</v>
       </c>
-      <c r="K5" s="83" t="s">
+      <c r="K5" s="80" t="s">
         <v>633</v>
       </c>
-      <c r="L5" s="83" t="s">
+      <c r="L5" s="80" t="s">
         <v>634</v>
       </c>
       <c r="M5" s="32" t="s">
@@ -27596,38 +27732,38 @@
       <c r="N5" s="32" t="s">
         <v>641</v>
       </c>
-      <c r="O5" s="84" t="s">
+      <c r="O5" s="81" t="s">
         <v>643</v>
       </c>
-      <c r="P5" s="84" t="s">
+      <c r="P5" s="81" t="s">
         <v>644</v>
       </c>
       <c r="Q5" s="32" t="s">
         <v>648</v>
       </c>
-      <c r="R5" s="85" t="s">
+      <c r="R5" s="82" t="s">
         <v>649</v>
       </c>
-      <c r="S5" s="85" t="s">
+      <c r="S5" s="82" t="s">
         <v>650</v>
       </c>
-      <c r="T5" s="85" t="s">
+      <c r="T5" s="82" t="s">
         <v>651</v>
       </c>
-      <c r="U5" s="86" t="s">
+      <c r="U5" s="83" t="s">
         <v>652</v>
       </c>
-      <c r="V5" s="86" t="s">
+      <c r="V5" s="83" t="s">
         <v>653</v>
       </c>
-      <c r="W5" s="86" t="s">
+      <c r="W5" s="83" t="s">
         <v>654</v>
       </c>
-      <c r="X5" s="86" t="s">
+      <c r="X5" s="83" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>607</v>
       </c>
@@ -27640,10 +27776,10 @@
       <c r="D6" s="32" t="s">
         <v>619</v>
       </c>
-      <c r="E6" s="81" t="s">
+      <c r="E6" s="78" t="s">
         <v>620</v>
       </c>
-      <c r="F6" s="81" t="s">
+      <c r="F6" s="78" t="s">
         <v>621</v>
       </c>
       <c r="G6" s="32" t="s">
@@ -27658,13 +27794,13 @@
       <c r="J6" s="32" t="s">
         <v>632</v>
       </c>
-      <c r="K6" s="83" t="s">
+      <c r="K6" s="80" t="s">
         <v>633</v>
       </c>
-      <c r="L6" s="83" t="s">
+      <c r="L6" s="80" t="s">
         <v>634</v>
       </c>
-      <c r="M6" s="83" t="s">
+      <c r="M6" s="80" t="s">
         <v>635</v>
       </c>
       <c r="N6" s="32" t="s">
@@ -27673,38 +27809,38 @@
       <c r="O6" s="32" t="s">
         <v>641</v>
       </c>
-      <c r="P6" s="84" t="s">
+      <c r="P6" s="81" t="s">
         <v>643</v>
       </c>
-      <c r="Q6" s="84" t="s">
+      <c r="Q6" s="81" t="s">
         <v>644</v>
       </c>
       <c r="R6" s="32" t="s">
         <v>648</v>
       </c>
-      <c r="S6" s="85" t="s">
+      <c r="S6" s="82" t="s">
         <v>649</v>
       </c>
-      <c r="T6" s="85" t="s">
+      <c r="T6" s="82" t="s">
         <v>650</v>
       </c>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="82" t="s">
         <v>651</v>
       </c>
-      <c r="V6" s="86" t="s">
+      <c r="V6" s="83" t="s">
         <v>652</v>
       </c>
-      <c r="W6" s="86" t="s">
+      <c r="W6" s="83" t="s">
         <v>653</v>
       </c>
-      <c r="X6" s="86" t="s">
+      <c r="X6" s="83" t="s">
         <v>654</v>
       </c>
-      <c r="Y6" s="86" t="s">
+      <c r="Y6" s="83" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>608</v>
       </c>
@@ -27717,10 +27853,10 @@
       <c r="D7" s="32" t="s">
         <v>619</v>
       </c>
-      <c r="E7" s="81" t="s">
+      <c r="E7" s="78" t="s">
         <v>620</v>
       </c>
-      <c r="F7" s="81" t="s">
+      <c r="F7" s="78" t="s">
         <v>621</v>
       </c>
       <c r="G7" s="32" t="s">
@@ -27735,13 +27871,13 @@
       <c r="J7" s="32" t="s">
         <v>632</v>
       </c>
-      <c r="K7" s="83" t="s">
+      <c r="K7" s="80" t="s">
         <v>633</v>
       </c>
-      <c r="L7" s="83" t="s">
+      <c r="L7" s="80" t="s">
         <v>634</v>
       </c>
-      <c r="M7" s="83" t="s">
+      <c r="M7" s="80" t="s">
         <v>636</v>
       </c>
       <c r="N7" s="32" t="s">
@@ -27750,102 +27886,102 @@
       <c r="O7" s="32" t="s">
         <v>641</v>
       </c>
-      <c r="P7" s="84" t="s">
+      <c r="P7" s="81" t="s">
         <v>643</v>
       </c>
-      <c r="Q7" s="84" t="s">
+      <c r="Q7" s="81" t="s">
         <v>644</v>
       </c>
       <c r="R7" s="32" t="s">
         <v>648</v>
       </c>
-      <c r="S7" s="85" t="s">
+      <c r="S7" s="82" t="s">
         <v>649</v>
       </c>
-      <c r="T7" s="85" t="s">
+      <c r="T7" s="82" t="s">
         <v>650</v>
       </c>
-      <c r="U7" s="85" t="s">
+      <c r="U7" s="82" t="s">
         <v>651</v>
       </c>
-      <c r="V7" s="86" t="s">
+      <c r="V7" s="83" t="s">
         <v>652</v>
       </c>
-      <c r="W7" s="86" t="s">
+      <c r="W7" s="83" t="s">
         <v>653</v>
       </c>
-      <c r="X7" s="86" t="s">
+      <c r="X7" s="83" t="s">
         <v>654</v>
       </c>
-      <c r="Y7" s="86" t="s">
+      <c r="Y7" s="83" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="20" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L20" s="85"/>
+    <row r="20" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="L20" s="82"/>
     </row>
-    <row r="21" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L21" s="85"/>
+    <row r="21" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="L21" s="82"/>
     </row>
-    <row r="22" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L22" s="85"/>
+    <row r="22" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="L22" s="82"/>
     </row>
-    <row r="23" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L23" s="85"/>
+    <row r="23" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="L23" s="82"/>
     </row>
-    <row r="24" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L24" s="85"/>
+    <row r="24" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="L24" s="82"/>
     </row>
-    <row r="25" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L25" s="85"/>
+    <row r="25" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="L25" s="82"/>
     </row>
-    <row r="26" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L26" s="85"/>
+    <row r="26" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="L26" s="82"/>
     </row>
-    <row r="27" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L27" s="85"/>
+    <row r="27" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="L27" s="82"/>
     </row>
-    <row r="28" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L28" s="85"/>
+    <row r="28" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="L28" s="82"/>
     </row>
-    <row r="29" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L29" s="85"/>
+    <row r="29" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="L29" s="82"/>
     </row>
-    <row r="30" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L30" s="85"/>
+    <row r="30" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="L30" s="82"/>
     </row>
-    <row r="31" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L31" s="85"/>
+    <row r="31" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="L31" s="82"/>
     </row>
-    <row r="32" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L32" s="85"/>
+    <row r="32" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="L32" s="82"/>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L33" s="85"/>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="L33" s="82"/>
     </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L34" s="85"/>
+    <row r="34" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="L34" s="82"/>
     </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L35" s="85"/>
+    <row r="35" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="L35" s="82"/>
     </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L36" s="85"/>
+    <row r="36" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="L36" s="82"/>
     </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L37" s="85"/>
+    <row r="37" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="L37" s="82"/>
     </row>
-    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L38" s="85"/>
+    <row r="38" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="L38" s="82"/>
     </row>
-    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L39" s="85"/>
+    <row r="39" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="L39" s="82"/>
     </row>
-    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L40" s="85"/>
+    <row r="40" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="L40" s="82"/>
     </row>
-    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L41" s="85"/>
+    <row r="41" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="L41" s="82"/>
     </row>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
@@ -27858,11 +27994,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FA29A6-F757-4680-9EA1-0F171689F7BA}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.109375" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -27880,7 +28016,7 @@
     <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="31" t="s">
         <v>157</v>
       </c>
@@ -27933,8 +28069,8 @@
         <v>352</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+    <row r="3" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="69" t="s">
         <v>696</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -27946,7 +28082,7 @@
       <c r="D3" s="11">
         <v>297.47000000000003</v>
       </c>
-      <c r="E3" s="89">
+      <c r="E3" s="86">
         <v>2.0649999999999999</v>
       </c>
       <c r="F3" s="12" t="s">
@@ -27980,8 +28116,8 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+    <row r="4" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="69" t="s">
         <v>697</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -27993,7 +28129,7 @@
       <c r="D4" s="11">
         <v>297.47000000000003</v>
       </c>
-      <c r="E4" s="89">
+      <c r="E4" s="86">
         <v>2.0649999999999999</v>
       </c>
       <c r="F4" s="12" t="s">
@@ -28011,7 +28147,7 @@
       <c r="J4" s="12">
         <v>98</v>
       </c>
-      <c r="K4" s="90">
+      <c r="K4" s="87">
         <v>44769</v>
       </c>
       <c r="L4" s="12" t="s">
@@ -28035,8 +28171,8 @@
         <v>19.930490000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
+    <row r="6" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="69" t="s">
         <v>698</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -28048,7 +28184,7 @@
       <c r="D6" s="11">
         <v>0.1</v>
       </c>
-      <c r="E6" s="91">
+      <c r="E6" s="88">
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
@@ -28087,110 +28223,110 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="92" t="s">
+    <row r="8" spans="1:17" s="91" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="89" t="s">
         <v>611</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="90" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="94">
+      <c r="D8" s="91">
         <v>82.11</v>
       </c>
-      <c r="E8" s="94">
+      <c r="E8" s="91">
         <v>1.0960000000000001</v>
       </c>
-      <c r="F8" s="93" t="s">
+      <c r="F8" s="90" t="s">
         <v>165</v>
       </c>
-      <c r="G8" s="94">
+      <c r="G8" s="91">
         <v>69222</v>
       </c>
-      <c r="H8" s="94">
+      <c r="H8" s="91">
         <v>3259</v>
       </c>
-      <c r="I8" s="93" t="s">
+      <c r="I8" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="J8" s="94">
+      <c r="J8" s="91">
         <v>99</v>
       </c>
-      <c r="K8" s="93" t="s">
+      <c r="K8" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="L8" s="93" t="s">
+      <c r="L8" s="90" t="s">
         <v>263</v>
       </c>
-      <c r="M8" s="94">
+      <c r="M8" s="91">
         <v>149</v>
       </c>
-      <c r="N8" s="94">
+      <c r="N8" s="91">
         <v>1000</v>
       </c>
-      <c r="O8" s="93" t="s">
+      <c r="O8" s="90" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="92" t="s">
+    <row r="9" spans="1:17" s="91" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="89" t="s">
         <v>612</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="90" t="s">
         <v>166</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="94">
+      <c r="D9" s="91">
         <v>82.11</v>
       </c>
-      <c r="E9" s="94">
+      <c r="E9" s="91">
         <v>1.0960000000000001</v>
       </c>
-      <c r="F9" s="93" t="s">
+      <c r="F9" s="90" t="s">
         <v>165</v>
       </c>
-      <c r="G9" s="93" t="s">
+      <c r="G9" s="90" t="s">
         <v>265</v>
       </c>
-      <c r="H9" s="94">
+      <c r="H9" s="91">
         <v>3259</v>
       </c>
-      <c r="I9" s="93" t="s">
+      <c r="I9" s="90" t="s">
         <v>264</v>
       </c>
-      <c r="J9" s="93">
+      <c r="J9" s="90">
         <v>99</v>
       </c>
-      <c r="K9" s="95">
+      <c r="K9" s="92">
         <v>44769</v>
       </c>
-      <c r="L9" s="93" t="s">
+      <c r="L9" s="90" t="s">
         <v>263</v>
       </c>
-      <c r="M9" s="94">
+      <c r="M9" s="91">
         <v>149</v>
       </c>
-      <c r="N9" s="94">
+      <c r="N9" s="91">
         <v>1000</v>
       </c>
-      <c r="O9" s="93" t="s">
+      <c r="O9" s="90" t="s">
         <v>224</v>
       </c>
-      <c r="P9" s="94">
+      <c r="P9" s="91">
         <f>N9/D9</f>
         <v>12.178784557301181</v>
       </c>
-      <c r="Q9" s="94">
+      <c r="Q9" s="91">
         <f>M9/P9</f>
         <v>12.234389999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="87" t="s">
+    <row r="11" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="84" t="s">
         <v>613</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -28244,8 +28380,8 @@
         <v>0.115344</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="87" t="s">
+    <row r="12" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="84" t="s">
         <v>614</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -28275,7 +28411,7 @@
       <c r="J12" s="13">
         <v>99.8</v>
       </c>
-      <c r="K12" s="88">
+      <c r="K12" s="85">
         <v>44769</v>
       </c>
       <c r="L12" s="14" t="s">
@@ -28305,7 +28441,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -28323,7 +28459,7 @@
     <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="38" t="s">
         <v>202</v>
       </c>
@@ -28351,7 +28487,7 @@
       <c r="M1" s="38"/>
       <c r="N1" s="38"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -28368,7 +28504,7 @@
         <v>0.94259999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>356</v>
       </c>
@@ -28385,32 +28521,32 @@
         <v>1.4041999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="E9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="J12" s="3"/>
     </row>
   </sheetData>

--- a/tests/testData/AutoMOFs_Logbook_Testing.xlsx
+++ b/tests/testData/AutoMOFs_Logbook_Testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Code\DACHS\tests\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9070870D-38CE-430E-9997-7B252DD83082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE2700E-8EF8-4262-B90F-FA23BB611D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="483" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="483" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AutoMOFs" sheetId="6" r:id="rId1"/>
@@ -3822,7 +3822,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3864,7 +3864,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -28074,7 +28074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD88952-8724-46C4-97C4-731F55BA1C4B}">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -28563,8 +28563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FA29A6-F757-4680-9EA1-0F171689F7BA}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -28684,6 +28684,14 @@
       <c r="O3" s="11" t="s">
         <v>224</v>
       </c>
+      <c r="P3" s="11">
+        <f>N3/D3</f>
+        <v>3.3616835311123809</v>
+      </c>
+      <c r="Q3" s="11">
+        <f>M3/P3</f>
+        <v>19.930490000000002</v>
+      </c>
     </row>
     <row r="4" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="66" t="s">
@@ -28838,6 +28846,14 @@
       <c r="O8" s="87" t="s">
         <v>224</v>
       </c>
+      <c r="P8" s="88">
+        <f>N8/D8</f>
+        <v>12.178784557301181</v>
+      </c>
+      <c r="Q8" s="88">
+        <f>M8/P8</f>
+        <v>12.234389999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:17" s="88" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="86" t="s">
@@ -28994,6 +29010,14 @@
       </c>
       <c r="O12" s="14" t="s">
         <v>225</v>
+      </c>
+      <c r="P12" s="13">
+        <f>N12/D12</f>
+        <v>78.027465667915109</v>
+      </c>
+      <c r="Q12" s="13">
+        <f>M12/P12</f>
+        <v>0.115344</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testData/AutoMOFs_Logbook_Testing.xlsx
+++ b/tests/testData/AutoMOFs_Logbook_Testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ingo/code/dachs/tests/testData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Code\DACHS\tests\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362090CD-4AEE-7342-B40A-4657CCF8C922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CD7132-41F8-4FB5-8D60-7B090A2F83B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="23240" windowHeight="12560" tabRatio="483" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57600" yWindow="0" windowWidth="19200" windowHeight="20385" tabRatio="483" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AutoMOFs" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="834">
   <si>
     <t>Molar Mass</t>
   </si>
@@ -2233,13 +2233,331 @@
     <t>Sonicator</t>
   </si>
   <si>
-    <t>PVs</t>
-  </si>
-  <si>
     <t>volume</t>
   </si>
   <si>
     <t>Current Syringe volume</t>
+  </si>
+  <si>
+    <t>PV Name</t>
+  </si>
+  <si>
+    <t>PV Description</t>
+  </si>
+  <si>
+    <t>arduino:relays:relay0</t>
+  </si>
+  <si>
+    <t>relay 0</t>
+  </si>
+  <si>
+    <t>set value for relay (digital output) 0</t>
+  </si>
+  <si>
+    <t>arduino:relays:relay1</t>
+  </si>
+  <si>
+    <t>relay 1</t>
+  </si>
+  <si>
+    <t>set value for relay (digital output) 1</t>
+  </si>
+  <si>
+    <t>arduino:relays:relay2</t>
+  </si>
+  <si>
+    <t>relay 2</t>
+  </si>
+  <si>
+    <t>set value for relay (digital output) 2</t>
+  </si>
+  <si>
+    <t>arduino:relays:relay3</t>
+  </si>
+  <si>
+    <t>relay 3</t>
+  </si>
+  <si>
+    <t>set value for relay (digital output) 3</t>
+  </si>
+  <si>
+    <t>arduino:environment:temperature</t>
+  </si>
+  <si>
+    <t>environment temperature</t>
+  </si>
+  <si>
+    <t>Ambient air temperature inside the RoWaN housing</t>
+  </si>
+  <si>
+    <t>0.0 K</t>
+  </si>
+  <si>
+    <t>arduino:environment:pressure</t>
+  </si>
+  <si>
+    <t>environment pressure</t>
+  </si>
+  <si>
+    <t>ambient air pressure inside the RoWaN housing</t>
+  </si>
+  <si>
+    <t>0.0 hPa</t>
+  </si>
+  <si>
+    <t>arduino:environment:humidity</t>
+  </si>
+  <si>
+    <t>environment humidity</t>
+  </si>
+  <si>
+    <t>ambient air humidity inside the RoWaN housing</t>
+  </si>
+  <si>
+    <t>0.0 percent</t>
+  </si>
+  <si>
+    <t>kern:mass</t>
+  </si>
+  <si>
+    <t>mass on balance</t>
+  </si>
+  <si>
+    <t>mass readout of the object on top of the balance</t>
+  </si>
+  <si>
+    <t>0.0 gram</t>
+  </si>
+  <si>
+    <t>kern:stability</t>
+  </si>
+  <si>
+    <t>stability of balance</t>
+  </si>
+  <si>
+    <t>indicates whether the readout is stable or unstable</t>
+  </si>
+  <si>
+    <t>PV ID</t>
+  </si>
+  <si>
+    <t>hotplate:stirrer:actual</t>
+  </si>
+  <si>
+    <t>actual RPM</t>
+  </si>
+  <si>
+    <t>Actual RPM value of the sritter</t>
+  </si>
+  <si>
+    <t>hotplate:stirrer:setpoint</t>
+  </si>
+  <si>
+    <t>RPM setpoint</t>
+  </si>
+  <si>
+    <t>setpoint RPM value of the sritter</t>
+  </si>
+  <si>
+    <t>hotplate:stirrer:control</t>
+  </si>
+  <si>
+    <t>stirring on/off</t>
+  </si>
+  <si>
+    <t>Switches stirring functionality on or off</t>
+  </si>
+  <si>
+    <t>hotplate:temperature:actual_internal</t>
+  </si>
+  <si>
+    <t>internal temperature sensor</t>
+  </si>
+  <si>
+    <t>readout of the actual temperature of the internal temperature sensor</t>
+  </si>
+  <si>
+    <t>hotplate:temperature:actual_external</t>
+  </si>
+  <si>
+    <t>external temperature sensor value</t>
+  </si>
+  <si>
+    <t>readout of the actual temperature of the external temperature sensor</t>
+  </si>
+  <si>
+    <t>hotplate:temperature:control</t>
+  </si>
+  <si>
+    <t>heating on/off</t>
+  </si>
+  <si>
+    <t>Switches heating functionality on or off</t>
+  </si>
+  <si>
+    <t>hotplate:temperature:setpoint</t>
+  </si>
+  <si>
+    <t>temperature setpoint</t>
+  </si>
+  <si>
+    <t>hotplate temperature sensor setpoint</t>
+  </si>
+  <si>
+    <t>syringepump-01:IRATEUNITS</t>
+  </si>
+  <si>
+    <t>infuse rate units</t>
+  </si>
+  <si>
+    <t>unit selection for infuse rate</t>
+  </si>
+  <si>
+    <t>syringepump-01:WRATEUNITS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">withdraw rate units </t>
+  </si>
+  <si>
+    <t>set the value on the device for withdraw rate units</t>
+  </si>
+  <si>
+    <t>syringepump-01:TVOLUMEUNITS</t>
+  </si>
+  <si>
+    <t>target volume units</t>
+  </si>
+  <si>
+    <t>set the value on the device for target volume units</t>
+  </si>
+  <si>
+    <t>syringepump-01:FORCE</t>
+  </si>
+  <si>
+    <t>maximum force</t>
+  </si>
+  <si>
+    <t>set the value on the device for the maximum force to use</t>
+  </si>
+  <si>
+    <t>syringepump-01:TTIME</t>
+  </si>
+  <si>
+    <t>target time</t>
+  </si>
+  <si>
+    <t>set the value on the device for the target time (duration)</t>
+  </si>
+  <si>
+    <t>syringepump-01:DIAMETER</t>
+  </si>
+  <si>
+    <t>inner diameter</t>
+  </si>
+  <si>
+    <t>set the value on the device for the syringe inner diameter</t>
+  </si>
+  <si>
+    <t>syringepump-01:IRATE</t>
+  </si>
+  <si>
+    <t>infuse rate</t>
+  </si>
+  <si>
+    <t>set the value on the device for infuse rate</t>
+  </si>
+  <si>
+    <t>syringepump-01:WRATE</t>
+  </si>
+  <si>
+    <t>withdraw rate</t>
+  </si>
+  <si>
+    <t>set the value on the device for withdraw rate</t>
+  </si>
+  <si>
+    <t>syringepump-01:TVOLUME</t>
+  </si>
+  <si>
+    <t>target volume</t>
+  </si>
+  <si>
+    <t>set the value on the device for target volume</t>
+  </si>
+  <si>
+    <t>syringepump-01:DISABLE</t>
+  </si>
+  <si>
+    <t>disable comms</t>
+  </si>
+  <si>
+    <t>disable communications</t>
+  </si>
+  <si>
+    <t>syringepump-01:IRUN</t>
+  </si>
+  <si>
+    <t>run infuse</t>
+  </si>
+  <si>
+    <t>sends command to start infuse run</t>
+  </si>
+  <si>
+    <t>syringepump-01:WRUN</t>
+  </si>
+  <si>
+    <t>run withdraw</t>
+  </si>
+  <si>
+    <t>sends command to start withdraw run</t>
+  </si>
+  <si>
+    <t>syringepump-01:STOP</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>sends stop command to the pump</t>
+  </si>
+  <si>
+    <t>syringepump-02:IRATEUNITS</t>
+  </si>
+  <si>
+    <t>syringepump-02:WRATEUNITS</t>
+  </si>
+  <si>
+    <t>syringepump-02:TVOLUMEUNITS</t>
+  </si>
+  <si>
+    <t>syringepump-02:FORCE</t>
+  </si>
+  <si>
+    <t>syringepump-02:TTIME</t>
+  </si>
+  <si>
+    <t>syringepump-02:DIAMETER</t>
+  </si>
+  <si>
+    <t>syringepump-02:IRATE</t>
+  </si>
+  <si>
+    <t>syringepump-02:WRATE</t>
+  </si>
+  <si>
+    <t>syringepump-02:TVOLUME</t>
+  </si>
+  <si>
+    <t>syringepump-02:DISABLE</t>
+  </si>
+  <si>
+    <t>syringepump-02:IRUN</t>
+  </si>
+  <si>
+    <t>syringepump-02:WRUN</t>
+  </si>
+  <si>
+    <t>syringepump-02:STOP</t>
   </si>
 </sst>
 </file>
@@ -2805,7 +3123,7 @@
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3076,6 +3394,9 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="324">
     <cellStyle name="Accent5" xfId="320" builtinId="45"/>
@@ -3401,7 +3722,7 @@
     <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="319" builtinId="5"/>
+    <cellStyle name="Percent" xfId="319" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3794,7 +4115,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3836,7 +4157,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -3863,7 +4184,7 @@
       <selection pane="bottomLeft" activeCell="Z8" sqref="Z8:AB14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="1"/>
@@ -3906,7 +4227,7 @@
     <col min="51" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="18" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" s="18" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>21</v>
       </c>
@@ -4052,7 +4373,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -4176,19 +4497,19 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="Z3" s="29"/>
       <c r="AA3" s="29"/>
       <c r="AB3" s="29"/>
       <c r="AO3" s="80"/>
       <c r="AS3" s="54"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A4" s="23" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:50" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A5" s="1">
         <v>20220208</v>
       </c>
@@ -4331,7 +4652,7 @@
       <c r="AV5" s="3"/>
       <c r="AX5" s="3"/>
     </row>
-    <row r="6" spans="1:50" ht="14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:50" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>20220208</v>
       </c>
@@ -4476,7 +4797,7 @@
       <c r="AV6" s="3"/>
       <c r="AX6" s="3"/>
     </row>
-    <row r="7" spans="1:50" ht="14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:50" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
         <v>20220208</v>
       </c>
@@ -4621,7 +4942,7 @@
       <c r="AV7" s="3"/>
       <c r="AX7" s="3"/>
     </row>
-    <row r="8" spans="1:50" ht="14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:50" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A8" s="1">
         <v>20220208</v>
       </c>
@@ -4766,7 +5087,7 @@
       <c r="AV8" s="3"/>
       <c r="AX8" s="3"/>
     </row>
-    <row r="9" spans="1:50" ht="14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:50" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A9" s="1">
         <v>20220208</v>
       </c>
@@ -4911,7 +5232,7 @@
       <c r="AV9" s="3"/>
       <c r="AX9" s="3"/>
     </row>
-    <row r="10" spans="1:50" ht="14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:50" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
         <v>20220208</v>
       </c>
@@ -5056,7 +5377,7 @@
       <c r="AV10" s="3"/>
       <c r="AX10" s="3"/>
     </row>
-    <row r="11" spans="1:50" ht="14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:50" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A11" s="1">
         <v>20220208</v>
       </c>
@@ -5201,7 +5522,7 @@
       <c r="AV11" s="3"/>
       <c r="AX11" s="3"/>
     </row>
-    <row r="12" spans="1:50" ht="14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:50" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A12" s="1">
         <v>20220208</v>
       </c>
@@ -5346,7 +5667,7 @@
       <c r="AV12" s="3"/>
       <c r="AX12" s="3"/>
     </row>
-    <row r="13" spans="1:50" ht="14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:50" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A13" s="1">
         <v>20220208</v>
       </c>
@@ -5489,7 +5810,7 @@
       <c r="AV13" s="3"/>
       <c r="AX13" s="3"/>
     </row>
-    <row r="14" spans="1:50" ht="14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:50" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A14" s="1">
         <v>20220208</v>
       </c>
@@ -5632,7 +5953,7 @@
       <c r="AV14" s="3"/>
       <c r="AX14" s="3"/>
     </row>
-    <row r="15" spans="1:50" ht="14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:50" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A15" s="1">
         <v>20220208</v>
       </c>
@@ -5775,7 +6096,7 @@
       <c r="AV15" s="3"/>
       <c r="AX15" s="3"/>
     </row>
-    <row r="16" spans="1:50" ht="14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:50" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A16" s="1">
         <v>20220208</v>
       </c>
@@ -5918,7 +6239,7 @@
       <c r="AV16" s="3"/>
       <c r="AX16" s="3"/>
     </row>
-    <row r="17" spans="1:53" ht="14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
         <v>20220208</v>
       </c>
@@ -6061,7 +6382,7 @@
       <c r="AV17" s="3"/>
       <c r="AX17" s="3"/>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A18" s="23" t="s">
         <v>349</v>
       </c>
@@ -6085,7 +6406,7 @@
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
     </row>
-    <row r="19" spans="1:53" ht="14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A19" s="1">
         <v>20220223</v>
       </c>
@@ -6229,7 +6550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:53" ht="14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A20" s="1">
         <v>20220223</v>
       </c>
@@ -6373,7 +6694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:53" ht="14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A21" s="1">
         <v>20220223</v>
       </c>
@@ -6518,7 +6839,7 @@
       </c>
       <c r="AV21" s="52"/>
     </row>
-    <row r="22" spans="1:53" ht="14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
         <v>20220223</v>
       </c>
@@ -6663,7 +6984,7 @@
       </c>
       <c r="AV22" s="52"/>
     </row>
-    <row r="23" spans="1:53" ht="14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A23" s="1">
         <v>20220223</v>
       </c>
@@ -6811,7 +7132,7 @@
       <c r="AZ23" s="3"/>
       <c r="BA23" s="3"/>
     </row>
-    <row r="24" spans="1:53" ht="14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A24" s="1">
         <v>20220223</v>
       </c>
@@ -6956,7 +7277,7 @@
       </c>
       <c r="AV24" s="52"/>
     </row>
-    <row r="25" spans="1:53" ht="14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A25" s="1">
         <v>20220223</v>
       </c>
@@ -7101,7 +7422,7 @@
       </c>
       <c r="AV25" s="52"/>
     </row>
-    <row r="26" spans="1:53" ht="14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A26" s="1">
         <v>20220223</v>
       </c>
@@ -7246,7 +7567,7 @@
       </c>
       <c r="AV26" s="52"/>
     </row>
-    <row r="27" spans="1:53" ht="14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A27" s="1">
         <v>20220223</v>
       </c>
@@ -7391,7 +7712,7 @@
       </c>
       <c r="AV27" s="52"/>
     </row>
-    <row r="28" spans="1:53" ht="14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A28" s="1">
         <v>20220223</v>
       </c>
@@ -7536,7 +7857,7 @@
       </c>
       <c r="AV28" s="52"/>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A29" s="23" t="s">
         <v>348</v>
       </c>
@@ -7567,7 +7888,7 @@
       <c r="AS29" s="62"/>
       <c r="AV29" s="52"/>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>20220714</v>
       </c>
@@ -7701,7 +8022,7 @@
       <c r="AS30" s="62"/>
       <c r="AV30" s="52"/>
     </row>
-    <row r="31" spans="1:53" ht="14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A31" s="3">
         <v>20220714</v>
       </c>
@@ -7846,7 +8167,7 @@
       <c r="AS31" s="62"/>
       <c r="AV31" s="52"/>
     </row>
-    <row r="32" spans="1:53" ht="14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A32" s="3">
         <v>20220714</v>
       </c>
@@ -7991,7 +8312,7 @@
       <c r="AS32" s="62"/>
       <c r="AV32" s="52"/>
     </row>
-    <row r="33" spans="1:53" ht="14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A33" s="3">
         <v>20220714</v>
       </c>
@@ -8136,7 +8457,7 @@
       <c r="AS33" s="62"/>
       <c r="AV33" s="52"/>
     </row>
-    <row r="34" spans="1:53" ht="14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A34" s="3">
         <v>20220714</v>
       </c>
@@ -8281,7 +8602,7 @@
       <c r="AS34" s="62"/>
       <c r="AV34" s="52"/>
     </row>
-    <row r="35" spans="1:53" ht="14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A35" s="3">
         <v>20220714</v>
       </c>
@@ -8428,7 +8749,7 @@
       <c r="AZ35" s="3"/>
       <c r="BA35" s="3"/>
     </row>
-    <row r="36" spans="1:53" ht="14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A36" s="3">
         <v>20220714</v>
       </c>
@@ -8573,7 +8894,7 @@
       <c r="AS36" s="62"/>
       <c r="AV36" s="52"/>
     </row>
-    <row r="37" spans="1:53" ht="14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A37" s="3">
         <v>20220714</v>
       </c>
@@ -8720,7 +9041,7 @@
       <c r="AZ37" s="3"/>
       <c r="BA37" s="3"/>
     </row>
-    <row r="38" spans="1:53" ht="14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A38" s="3">
         <v>20220714</v>
       </c>
@@ -8868,7 +9189,7 @@
       <c r="AZ38" s="3"/>
       <c r="BA38" s="3"/>
     </row>
-    <row r="39" spans="1:53" ht="14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A39" s="3">
         <v>20220714</v>
       </c>
@@ -9013,7 +9334,7 @@
       <c r="AS39" s="62"/>
       <c r="AV39" s="52"/>
     </row>
-    <row r="40" spans="1:53" ht="14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A40" s="3">
         <v>20220714</v>
       </c>
@@ -9158,7 +9479,7 @@
       <c r="AS40" s="62"/>
       <c r="AV40" s="52"/>
     </row>
-    <row r="41" spans="1:53" ht="14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A41" s="3">
         <v>20220714</v>
       </c>
@@ -9303,7 +9624,7 @@
       <c r="AS41" s="62"/>
       <c r="AV41" s="52"/>
     </row>
-    <row r="42" spans="1:53" ht="14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A42" s="3">
         <v>20220715</v>
       </c>
@@ -9448,7 +9769,7 @@
       <c r="AS42" s="62"/>
       <c r="AV42" s="52"/>
     </row>
-    <row r="43" spans="1:53" ht="14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A43" s="3">
         <v>20220715</v>
       </c>
@@ -9593,7 +9914,7 @@
       <c r="AS43" s="62"/>
       <c r="AV43" s="52"/>
     </row>
-    <row r="44" spans="1:53" ht="14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A44" s="3">
         <v>20220726</v>
       </c>
@@ -9741,7 +10062,7 @@
       <c r="AZ44" s="3"/>
       <c r="BA44" s="3"/>
     </row>
-    <row r="45" spans="1:53" ht="14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A45" s="3">
         <v>20220726</v>
       </c>
@@ -9886,7 +10207,7 @@
       <c r="AV45" s="52"/>
       <c r="AW45" s="52"/>
     </row>
-    <row r="46" spans="1:53" ht="14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A46" s="3">
         <v>20220726</v>
       </c>
@@ -10031,7 +10352,7 @@
       <c r="AV46" s="86"/>
       <c r="AW46" s="52"/>
     </row>
-    <row r="47" spans="1:53" ht="14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:53" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A47" s="3">
         <v>20220726</v>
       </c>
@@ -10176,7 +10497,7 @@
       <c r="AV47" s="86"/>
       <c r="AW47" s="52"/>
     </row>
-    <row r="48" spans="1:53" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A48" s="23" t="s">
         <v>256</v>
       </c>
@@ -10189,7 +10510,7 @@
       <c r="AK48" s="3"/>
       <c r="AV48" s="86"/>
     </row>
-    <row r="49" spans="1:63" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>20220727</v>
       </c>
@@ -10331,7 +10652,7 @@
       <c r="AV49" s="87"/>
       <c r="AX49" s="3"/>
     </row>
-    <row r="50" spans="1:63" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>20220727</v>
       </c>
@@ -10473,7 +10794,7 @@
       <c r="AV50" s="87"/>
       <c r="AX50" s="3"/>
     </row>
-    <row r="51" spans="1:63" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>20220727</v>
       </c>
@@ -10615,7 +10936,7 @@
       <c r="AV51" s="87"/>
       <c r="AX51" s="3"/>
     </row>
-    <row r="52" spans="1:63" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>20220727</v>
       </c>
@@ -10758,7 +11079,7 @@
       <c r="AV52" s="87"/>
       <c r="AX52" s="3"/>
     </row>
-    <row r="53" spans="1:63" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>20220727</v>
       </c>
@@ -10900,7 +11221,7 @@
       <c r="AV53" s="87"/>
       <c r="AX53" s="3"/>
     </row>
-    <row r="54" spans="1:63" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>20220727</v>
       </c>
@@ -11044,7 +11365,7 @@
       <c r="AV54" s="87"/>
       <c r="AX54" s="3"/>
     </row>
-    <row r="55" spans="1:63" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>20220727</v>
       </c>
@@ -11187,7 +11508,7 @@
       <c r="AV55" s="87"/>
       <c r="AX55" s="3"/>
     </row>
-    <row r="56" spans="1:63" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>20220727</v>
       </c>
@@ -11330,7 +11651,7 @@
       <c r="AV56" s="87"/>
       <c r="AX56" s="3"/>
     </row>
-    <row r="57" spans="1:63" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>20220727</v>
       </c>
@@ -11474,7 +11795,7 @@
       <c r="BA57" s="3"/>
       <c r="BB57" s="3"/>
     </row>
-    <row r="58" spans="1:63" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>20220727</v>
       </c>
@@ -11618,7 +11939,7 @@
       <c r="BA58" s="59"/>
       <c r="BB58" s="59"/>
     </row>
-    <row r="59" spans="1:63" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>20220727</v>
       </c>
@@ -11763,7 +12084,7 @@
       <c r="AX59" s="3"/>
       <c r="BB59" s="60"/>
     </row>
-    <row r="60" spans="1:63" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>20220727</v>
       </c>
@@ -11906,7 +12227,7 @@
       <c r="AV60" s="89"/>
       <c r="AX60" s="3"/>
     </row>
-    <row r="61" spans="1:63" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>20220727</v>
       </c>
@@ -12049,7 +12370,7 @@
       <c r="AV61" s="89"/>
       <c r="AX61" s="3"/>
     </row>
-    <row r="62" spans="1:63" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>20220727</v>
       </c>
@@ -12195,7 +12516,7 @@
       <c r="BG62"/>
       <c r="BK62"/>
     </row>
-    <row r="63" spans="1:63" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>20220727</v>
       </c>
@@ -12341,7 +12662,7 @@
       <c r="BG63"/>
       <c r="BK63"/>
     </row>
-    <row r="64" spans="1:63" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>20220727</v>
       </c>
@@ -12488,7 +12809,7 @@
       <c r="BH64" s="85"/>
       <c r="BK64"/>
     </row>
-    <row r="65" spans="1:63" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>20220727</v>
       </c>
@@ -12634,7 +12955,7 @@
       <c r="BH65" s="85"/>
       <c r="BK65"/>
     </row>
-    <row r="66" spans="1:63" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>20220727</v>
       </c>
@@ -12780,7 +13101,7 @@
       <c r="BH66" s="85"/>
       <c r="BK66"/>
     </row>
-    <row r="67" spans="1:63" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>20220727</v>
       </c>
@@ -12929,7 +13250,7 @@
       <c r="BH67" s="85"/>
       <c r="BK67"/>
     </row>
-    <row r="68" spans="1:63" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:63" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>20220727</v>
       </c>
@@ -13078,7 +13399,7 @@
       <c r="BJ68" s="23"/>
       <c r="BK68"/>
     </row>
-    <row r="69" spans="1:63" ht="14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:63" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A69" s="1">
         <v>20220727</v>
       </c>
@@ -13227,7 +13548,7 @@
       <c r="BH69" s="85"/>
       <c r="BK69"/>
     </row>
-    <row r="70" spans="1:63" ht="14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:63" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A70" s="1">
         <v>20220727</v>
       </c>
@@ -13375,7 +13696,7 @@
       <c r="BH70" s="85"/>
       <c r="BK70"/>
     </row>
-    <row r="71" spans="1:63" ht="14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:63" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A71" s="1">
         <v>20220727</v>
       </c>
@@ -13526,7 +13847,7 @@
       <c r="BJ71" s="23"/>
       <c r="BK71"/>
     </row>
-    <row r="72" spans="1:63" ht="14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:63" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A72" s="1">
         <v>20220727</v>
       </c>
@@ -13672,7 +13993,7 @@
       <c r="AY72" s="58"/>
       <c r="BH72" s="85"/>
     </row>
-    <row r="73" spans="1:63" ht="14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:63" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A73" s="1">
         <v>20220727</v>
       </c>
@@ -13818,7 +14139,7 @@
       <c r="AY73" s="58"/>
       <c r="BH73" s="84"/>
     </row>
-    <row r="74" spans="1:63" ht="14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:63" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A74" s="1">
         <v>20220727</v>
       </c>
@@ -13963,7 +14284,7 @@
       <c r="AX74" s="3"/>
       <c r="AY74" s="58"/>
     </row>
-    <row r="75" spans="1:63" ht="14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:63" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A75" s="1">
         <v>20220727</v>
       </c>
@@ -14108,7 +14429,7 @@
       <c r="AX75" s="3"/>
       <c r="AY75" s="58"/>
     </row>
-    <row r="76" spans="1:63" ht="14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:63" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A76" s="1">
         <v>20220727</v>
       </c>
@@ -14253,7 +14574,7 @@
       <c r="AX76" s="3"/>
       <c r="AY76" s="58"/>
     </row>
-    <row r="77" spans="1:63" ht="14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:63" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A77" s="1">
         <v>20220727</v>
       </c>
@@ -14402,7 +14723,7 @@
       <c r="BA77" s="3"/>
       <c r="BB77" s="3"/>
     </row>
-    <row r="78" spans="1:63" ht="14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:63" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A78" s="1">
         <v>20220727</v>
       </c>
@@ -14550,7 +14871,7 @@
       <c r="BA78" s="59"/>
       <c r="BB78" s="59"/>
     </row>
-    <row r="79" spans="1:63" ht="14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:63" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A79" s="1">
         <v>20220727</v>
       </c>
@@ -14695,7 +15016,7 @@
       <c r="AV79" s="52"/>
       <c r="BB79" s="60"/>
     </row>
-    <row r="80" spans="1:63" ht="14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:63" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A80" s="1">
         <v>20220727</v>
       </c>
@@ -14838,7 +15159,7 @@
       <c r="AV80" s="59"/>
       <c r="AW80" s="60"/>
     </row>
-    <row r="81" spans="1:51" ht="14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A81" s="1">
         <v>20220727</v>
       </c>
@@ -14981,7 +15302,7 @@
       <c r="AV81" s="59"/>
       <c r="AW81" s="60"/>
     </row>
-    <row r="82" spans="1:51" ht="14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A82" s="1">
         <v>20220727</v>
       </c>
@@ -15124,7 +15445,7 @@
       <c r="AV82" s="59"/>
       <c r="AW82" s="60"/>
     </row>
-    <row r="83" spans="1:51" ht="14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A83" s="1">
         <v>20220727</v>
       </c>
@@ -15267,7 +15588,7 @@
       <c r="AV83" s="59"/>
       <c r="AW83" s="60"/>
     </row>
-    <row r="84" spans="1:51" ht="14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A84" s="1">
         <v>20220727</v>
       </c>
@@ -15410,7 +15731,7 @@
       <c r="AV84" s="59"/>
       <c r="AW84" s="60"/>
     </row>
-    <row r="85" spans="1:51" ht="14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A85" s="1">
         <v>20220727</v>
       </c>
@@ -15549,7 +15870,7 @@
       <c r="AV85" s="59"/>
       <c r="AW85" s="60"/>
     </row>
-    <row r="86" spans="1:51" ht="14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A86" s="1">
         <v>20220727</v>
       </c>
@@ -15689,7 +16010,7 @@
       <c r="AW86" s="60"/>
       <c r="AY86" s="58"/>
     </row>
-    <row r="87" spans="1:51" ht="14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A87" s="1">
         <v>20220727</v>
       </c>
@@ -15829,7 +16150,7 @@
       <c r="AW87" s="60"/>
       <c r="AY87" s="58"/>
     </row>
-    <row r="88" spans="1:51" ht="14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A88" s="1">
         <v>20220727</v>
       </c>
@@ -15969,7 +16290,7 @@
       <c r="AW88" s="60"/>
       <c r="AY88" s="58"/>
     </row>
-    <row r="89" spans="1:51" ht="14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A89" s="1">
         <v>20220727</v>
       </c>
@@ -16109,7 +16430,7 @@
       <c r="AW89" s="60"/>
       <c r="AY89" s="58"/>
     </row>
-    <row r="90" spans="1:51" ht="14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A90" s="1">
         <v>20220727</v>
       </c>
@@ -16249,7 +16570,7 @@
       <c r="AW90" s="60"/>
       <c r="AY90" s="58"/>
     </row>
-    <row r="91" spans="1:51" ht="14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A91" s="1">
         <v>20220727</v>
       </c>
@@ -16388,7 +16709,7 @@
       <c r="AV91" s="59"/>
       <c r="AW91" s="60"/>
     </row>
-    <row r="92" spans="1:51" ht="14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A92" s="1">
         <v>20220727</v>
       </c>
@@ -16528,7 +16849,7 @@
       <c r="AW92" s="60"/>
       <c r="AY92" s="58"/>
     </row>
-    <row r="93" spans="1:51" ht="14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A93" s="1">
         <v>20220727</v>
       </c>
@@ -16672,7 +16993,7 @@
       <c r="AV93" s="59"/>
       <c r="AY93" s="58"/>
     </row>
-    <row r="94" spans="1:51" ht="14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A94" s="1">
         <v>20220727</v>
       </c>
@@ -16816,7 +17137,7 @@
       <c r="AV94" s="59"/>
       <c r="AY94" s="58"/>
     </row>
-    <row r="95" spans="1:51" ht="14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A95" s="1">
         <v>20220727</v>
       </c>
@@ -16959,7 +17280,7 @@
       <c r="AV95" s="59"/>
       <c r="AY95" s="58"/>
     </row>
-    <row r="96" spans="1:51" ht="14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:51" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A96" s="1">
         <v>20220727</v>
       </c>
@@ -17102,7 +17423,7 @@
       <c r="AV96" s="59"/>
       <c r="AY96" s="58"/>
     </row>
-    <row r="97" spans="1:54" ht="14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A97" s="1">
         <v>20220727</v>
       </c>
@@ -17245,7 +17566,7 @@
       <c r="AV97" s="59"/>
       <c r="AY97" s="58"/>
     </row>
-    <row r="98" spans="1:54" ht="14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A98" s="1">
         <v>20220727</v>
       </c>
@@ -17389,7 +17710,7 @@
       <c r="AV98" s="59"/>
       <c r="AY98" s="58"/>
     </row>
-    <row r="99" spans="1:54" ht="14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A99" s="1">
         <v>20220727</v>
       </c>
@@ -17533,7 +17854,7 @@
       <c r="AV99" s="59"/>
       <c r="AY99" s="58"/>
     </row>
-    <row r="100" spans="1:54" ht="14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A100" s="1">
         <v>20220727</v>
       </c>
@@ -17677,7 +17998,7 @@
       <c r="AV100" s="59"/>
       <c r="AY100" s="58"/>
     </row>
-    <row r="101" spans="1:54" ht="14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A101" s="1">
         <v>20220727</v>
       </c>
@@ -17821,7 +18142,7 @@
       <c r="AV101" s="59"/>
       <c r="AY101" s="58"/>
     </row>
-    <row r="102" spans="1:54" ht="14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A102" s="1">
         <v>20220727</v>
       </c>
@@ -17965,7 +18286,7 @@
       <c r="AV102" s="59"/>
       <c r="AY102" s="58"/>
     </row>
-    <row r="103" spans="1:54" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A103" s="23" t="s">
         <v>336</v>
       </c>
@@ -17981,7 +18302,7 @@
       <c r="AK103" s="3"/>
       <c r="AV103" s="86"/>
     </row>
-    <row r="104" spans="1:54" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:54" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>20220808</v>
       </c>
@@ -18124,7 +18445,7 @@
       <c r="AV104" s="87"/>
       <c r="AX104" s="3"/>
     </row>
-    <row r="105" spans="1:54" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:54" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>20220808</v>
       </c>
@@ -18267,7 +18588,7 @@
       <c r="AV105" s="87"/>
       <c r="AX105" s="3"/>
     </row>
-    <row r="106" spans="1:54" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:54" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>20220808</v>
       </c>
@@ -18410,7 +18731,7 @@
       <c r="AV106" s="87"/>
       <c r="AX106" s="3"/>
     </row>
-    <row r="107" spans="1:54" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:54" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>20220808</v>
       </c>
@@ -18553,7 +18874,7 @@
       <c r="AV107" s="87"/>
       <c r="AX107" s="3"/>
     </row>
-    <row r="108" spans="1:54" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:54" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>20220808</v>
       </c>
@@ -18696,7 +19017,7 @@
       <c r="AV108" s="87"/>
       <c r="AX108" s="3"/>
     </row>
-    <row r="109" spans="1:54" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:54" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>20220808</v>
       </c>
@@ -18839,7 +19160,7 @@
       <c r="AV109" s="87"/>
       <c r="AX109" s="3"/>
     </row>
-    <row r="110" spans="1:54" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:54" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>20220808</v>
       </c>
@@ -18982,7 +19303,7 @@
       <c r="AV110" s="87"/>
       <c r="AX110" s="3"/>
     </row>
-    <row r="111" spans="1:54" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:54" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>20220808</v>
       </c>
@@ -19125,7 +19446,7 @@
       <c r="AV111" s="87"/>
       <c r="AX111" s="3"/>
     </row>
-    <row r="112" spans="1:54" ht="15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:54" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>20220808</v>
       </c>
@@ -19271,7 +19592,7 @@
       <c r="BA112" s="3"/>
       <c r="BB112" s="3"/>
     </row>
-    <row r="113" spans="1:54" ht="15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:54" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>20220808</v>
       </c>
@@ -19416,7 +19737,7 @@
       <c r="BA113" s="59"/>
       <c r="BB113" s="59"/>
     </row>
-    <row r="114" spans="1:54" ht="14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A114" s="1">
         <v>20220808</v>
       </c>
@@ -19561,7 +19882,7 @@
       <c r="AY114" s="58"/>
       <c r="BB114" s="60"/>
     </row>
-    <row r="115" spans="1:54" ht="14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A115" s="1">
         <v>20220808</v>
       </c>
@@ -19705,7 +20026,7 @@
       <c r="AX115" s="3"/>
       <c r="AY115" s="58"/>
     </row>
-    <row r="116" spans="1:54" ht="14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A116" s="1">
         <v>20220808</v>
       </c>
@@ -19849,7 +20170,7 @@
       <c r="AX116" s="3"/>
       <c r="AY116" s="58"/>
     </row>
-    <row r="117" spans="1:54" ht="14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A117" s="1">
         <v>20220808</v>
       </c>
@@ -19993,7 +20314,7 @@
       <c r="AX117" s="3"/>
       <c r="AY117" s="58"/>
     </row>
-    <row r="118" spans="1:54" ht="14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A118" s="1">
         <v>20220808</v>
       </c>
@@ -20137,7 +20458,7 @@
       <c r="AX118" s="3"/>
       <c r="AY118" s="58"/>
     </row>
-    <row r="119" spans="1:54" ht="14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A119" s="1">
         <v>20220808</v>
       </c>
@@ -20281,7 +20602,7 @@
       <c r="AX119" s="3"/>
       <c r="AY119" s="58"/>
     </row>
-    <row r="120" spans="1:54" ht="14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A120" s="1">
         <v>20220808</v>
       </c>
@@ -20426,7 +20747,7 @@
       <c r="AX120" s="3"/>
       <c r="AY120" s="58"/>
     </row>
-    <row r="121" spans="1:54" ht="14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A121" s="1">
         <v>20220808</v>
       </c>
@@ -20570,7 +20891,7 @@
       <c r="AX121" s="3"/>
       <c r="AY121" s="58"/>
     </row>
-    <row r="122" spans="1:54" ht="14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A122" s="1">
         <v>20220808</v>
       </c>
@@ -20716,7 +21037,7 @@
       <c r="BA122" s="3"/>
       <c r="BB122" s="3"/>
     </row>
-    <row r="123" spans="1:54" ht="14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A123" s="1">
         <v>20220808</v>
       </c>
@@ -20863,7 +21184,7 @@
       <c r="AX123" s="59"/>
       <c r="AY123" s="59"/>
     </row>
-    <row r="124" spans="1:54" ht="14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A124" s="1">
         <v>20220808</v>
       </c>
@@ -21004,7 +21325,7 @@
       </c>
       <c r="AY124" s="60"/>
     </row>
-    <row r="125" spans="1:54" ht="14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A125" s="1">
         <v>20220808</v>
       </c>
@@ -21146,7 +21467,7 @@
       <c r="AS125" s="59"/>
       <c r="AT125" s="60"/>
     </row>
-    <row r="126" spans="1:54" ht="14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A126" s="1">
         <v>20220808</v>
       </c>
@@ -21288,7 +21609,7 @@
       <c r="AS126" s="59"/>
       <c r="AT126" s="60"/>
     </row>
-    <row r="127" spans="1:54" ht="14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A127" s="1">
         <v>20220808</v>
       </c>
@@ -21430,7 +21751,7 @@
       <c r="AS127" s="59"/>
       <c r="AT127" s="60"/>
     </row>
-    <row r="128" spans="1:54" ht="14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:54" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A128" s="1">
         <v>20220808</v>
       </c>
@@ -21572,7 +21893,7 @@
       <c r="AS128" s="59"/>
       <c r="AT128" s="60"/>
     </row>
-    <row r="129" spans="1:48" ht="14" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A129" s="1">
         <v>20220808</v>
       </c>
@@ -21714,7 +22035,7 @@
       <c r="AS129" s="59"/>
       <c r="AT129" s="60"/>
     </row>
-    <row r="130" spans="1:48" ht="14" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A130" s="1">
         <v>20220808</v>
       </c>
@@ -21856,7 +22177,7 @@
       <c r="AS130" s="59"/>
       <c r="AT130" s="60"/>
     </row>
-    <row r="131" spans="1:48" ht="14" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A131" s="1">
         <v>20220808</v>
       </c>
@@ -21999,7 +22320,7 @@
       <c r="AT131" s="60"/>
       <c r="AV131" s="58"/>
     </row>
-    <row r="132" spans="1:48" ht="14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A132" s="1">
         <v>20220808</v>
       </c>
@@ -22142,7 +22463,7 @@
       <c r="AT132" s="60"/>
       <c r="AV132" s="58"/>
     </row>
-    <row r="133" spans="1:48" ht="14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A133" s="1">
         <v>20220808</v>
       </c>
@@ -22285,7 +22606,7 @@
       <c r="AT133" s="60"/>
       <c r="AV133" s="58"/>
     </row>
-    <row r="134" spans="1:48" ht="14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A134" s="1">
         <v>20220808</v>
       </c>
@@ -22428,7 +22749,7 @@
       <c r="AT134" s="60"/>
       <c r="AV134" s="58"/>
     </row>
-    <row r="135" spans="1:48" ht="14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A135" s="1">
         <v>20220808</v>
       </c>
@@ -22571,7 +22892,7 @@
       <c r="AT135" s="60"/>
       <c r="AV135" s="58"/>
     </row>
-    <row r="136" spans="1:48" ht="14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A136" s="1">
         <v>20220808</v>
       </c>
@@ -22713,7 +23034,7 @@
       <c r="AS136" s="59"/>
       <c r="AT136" s="60"/>
     </row>
-    <row r="137" spans="1:48" ht="14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A137" s="1">
         <v>20220808</v>
       </c>
@@ -22856,7 +23177,7 @@
       <c r="AT137" s="60"/>
       <c r="AV137" s="58"/>
     </row>
-    <row r="138" spans="1:48" ht="14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A138" s="1">
         <v>20220808</v>
       </c>
@@ -22999,7 +23320,7 @@
       <c r="AT138" s="60"/>
       <c r="AV138" s="58"/>
     </row>
-    <row r="139" spans="1:48" ht="14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A139" s="1">
         <v>20220808</v>
       </c>
@@ -23142,7 +23463,7 @@
       <c r="AT139" s="60"/>
       <c r="AV139" s="58"/>
     </row>
-    <row r="140" spans="1:48" ht="14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A140" s="1">
         <v>20220808</v>
       </c>
@@ -23284,7 +23605,7 @@
       <c r="AS140" s="59"/>
       <c r="AT140" s="60"/>
     </row>
-    <row r="141" spans="1:48" ht="14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A141" s="1">
         <v>20220808</v>
       </c>
@@ -23427,7 +23748,7 @@
       <c r="AT141" s="60"/>
       <c r="AV141" s="58"/>
     </row>
-    <row r="142" spans="1:48" ht="14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A142" s="1">
         <v>20220808</v>
       </c>
@@ -23570,7 +23891,7 @@
       <c r="AT142" s="60"/>
       <c r="AV142" s="58"/>
     </row>
-    <row r="143" spans="1:48" ht="14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A143" s="1">
         <v>20220808</v>
       </c>
@@ -23713,7 +24034,7 @@
       <c r="AT143" s="60"/>
       <c r="AV143" s="58"/>
     </row>
-    <row r="144" spans="1:48" ht="14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A144" s="1">
         <v>20220808</v>
       </c>
@@ -23855,7 +24176,7 @@
       <c r="AS144" s="59"/>
       <c r="AT144" s="60"/>
     </row>
-    <row r="145" spans="1:48" ht="14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A145" s="1">
         <v>20220808</v>
       </c>
@@ -23998,7 +24319,7 @@
       <c r="AT145" s="60"/>
       <c r="AV145" s="58"/>
     </row>
-    <row r="146" spans="1:48" ht="14" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A146" s="1">
         <v>20220808</v>
       </c>
@@ -24142,7 +24463,7 @@
       <c r="AS146" s="59"/>
       <c r="AV146" s="58"/>
     </row>
-    <row r="147" spans="1:48" ht="14" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A147" s="1">
         <v>20220808</v>
       </c>
@@ -24286,7 +24607,7 @@
       <c r="AS147" s="59"/>
       <c r="AV147" s="58"/>
     </row>
-    <row r="148" spans="1:48" ht="14" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A148" s="1">
         <v>20220808</v>
       </c>
@@ -24430,7 +24751,7 @@
       <c r="AS148" s="59"/>
       <c r="AV148" s="58"/>
     </row>
-    <row r="149" spans="1:48" ht="14" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A149" s="1">
         <v>20220808</v>
       </c>
@@ -24574,7 +24895,7 @@
       <c r="AS149" s="59"/>
       <c r="AV149" s="58"/>
     </row>
-    <row r="150" spans="1:48" ht="14" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A150" s="1">
         <v>20220808</v>
       </c>
@@ -24718,7 +25039,7 @@
       <c r="AS150" s="59"/>
       <c r="AV150" s="58"/>
     </row>
-    <row r="151" spans="1:48" ht="14" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A151" s="1">
         <v>20220808</v>
       </c>
@@ -24862,7 +25183,7 @@
       <c r="AS151" s="59"/>
       <c r="AV151" s="58"/>
     </row>
-    <row r="152" spans="1:48" ht="14" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A152" s="1">
         <v>20220808</v>
       </c>
@@ -25006,7 +25327,7 @@
       <c r="AS152" s="59"/>
       <c r="AV152" s="58"/>
     </row>
-    <row r="153" spans="1:48" ht="14" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A153" s="1">
         <v>20220808</v>
       </c>
@@ -25150,7 +25471,7 @@
       <c r="AS153" s="59"/>
       <c r="AV153" s="58"/>
     </row>
-    <row r="154" spans="1:48" ht="14" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A154" s="1">
         <v>20220808</v>
       </c>
@@ -25294,7 +25615,7 @@
       <c r="AS154" s="59"/>
       <c r="AV154" s="58"/>
     </row>
-    <row r="155" spans="1:48" ht="14" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A155" s="1">
         <v>20220808</v>
       </c>
@@ -25438,7 +25759,7 @@
       <c r="AS155" s="59"/>
       <c r="AV155" s="58"/>
     </row>
-    <row r="156" spans="1:48" ht="14" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A156" s="1">
         <v>20220808</v>
       </c>
@@ -25579,7 +25900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:48" ht="14" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:48" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A157" s="1">
         <v>20220808</v>
       </c>
@@ -25720,7 +26041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:48" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D158" s="13"/>
       <c r="F158" s="13"/>
       <c r="J158" s="3"/>
@@ -25745,7 +26066,7 @@
       <c r="AN158" s="3"/>
       <c r="AO158" s="26"/>
     </row>
-    <row r="159" spans="1:48" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D159" s="13"/>
       <c r="F159" s="13"/>
       <c r="J159" s="3"/>
@@ -25770,7 +26091,7 @@
       <c r="AN159" s="3"/>
       <c r="AO159" s="26"/>
     </row>
-    <row r="160" spans="1:48" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:48" x14ac:dyDescent="0.4">
       <c r="D160" s="13"/>
       <c r="F160" s="13"/>
       <c r="J160" s="3"/>
@@ -25795,7 +26116,7 @@
       <c r="AN160" s="3"/>
       <c r="AO160" s="26"/>
     </row>
-    <row r="161" spans="4:41" x14ac:dyDescent="0.15">
+    <row r="161" spans="4:41" x14ac:dyDescent="0.4">
       <c r="D161" s="13"/>
       <c r="F161" s="13"/>
       <c r="J161" s="3"/>
@@ -25820,7 +26141,7 @@
       <c r="AN161" s="3"/>
       <c r="AO161" s="26"/>
     </row>
-    <row r="162" spans="4:41" x14ac:dyDescent="0.15">
+    <row r="162" spans="4:41" x14ac:dyDescent="0.4">
       <c r="D162" s="13"/>
       <c r="F162" s="13"/>
       <c r="J162" s="3"/>
@@ -25845,7 +26166,7 @@
       <c r="AN162" s="3"/>
       <c r="AO162" s="26"/>
     </row>
-    <row r="163" spans="4:41" x14ac:dyDescent="0.15">
+    <row r="163" spans="4:41" x14ac:dyDescent="0.4">
       <c r="D163" s="13"/>
       <c r="F163" s="13"/>
       <c r="J163" s="3"/>
@@ -25870,7 +26191,7 @@
       <c r="AN163" s="3"/>
       <c r="AO163" s="26"/>
     </row>
-    <row r="164" spans="4:41" x14ac:dyDescent="0.15">
+    <row r="164" spans="4:41" x14ac:dyDescent="0.4">
       <c r="D164" s="13"/>
       <c r="F164" s="13"/>
       <c r="J164" s="3"/>
@@ -25895,7 +26216,7 @@
       <c r="AN164" s="3"/>
       <c r="AO164" s="26"/>
     </row>
-    <row r="165" spans="4:41" x14ac:dyDescent="0.15">
+    <row r="165" spans="4:41" x14ac:dyDescent="0.4">
       <c r="D165" s="13"/>
       <c r="F165" s="13"/>
       <c r="J165" s="3"/>
@@ -25920,7 +26241,7 @@
       <c r="AN165" s="3"/>
       <c r="AO165" s="26"/>
     </row>
-    <row r="166" spans="4:41" x14ac:dyDescent="0.15">
+    <row r="166" spans="4:41" x14ac:dyDescent="0.4">
       <c r="D166" s="13"/>
       <c r="F166" s="13"/>
       <c r="J166" s="3"/>
@@ -25945,7 +26266,7 @@
       <c r="AN166" s="3"/>
       <c r="AO166" s="26"/>
     </row>
-    <row r="167" spans="4:41" x14ac:dyDescent="0.15">
+    <row r="167" spans="4:41" x14ac:dyDescent="0.4">
       <c r="D167" s="13"/>
       <c r="F167" s="13"/>
       <c r="J167" s="3"/>
@@ -25970,7 +26291,7 @@
       <c r="AN167" s="3"/>
       <c r="AO167" s="26"/>
     </row>
-    <row r="168" spans="4:41" x14ac:dyDescent="0.15">
+    <row r="168" spans="4:41" x14ac:dyDescent="0.4">
       <c r="D168" s="13"/>
       <c r="F168" s="13"/>
       <c r="J168" s="3"/>
@@ -25995,7 +26316,7 @@
       <c r="AN168" s="3"/>
       <c r="AO168" s="26"/>
     </row>
-    <row r="169" spans="4:41" x14ac:dyDescent="0.15">
+    <row r="169" spans="4:41" x14ac:dyDescent="0.4">
       <c r="D169" s="13"/>
       <c r="F169" s="13"/>
       <c r="J169" s="3"/>
@@ -26020,7 +26341,7 @@
       <c r="AN169" s="3"/>
       <c r="AO169" s="26"/>
     </row>
-    <row r="170" spans="4:41" x14ac:dyDescent="0.15">
+    <row r="170" spans="4:41" x14ac:dyDescent="0.4">
       <c r="D170" s="13"/>
       <c r="F170" s="13"/>
       <c r="J170" s="3"/>
@@ -26045,7 +26366,7 @@
       <c r="AN170" s="3"/>
       <c r="AO170" s="26"/>
     </row>
-    <row r="171" spans="4:41" x14ac:dyDescent="0.15">
+    <row r="171" spans="4:41" x14ac:dyDescent="0.4">
       <c r="D171" s="13"/>
       <c r="F171" s="13"/>
       <c r="J171" s="3"/>
@@ -26082,13 +26403,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2091D322-726D-4E97-8E9F-19841C93C3A6}">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D18" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33:L33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="25" bestFit="1" customWidth="1"/>
@@ -26098,15 +26419,18 @@
     <col min="6" max="6" width="9.83203125" style="45" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" style="45" customWidth="1"/>
     <col min="8" max="8" width="9.1640625" style="1"/>
-    <col min="9" max="10" width="9.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1640625" style="25"/>
+    <col min="9" max="9" width="9.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.94140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.1640625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="24" t="s">
         <v>170</v>
       </c>
@@ -26135,19 +26459,25 @@
         <v>223</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>725</v>
+        <v>760</v>
       </c>
       <c r="K1" s="23" t="s">
+        <v>727</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>728</v>
+      </c>
+      <c r="M1" s="23" t="s">
         <v>694</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="N1" s="23" t="s">
         <v>695</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="O1" s="24" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="24" t="s">
         <v>609</v>
       </c>
@@ -26176,14 +26506,14 @@
         <v>693</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="3">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3">
         <v>1</v>
       </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="64" t="s">
         <v>610</v>
       </c>
@@ -26212,14 +26542,14 @@
         <v>693</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="3">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3">
         <v>1</v>
       </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="64" t="s">
         <v>611</v>
       </c>
@@ -26248,14 +26578,14 @@
         <v>693</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="3">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3">
         <v>1</v>
       </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="64" t="s">
         <v>612</v>
       </c>
@@ -26284,14 +26614,14 @@
         <v>693</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="3">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3">
         <v>1</v>
       </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="24" t="s">
         <v>613</v>
       </c>
@@ -26320,17 +26650,17 @@
         <v>693</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="3">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
         <v>1</v>
       </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="26" t="s">
+      <c r="N6" s="3"/>
+      <c r="O6" s="26" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="65" t="s">
         <v>614</v>
       </c>
@@ -26359,807 +26689,684 @@
         <v>693</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="3">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3">
         <v>1</v>
       </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="65" t="s">
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="65"/>
+      <c r="B8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="65"/>
+      <c r="B9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="65"/>
+      <c r="B10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="65"/>
+      <c r="B11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="65" t="s">
         <v>615</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B12" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C12" s="42" t="s">
         <v>697</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D12" s="42" t="s">
         <v>698</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E12" s="42" t="s">
         <v>698</v>
       </c>
-      <c r="F8" s="90">
-        <v>20</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>692</v>
-      </c>
-      <c r="H8" s="91">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="42" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="24" t="s">
-        <v>616</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="F9" s="45">
-        <v>2500</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>692</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="66" t="s">
-        <v>617</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="F10" s="48">
-        <v>2940</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>692</v>
-      </c>
-      <c r="H10" s="9">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="30"/>
-    </row>
-    <row r="11" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="66" t="s">
-        <v>618</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="F11" s="48">
-        <v>920</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>692</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="3">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0</v>
-      </c>
-      <c r="M11" s="30"/>
-    </row>
-    <row r="12" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="66" t="s">
-        <v>619</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F12" s="48">
-        <v>172.5</v>
+      <c r="F12" s="90">
+        <v>20</v>
       </c>
       <c r="G12" s="45" t="s">
         <v>692</v>
       </c>
-      <c r="H12" s="9">
-        <v>15</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="3">
+      <c r="H12" s="91">
         <v>1</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="30"/>
-    </row>
-    <row r="13" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="66" t="s">
-        <v>620</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="F13" s="48">
-        <v>236</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>692</v>
-      </c>
-      <c r="H13" s="9">
+      <c r="I12" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
         <v>1</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3">
+      <c r="N12" s="3"/>
+      <c r="O12" s="42" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="65"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="M13" s="3">
         <v>1</v>
       </c>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="30"/>
-    </row>
-    <row r="14" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="66" t="s">
-        <v>621</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="F14" s="48">
-        <v>236</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>692</v>
-      </c>
-      <c r="H14" s="9">
+      <c r="N13" s="92" t="s">
+        <v>744</v>
+      </c>
+      <c r="O13" s="42"/>
+    </row>
+    <row r="14" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="65"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="M14" s="3">
         <v>1</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3">
+      <c r="N14" s="93" t="s">
+        <v>748</v>
+      </c>
+      <c r="O14" s="42"/>
+    </row>
+    <row r="15" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="65"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="M15" s="3">
         <v>1</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="30"/>
-    </row>
-    <row r="15" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="66" t="s">
-        <v>622</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="F15" s="48">
-        <v>244</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>692</v>
-      </c>
-      <c r="H15" s="9">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3">
-        <v>1</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="30"/>
-    </row>
-    <row r="16" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="66" t="s">
-        <v>623</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="F16" s="48">
-        <v>446</v>
+      <c r="N15" s="93" t="s">
+        <v>752</v>
+      </c>
+      <c r="O15" s="42"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="24" t="s">
+        <v>616</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="F16" s="45">
+        <v>2500</v>
       </c>
       <c r="G16" s="45" t="s">
         <v>692</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="1">
         <v>1</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>693</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="3">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3">
         <v>1</v>
       </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="30"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="24" t="s">
-        <v>624</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" s="45">
-        <v>16000</v>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" s="44" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="66" t="s">
+        <v>617</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="F17" s="48">
+        <v>2940</v>
       </c>
       <c r="G17" s="45" t="s">
         <v>692</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="9">
         <v>1</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>693</v>
       </c>
       <c r="J17" s="3"/>
-      <c r="K17" s="3">
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3">
         <v>1</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="26" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="24" t="s">
-        <v>625</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>700</v>
-      </c>
-      <c r="F18" s="45">
-        <v>1500</v>
+      <c r="N17" s="3"/>
+      <c r="O17" s="30"/>
+    </row>
+    <row r="18" spans="1:15" s="44" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="66" t="s">
+        <v>618</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="48">
+        <v>920</v>
       </c>
       <c r="G18" s="45" t="s">
         <v>692</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="9">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="3">
         <v>1</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3">
-        <v>1</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="26"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="24" t="s">
-        <v>626</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="F19" s="45">
-        <v>1200</v>
+      <c r="N18" s="3"/>
+      <c r="O18" s="30"/>
+    </row>
+    <row r="19" spans="1:15" s="44" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="66" t="s">
+        <v>619</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F19" s="48">
+        <v>172.5</v>
       </c>
       <c r="G19" s="45" t="s">
         <v>692</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="9">
+        <v>15</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="3">
         <v>1</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3">
-        <v>1</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="67" t="s">
-        <v>627</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E20" s="36">
-        <v>20002694</v>
-      </c>
-      <c r="F20" s="49">
-        <v>900</v>
+      <c r="N19" s="3"/>
+      <c r="O19" s="30"/>
+    </row>
+    <row r="20" spans="1:15" s="44" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="66" t="s">
+        <v>620</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="48">
+        <v>236</v>
       </c>
       <c r="G20" s="45" t="s">
         <v>692</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="9">
         <v>1</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>693</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="3">
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3">
         <v>1</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="35" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="67" t="s">
-        <v>628</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" s="36">
-        <v>25000631</v>
-      </c>
-      <c r="F21" s="49">
-        <v>63</v>
+      <c r="N20" s="3"/>
+      <c r="O20" s="30"/>
+    </row>
+    <row r="21" spans="1:15" s="44" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="66" t="s">
+        <v>621</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="F21" s="48">
+        <v>236</v>
       </c>
       <c r="G21" s="45" t="s">
         <v>692</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="9">
         <v>1</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>693</v>
       </c>
       <c r="J21" s="3"/>
-      <c r="K21" s="3">
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3">
         <v>1</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="67" t="s">
-        <v>629</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>701</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>702</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>703</v>
-      </c>
-      <c r="F22" s="49">
-        <v>73</v>
+      <c r="N21" s="3"/>
+      <c r="O21" s="30"/>
+    </row>
+    <row r="22" spans="1:15" s="44" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="66" t="s">
+        <v>622</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="F22" s="48">
+        <v>244</v>
       </c>
       <c r="G22" s="45" t="s">
         <v>692</v>
       </c>
-      <c r="H22" s="34">
-        <v>20</v>
+      <c r="H22" s="9">
+        <v>1</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>693</v>
       </c>
       <c r="J22" s="3"/>
-      <c r="K22" s="3">
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3">
         <v>1</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="67" t="s">
-        <v>630</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>470</v>
-      </c>
-      <c r="E23" s="36">
-        <v>7695101</v>
-      </c>
-      <c r="F23" s="49">
-        <v>31</v>
+      <c r="N22" s="3"/>
+      <c r="O22" s="30"/>
+    </row>
+    <row r="23" spans="1:15" s="44" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="66" t="s">
+        <v>623</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="F23" s="48">
+        <v>446</v>
       </c>
       <c r="G23" s="45" t="s">
         <v>692</v>
       </c>
-      <c r="H23" s="34">
-        <v>10</v>
+      <c r="H23" s="9">
+        <v>1</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>693</v>
       </c>
       <c r="J23" s="3"/>
-      <c r="K23" s="3">
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3">
         <v>1</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="67" t="s">
-        <v>631</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>480</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" s="35" t="s">
-        <v>484</v>
-      </c>
-      <c r="E24" s="36">
-        <v>20027388</v>
-      </c>
-      <c r="F24" s="49">
-        <v>749</v>
+      <c r="N23" s="3"/>
+      <c r="O23" s="30"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A24" s="24" t="s">
+        <v>624</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="45">
+        <v>16000</v>
       </c>
       <c r="G24" s="45" t="s">
         <v>692</v>
       </c>
-      <c r="H24" s="34">
-        <v>2</v>
+      <c r="H24" s="1">
+        <v>1</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>693</v>
       </c>
       <c r="J24" s="3"/>
-      <c r="K24" s="3">
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3">
         <v>1</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="67" t="s">
-        <v>632</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>481</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>482</v>
-      </c>
-      <c r="E25" s="36">
-        <v>20103426</v>
-      </c>
-      <c r="F25" s="49">
-        <v>279</v>
+      <c r="N24" s="3"/>
+      <c r="O24" s="26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A25" s="24" t="s">
+        <v>625</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>700</v>
+      </c>
+      <c r="F25" s="45">
+        <v>1500</v>
       </c>
       <c r="G25" s="45" t="s">
         <v>692</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25" s="1">
         <v>1</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>693</v>
       </c>
       <c r="J25" s="3"/>
-      <c r="K25" s="3">
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3">
         <v>1</v>
       </c>
-      <c r="L25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="67" t="s">
-        <v>633</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>481</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>483</v>
-      </c>
-      <c r="E26" s="36">
-        <v>20112966</v>
-      </c>
-      <c r="F26" s="49">
-        <v>55</v>
+      <c r="N25" s="3"/>
+      <c r="O25" s="26"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="24" t="s">
+        <v>626</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" s="45">
+        <v>1200</v>
       </c>
       <c r="G26" s="45" t="s">
         <v>692</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H26" s="1">
         <v>1</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>693</v>
       </c>
       <c r="J26" s="3"/>
-      <c r="K26" s="3">
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3">
         <v>1</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="67" t="s">
-        <v>653</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>470</v>
-      </c>
-      <c r="E27" s="36">
-        <v>9197515</v>
-      </c>
-      <c r="F27" s="49">
-        <v>5.65</v>
-      </c>
-      <c r="G27" s="45" t="s">
-        <v>692</v>
-      </c>
-      <c r="H27" s="34">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27" s="24"/>
+      <c r="B27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="M27">
         <v>1</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3">
-        <v>1</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="67" t="s">
-        <v>656</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>469</v>
-      </c>
-      <c r="E28" s="36">
-        <v>7019638</v>
-      </c>
-      <c r="F28" s="49">
-        <v>5.65</v>
-      </c>
-      <c r="G28" s="45" t="s">
-        <v>692</v>
-      </c>
-      <c r="H28" s="34">
-        <v>1</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3">
-        <v>1</v>
-      </c>
-      <c r="L28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="36" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="N27" s="94" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A28" s="24"/>
+      <c r="B28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="M28"/>
+      <c r="N28" s="94"/>
+    </row>
+    <row r="29" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="67" t="s">
-        <v>657</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>177</v>
+        <v>627</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>173</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>654</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>655</v>
+        <v>136</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>137</v>
       </c>
       <c r="E29" s="36">
-        <v>7695101</v>
+        <v>20002694</v>
       </c>
       <c r="F29" s="49">
-        <v>5.65</v>
+        <v>900</v>
       </c>
       <c r="G29" s="45" t="s">
         <v>692</v>
@@ -27171,926 +27378,1904 @@
         <v>693</v>
       </c>
       <c r="J29" s="3"/>
-      <c r="K29" s="3">
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3">
         <v>1</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A30" s="24" t="s">
-        <v>634</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="F30" s="45">
-        <v>300</v>
-      </c>
-      <c r="G30" s="45" t="s">
+      <c r="N29" s="3"/>
+      <c r="O29" s="35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="67"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="35"/>
+    </row>
+    <row r="31" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="67"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="35"/>
+    </row>
+    <row r="32" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="67"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="35"/>
+    </row>
+    <row r="33" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="67"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="35"/>
+    </row>
+    <row r="34" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="67"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="35"/>
+    </row>
+    <row r="35" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="67"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="35"/>
+    </row>
+    <row r="36" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="67"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="35"/>
+    </row>
+    <row r="37" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="67" t="s">
+        <v>628</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="36">
+        <v>25000631</v>
+      </c>
+      <c r="F37" s="49">
+        <v>63</v>
+      </c>
+      <c r="G37" s="45" t="s">
         <v>692</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H37" s="34">
         <v>1</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3">
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3">
         <v>1</v>
       </c>
-      <c r="L30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A31" s="24" t="s">
-        <v>635</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="E31" s="25">
-        <v>5650</v>
-      </c>
-      <c r="F31" s="45">
-        <v>1300</v>
-      </c>
-      <c r="G31" s="45" t="s">
-        <v>692</v>
-      </c>
-      <c r="H31" s="1">
-        <v>1</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3">
-        <v>1</v>
-      </c>
-      <c r="L31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="68" t="s">
-        <v>636</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>651</v>
-      </c>
-      <c r="E32" s="38">
-        <v>85020</v>
-      </c>
-      <c r="F32" s="50">
-        <v>370</v>
-      </c>
-      <c r="G32" s="45" t="s">
-        <v>692</v>
-      </c>
-      <c r="H32" s="7">
-        <v>1</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="M32" s="37" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="68"/>
-      <c r="B33" s="37"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0.99873429767795996</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="M33" s="37" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="68" t="s">
-        <v>637</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>704</v>
-      </c>
-      <c r="D34" s="37" t="s">
-        <v>705</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>706</v>
-      </c>
-      <c r="F34" s="50">
-        <v>64</v>
-      </c>
-      <c r="G34" s="45" t="s">
-        <v>692</v>
-      </c>
-      <c r="H34" s="7">
-        <v>100</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="M34" s="37"/>
-    </row>
-    <row r="35" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="68"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="K35" s="3">
-        <v>1.1300000000000001</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="M35" s="37" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="68" t="s">
-        <v>649</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="D36" s="38" t="s">
-        <v>652</v>
-      </c>
-      <c r="E36" s="38">
-        <v>82520</v>
-      </c>
-      <c r="F36" s="50">
-        <v>310</v>
-      </c>
-      <c r="G36" s="45" t="s">
-        <v>692</v>
-      </c>
-      <c r="H36" s="7">
-        <v>1</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="M36" s="37" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="68"/>
-      <c r="B37" s="37"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="K37" s="3">
-        <v>1</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="M37" s="37" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="68" t="s">
-        <v>716</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>704</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>705</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>706</v>
-      </c>
-      <c r="F38" s="50">
-        <v>64</v>
+      <c r="N37" s="3"/>
+      <c r="O37" s="35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="67" t="s">
+        <v>629</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>701</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>702</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>703</v>
+      </c>
+      <c r="F38" s="49">
+        <v>73</v>
       </c>
       <c r="G38" s="45" t="s">
         <v>692</v>
       </c>
-      <c r="H38" s="7">
-        <v>100</v>
+      <c r="H38" s="34">
+        <v>20</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="M38" s="37"/>
-    </row>
-    <row r="39" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="68"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="K39" s="3">
-        <v>0.9939768241436393</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="M39" s="37" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="68" t="s">
-        <v>638</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="F40" s="50">
-        <v>6300</v>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3">
+        <v>1</v>
+      </c>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="67" t="s">
+        <v>630</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>470</v>
+      </c>
+      <c r="E39" s="36">
+        <v>7695101</v>
+      </c>
+      <c r="F39" s="49">
+        <v>31</v>
+      </c>
+      <c r="G39" s="45" t="s">
+        <v>692</v>
+      </c>
+      <c r="H39" s="34">
+        <v>10</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3">
+        <v>1</v>
+      </c>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="67" t="s">
+        <v>631</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="E40" s="36">
+        <v>20027388</v>
+      </c>
+      <c r="F40" s="49">
+        <v>749</v>
       </c>
       <c r="G40" s="45" t="s">
         <v>692</v>
       </c>
-      <c r="H40" s="7">
-        <v>1</v>
+      <c r="H40" s="34">
+        <v>2</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>693</v>
       </c>
       <c r="J40" s="3"/>
-      <c r="K40" s="3">
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3">
         <v>1</v>
       </c>
-      <c r="L40" s="3">
-        <v>0</v>
-      </c>
-      <c r="M40" s="38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="68" t="s">
-        <v>639</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>485</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>486</v>
-      </c>
-      <c r="F41" s="50">
-        <v>5040</v>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="67" t="s">
+        <v>632</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>481</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>482</v>
+      </c>
+      <c r="E41" s="36">
+        <v>20103426</v>
+      </c>
+      <c r="F41" s="49">
+        <v>279</v>
       </c>
       <c r="G41" s="45" t="s">
         <v>692</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="34">
         <v>1</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>693</v>
       </c>
       <c r="J41" s="3"/>
-      <c r="K41" s="3">
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3">
         <v>1</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="38" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="24" t="s">
-        <v>640</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="F42" s="45">
-        <v>2.5</v>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="67" t="s">
+        <v>633</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>481</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>483</v>
+      </c>
+      <c r="E42" s="36">
+        <v>20112966</v>
+      </c>
+      <c r="F42" s="49">
+        <v>55</v>
       </c>
       <c r="G42" s="45" t="s">
         <v>692</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="34">
         <v>1</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>130</v>
+        <v>693</v>
       </c>
       <c r="J42" s="3"/>
-      <c r="K42" s="3">
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3">
         <v>1</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="N42" s="25"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A43" s="24" t="s">
-        <v>641</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="F43" s="45">
-        <v>5.5</v>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="67" t="s">
+        <v>653</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>470</v>
+      </c>
+      <c r="E43" s="36">
+        <v>9197515</v>
+      </c>
+      <c r="F43" s="49">
+        <v>5.65</v>
       </c>
       <c r="G43" s="45" t="s">
         <v>692</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="34">
         <v>1</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>693</v>
       </c>
       <c r="J43" s="3"/>
-      <c r="K43" s="3">
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3">
         <v>1</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="N43" s="26"/>
-    </row>
-    <row r="44" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="24" t="s">
-        <v>642</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="F44" s="45">
-        <v>10.53</v>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="67" t="s">
+        <v>656</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="E44" s="36">
+        <v>7019638</v>
+      </c>
+      <c r="F44" s="49">
+        <v>5.65</v>
       </c>
       <c r="G44" s="45" t="s">
         <v>692</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="34">
         <v>1</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>693</v>
       </c>
       <c r="J44" s="3"/>
-      <c r="K44" s="3">
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3">
         <v>1</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="25"/>
-    </row>
-    <row r="45" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="24" t="s">
-        <v>643</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="E45" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="F45" s="45">
-        <v>121</v>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="67" t="s">
+        <v>657</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>654</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>655</v>
+      </c>
+      <c r="E45" s="36">
+        <v>7695101</v>
+      </c>
+      <c r="F45" s="49">
+        <v>5.65</v>
       </c>
       <c r="G45" s="45" t="s">
         <v>692</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="34">
         <v>1</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>693</v>
       </c>
       <c r="J45" s="3"/>
-      <c r="K45" s="3">
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3">
         <v>1</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="25"/>
-    </row>
-    <row r="46" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="69" t="s">
-        <v>644</v>
-      </c>
-      <c r="B46" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="C46" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="D46" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="E46" s="40">
-        <v>7696884</v>
-      </c>
-      <c r="F46" s="51">
-        <v>202</v>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A46" s="24" t="s">
+        <v>634</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="F46" s="45">
+        <v>300</v>
       </c>
       <c r="G46" s="45" t="s">
         <v>692</v>
       </c>
-      <c r="H46" s="39">
-        <v>300</v>
+      <c r="H46" s="1">
+        <v>1</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>693</v>
       </c>
       <c r="J46" s="3"/>
-      <c r="K46" s="3">
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3">
         <v>1</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="40"/>
-      <c r="N46" s="41"/>
-    </row>
-    <row r="47" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="69" t="s">
-        <v>645</v>
-      </c>
-      <c r="B47" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="C47" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="D47" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="E47" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="F47" s="51">
-        <v>33</v>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A47" s="24" t="s">
+        <v>635</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="E47" s="25">
+        <v>5650</v>
+      </c>
+      <c r="F47" s="45">
+        <v>1300</v>
       </c>
       <c r="G47" s="45" t="s">
         <v>692</v>
       </c>
-      <c r="H47" s="39">
+      <c r="H47" s="1">
         <v>1</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>693</v>
       </c>
       <c r="J47" s="3"/>
-      <c r="K47" s="3">
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3">
         <v>1</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="41" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="69" t="s">
-        <v>646</v>
-      </c>
-      <c r="B48" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="C48" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="D48" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E48" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="F48" s="51">
-        <v>56.92</v>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="68" t="s">
+        <v>636</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>651</v>
+      </c>
+      <c r="E48" s="38">
+        <v>85020</v>
+      </c>
+      <c r="F48" s="50">
+        <v>370</v>
       </c>
       <c r="G48" s="45" t="s">
         <v>692</v>
       </c>
-      <c r="H48" s="39">
-        <v>2</v>
+      <c r="H48" s="7">
+        <v>1</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>693</v>
       </c>
       <c r="J48" s="3"/>
-      <c r="K48" s="3">
-        <v>1</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="40"/>
-    </row>
-    <row r="49" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="69" t="s">
-        <v>647</v>
-      </c>
-      <c r="B49" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="C49" s="41" t="s">
-        <v>178</v>
-      </c>
-      <c r="D49" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="E49" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="F49" s="51">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="G49" s="45" t="s">
-        <v>692</v>
-      </c>
-      <c r="H49" s="39">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3">
-        <v>1</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="40"/>
-    </row>
-    <row r="50" spans="1:14" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="O48" s="37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="68"/>
+      <c r="B49" s="37"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3">
+        <v>0.99873429767795996</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="O49" s="37" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="68" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>477</v>
+        <v>171</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>478</v>
+        <v>704</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>479</v>
-      </c>
-      <c r="E50" s="38">
-        <v>3123000071</v>
+        <v>705</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>706</v>
       </c>
       <c r="F50" s="50">
-        <v>275</v>
+        <v>64</v>
       </c>
       <c r="G50" s="45" t="s">
         <v>692</v>
       </c>
       <c r="H50" s="7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>693</v>
       </c>
       <c r="J50" s="3"/>
-      <c r="K50" s="3">
-        <v>1</v>
-      </c>
-      <c r="L50" s="3">
-        <v>0</v>
-      </c>
-      <c r="M50" s="37"/>
-      <c r="N50" s="38"/>
-    </row>
-    <row r="51" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="24" t="s">
-        <v>717</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>718</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>707</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>708</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>708</v>
-      </c>
-      <c r="F51" s="45">
-        <v>1000</v>
-      </c>
-      <c r="G51" s="45" t="s">
-        <v>692</v>
-      </c>
-      <c r="H51" s="1">
-        <v>1</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3">
-        <v>1</v>
-      </c>
-      <c r="L51" s="3">
-        <v>0</v>
-      </c>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A52" s="67" t="s">
-        <v>719</v>
-      </c>
-      <c r="B52" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="D52" s="35" t="s">
-        <v>709</v>
-      </c>
-      <c r="E52" s="36">
-        <v>4488700</v>
-      </c>
-      <c r="F52" s="49">
-        <v>10.9</v>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="O50" s="37"/>
+    </row>
+    <row r="51" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="68"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3">
+        <v>1.1300000000000001</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="O51" s="37" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="68" t="s">
+        <v>649</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>652</v>
+      </c>
+      <c r="E52" s="38">
+        <v>82520</v>
+      </c>
+      <c r="F52" s="50">
+        <v>310</v>
       </c>
       <c r="G52" s="45" t="s">
         <v>692</v>
       </c>
-      <c r="H52" s="34">
-        <v>10</v>
+      <c r="H52" s="7">
+        <v>1</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>693</v>
       </c>
       <c r="J52" s="3"/>
-      <c r="K52" s="3">
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="O52" s="37" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="68"/>
+      <c r="B53" s="37"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3">
         <v>1</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="35" t="s">
-        <v>710</v>
-      </c>
-      <c r="N52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A53" s="55" t="s">
-        <v>720</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>721</v>
-      </c>
-      <c r="C53" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>711</v>
-      </c>
-      <c r="E53" s="25">
-        <v>4047700</v>
-      </c>
-      <c r="F53" s="45">
-        <v>370</v>
-      </c>
-      <c r="G53" s="45" t="s">
-        <v>692</v>
-      </c>
-      <c r="H53" s="1">
-        <v>1</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3">
-        <v>1</v>
-      </c>
-      <c r="L53" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A54" s="24" t="s">
-        <v>722</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>712</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>712</v>
-      </c>
-      <c r="F54" s="45">
-        <v>675</v>
+      <c r="N53" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="O53" s="37" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="68" t="s">
+        <v>716</v>
+      </c>
+      <c r="B54" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>704</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>705</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>706</v>
+      </c>
+      <c r="F54" s="50">
+        <v>64</v>
       </c>
       <c r="G54" s="45" t="s">
         <v>692</v>
       </c>
-      <c r="H54" s="1">
-        <v>1</v>
+      <c r="H54" s="7">
+        <v>100</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>693</v>
       </c>
       <c r="J54" s="3"/>
-      <c r="K54" s="3">
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="O54" s="37"/>
+    </row>
+    <row r="55" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="68"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3">
+        <v>0.9939768241436393</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="O55" s="37" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="68" t="s">
+        <v>638</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" s="50">
+        <v>6300</v>
+      </c>
+      <c r="G56" s="45" t="s">
+        <v>692</v>
+      </c>
+      <c r="H56" s="7">
         <v>1</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A55" s="24" t="s">
+      <c r="I56" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3">
+        <v>1</v>
+      </c>
+      <c r="N56" s="3"/>
+      <c r="O56" s="38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="68"/>
+      <c r="B57" s="37"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="68"/>
+      <c r="B58" s="37"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="3"/>
+      <c r="J58" t="s">
+        <v>785</v>
+      </c>
+      <c r="K58" t="s">
+        <v>786</v>
+      </c>
+      <c r="L58" t="s">
+        <v>787</v>
+      </c>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="68"/>
+      <c r="B59" s="37"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="3"/>
+      <c r="J59" t="s">
+        <v>788</v>
+      </c>
+      <c r="K59" t="s">
+        <v>789</v>
+      </c>
+      <c r="L59" t="s">
+        <v>790</v>
+      </c>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="68"/>
+      <c r="B60" s="37"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="3"/>
+      <c r="J60" t="s">
+        <v>791</v>
+      </c>
+      <c r="K60" t="s">
+        <v>792</v>
+      </c>
+      <c r="L60" t="s">
+        <v>793</v>
+      </c>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="68"/>
+      <c r="B61" s="37"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="3"/>
+      <c r="J61" t="s">
+        <v>794</v>
+      </c>
+      <c r="K61" t="s">
+        <v>795</v>
+      </c>
+      <c r="L61" t="s">
+        <v>796</v>
+      </c>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="68"/>
+      <c r="B62" s="37"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="3"/>
+      <c r="J62" t="s">
+        <v>797</v>
+      </c>
+      <c r="K62" t="s">
+        <v>798</v>
+      </c>
+      <c r="L62" t="s">
+        <v>799</v>
+      </c>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="68"/>
+      <c r="B63" s="37"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="3"/>
+      <c r="J63" t="s">
+        <v>800</v>
+      </c>
+      <c r="K63" t="s">
+        <v>801</v>
+      </c>
+      <c r="L63" t="s">
+        <v>802</v>
+      </c>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="68"/>
+      <c r="B64" s="37"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="3"/>
+      <c r="J64" t="s">
+        <v>803</v>
+      </c>
+      <c r="K64" t="s">
+        <v>804</v>
+      </c>
+      <c r="L64" t="s">
+        <v>805</v>
+      </c>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="68"/>
+      <c r="B65" s="37"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="3"/>
+      <c r="J65" t="s">
+        <v>806</v>
+      </c>
+      <c r="K65" t="s">
+        <v>807</v>
+      </c>
+      <c r="L65" t="s">
+        <v>808</v>
+      </c>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="68"/>
+      <c r="B66" s="37"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="3"/>
+      <c r="J66" t="s">
+        <v>809</v>
+      </c>
+      <c r="K66" t="s">
+        <v>810</v>
+      </c>
+      <c r="L66" t="s">
+        <v>811</v>
+      </c>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="68"/>
+      <c r="B67" s="37"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="3"/>
+      <c r="J67" t="s">
+        <v>812</v>
+      </c>
+      <c r="K67" t="s">
+        <v>813</v>
+      </c>
+      <c r="L67" t="s">
+        <v>814</v>
+      </c>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="68"/>
+      <c r="B68" s="37"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="3"/>
+      <c r="J68" t="s">
+        <v>815</v>
+      </c>
+      <c r="K68" t="s">
+        <v>816</v>
+      </c>
+      <c r="L68" t="s">
+        <v>817</v>
+      </c>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="68"/>
+      <c r="B69" s="37"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="3"/>
+      <c r="J69" t="s">
+        <v>818</v>
+      </c>
+      <c r="K69" t="s">
+        <v>819</v>
+      </c>
+      <c r="L69" t="s">
+        <v>820</v>
+      </c>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="68" t="s">
+        <v>639</v>
+      </c>
+      <c r="B70" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D70" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="E70" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="F70" s="50">
+        <v>5040</v>
+      </c>
+      <c r="G70" s="45" t="s">
+        <v>692</v>
+      </c>
+      <c r="H70" s="7">
+        <v>1</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3">
+        <v>1</v>
+      </c>
+      <c r="N70" s="3"/>
+      <c r="O70" s="38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="68"/>
+      <c r="B71" s="37"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="68"/>
+      <c r="B72" s="37"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="3"/>
+      <c r="J72" t="s">
+        <v>822</v>
+      </c>
+      <c r="K72" t="s">
+        <v>786</v>
+      </c>
+      <c r="L72" t="s">
+        <v>787</v>
+      </c>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="68"/>
+      <c r="B73" s="37"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="3"/>
+      <c r="J73" t="s">
+        <v>823</v>
+      </c>
+      <c r="K73" t="s">
+        <v>789</v>
+      </c>
+      <c r="L73" t="s">
+        <v>790</v>
+      </c>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="68"/>
+      <c r="B74" s="37"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="3"/>
+      <c r="J74" t="s">
+        <v>824</v>
+      </c>
+      <c r="K74" t="s">
+        <v>792</v>
+      </c>
+      <c r="L74" t="s">
+        <v>793</v>
+      </c>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="68"/>
+      <c r="B75" s="37"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="3"/>
+      <c r="J75" t="s">
+        <v>825</v>
+      </c>
+      <c r="K75" t="s">
+        <v>795</v>
+      </c>
+      <c r="L75" t="s">
+        <v>796</v>
+      </c>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="68"/>
+      <c r="B76" s="37"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="3"/>
+      <c r="J76" t="s">
+        <v>826</v>
+      </c>
+      <c r="K76" t="s">
+        <v>798</v>
+      </c>
+      <c r="L76" t="s">
+        <v>799</v>
+      </c>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="68"/>
+      <c r="B77" s="37"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="3"/>
+      <c r="J77" t="s">
+        <v>827</v>
+      </c>
+      <c r="K77" t="s">
+        <v>801</v>
+      </c>
+      <c r="L77" t="s">
+        <v>802</v>
+      </c>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="78" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="68"/>
+      <c r="B78" s="37"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="3"/>
+      <c r="J78" t="s">
+        <v>828</v>
+      </c>
+      <c r="K78" t="s">
+        <v>804</v>
+      </c>
+      <c r="L78" t="s">
+        <v>805</v>
+      </c>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+    </row>
+    <row r="79" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="68"/>
+      <c r="B79" s="37"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="3"/>
+      <c r="J79" t="s">
+        <v>829</v>
+      </c>
+      <c r="K79" t="s">
+        <v>807</v>
+      </c>
+      <c r="L79" t="s">
+        <v>808</v>
+      </c>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+    </row>
+    <row r="80" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="68"/>
+      <c r="B80" s="37"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="3"/>
+      <c r="J80" t="s">
+        <v>830</v>
+      </c>
+      <c r="K80" t="s">
+        <v>810</v>
+      </c>
+      <c r="L80" t="s">
+        <v>811</v>
+      </c>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+    </row>
+    <row r="81" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="68"/>
+      <c r="B81" s="37"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="3"/>
+      <c r="J81" t="s">
+        <v>831</v>
+      </c>
+      <c r="K81" t="s">
+        <v>813</v>
+      </c>
+      <c r="L81" t="s">
+        <v>814</v>
+      </c>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="68"/>
+      <c r="B82" s="37"/>
+      <c r="F82" s="50"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="3"/>
+      <c r="J82" t="s">
+        <v>832</v>
+      </c>
+      <c r="K82" t="s">
+        <v>816</v>
+      </c>
+      <c r="L82" t="s">
+        <v>817</v>
+      </c>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="68"/>
+      <c r="B83" s="37"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="45"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="3"/>
+      <c r="J83" t="s">
+        <v>833</v>
+      </c>
+      <c r="K83" t="s">
+        <v>819</v>
+      </c>
+      <c r="L83" t="s">
+        <v>820</v>
+      </c>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="24" t="s">
+        <v>640</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E84" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F84" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="G84" s="45" t="s">
+        <v>692</v>
+      </c>
+      <c r="H84" s="3">
+        <v>1</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3">
+        <v>1</v>
+      </c>
+      <c r="N84" s="3"/>
+      <c r="O84" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="P84" s="25"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A85" s="24" t="s">
+        <v>641</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E85" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="F85" s="45">
+        <v>5.5</v>
+      </c>
+      <c r="G85" s="45" t="s">
+        <v>692</v>
+      </c>
+      <c r="H85" s="1">
+        <v>1</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3">
+        <v>1</v>
+      </c>
+      <c r="N85" s="3"/>
+      <c r="O85" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="P85" s="26"/>
+    </row>
+    <row r="86" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="24" t="s">
+        <v>642</v>
+      </c>
+      <c r="B86" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D86" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="E86" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="F86" s="45">
+        <v>10.53</v>
+      </c>
+      <c r="G86" s="45" t="s">
+        <v>692</v>
+      </c>
+      <c r="H86" s="1">
+        <v>1</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3">
+        <v>1</v>
+      </c>
+      <c r="N86" s="3"/>
+      <c r="O86" s="25"/>
+    </row>
+    <row r="87" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="24" t="s">
+        <v>643</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="D87" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="E87" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="F87" s="45">
+        <v>121</v>
+      </c>
+      <c r="G87" s="45" t="s">
+        <v>692</v>
+      </c>
+      <c r="H87" s="1">
+        <v>1</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3">
+        <v>1</v>
+      </c>
+      <c r="N87" s="3"/>
+      <c r="O87" s="25"/>
+    </row>
+    <row r="88" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="69" t="s">
+        <v>644</v>
+      </c>
+      <c r="B88" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="D88" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="E88" s="40">
+        <v>7696884</v>
+      </c>
+      <c r="F88" s="51">
+        <v>202</v>
+      </c>
+      <c r="G88" s="45" t="s">
+        <v>692</v>
+      </c>
+      <c r="H88" s="39">
+        <v>300</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3">
+        <v>1</v>
+      </c>
+      <c r="N88" s="3"/>
+      <c r="O88" s="40"/>
+      <c r="P88" s="41"/>
+    </row>
+    <row r="89" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="69" t="s">
+        <v>645</v>
+      </c>
+      <c r="B89" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="D89" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="E89" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="F89" s="51">
+        <v>33</v>
+      </c>
+      <c r="G89" s="45" t="s">
+        <v>692</v>
+      </c>
+      <c r="H89" s="39">
+        <v>1</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3">
+        <v>1</v>
+      </c>
+      <c r="N89" s="3"/>
+      <c r="O89" s="41" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="69" t="s">
+        <v>646</v>
+      </c>
+      <c r="B90" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="D90" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="E90" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F90" s="51">
+        <v>56.92</v>
+      </c>
+      <c r="G90" s="45" t="s">
+        <v>692</v>
+      </c>
+      <c r="H90" s="39">
+        <v>2</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3">
+        <v>1</v>
+      </c>
+      <c r="N90" s="3"/>
+      <c r="O90" s="40"/>
+    </row>
+    <row r="91" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="69" t="s">
+        <v>647</v>
+      </c>
+      <c r="B91" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C91" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="D91" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="E91" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="F91" s="51">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G91" s="45" t="s">
+        <v>692</v>
+      </c>
+      <c r="H91" s="39">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3">
+        <v>1</v>
+      </c>
+      <c r="N91" s="3"/>
+      <c r="O91" s="40"/>
+    </row>
+    <row r="92" spans="1:16" s="41" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="68" t="s">
+        <v>648</v>
+      </c>
+      <c r="B92" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="C92" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="D92" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="E92" s="38">
+        <v>3123000071</v>
+      </c>
+      <c r="F92" s="50">
+        <v>275</v>
+      </c>
+      <c r="G92" s="45" t="s">
+        <v>692</v>
+      </c>
+      <c r="H92" s="7">
+        <v>1</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3">
+        <v>1</v>
+      </c>
+      <c r="N92" s="3"/>
+      <c r="O92" s="37"/>
+      <c r="P92" s="38"/>
+    </row>
+    <row r="93" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="24" t="s">
+        <v>717</v>
+      </c>
+      <c r="B93" s="26" t="s">
+        <v>718</v>
+      </c>
+      <c r="C93" s="26" t="s">
+        <v>707</v>
+      </c>
+      <c r="D93" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="E93" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="F93" s="45">
+        <v>1000</v>
+      </c>
+      <c r="G93" s="45" t="s">
+        <v>692</v>
+      </c>
+      <c r="H93" s="1">
+        <v>1</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3">
+        <v>1</v>
+      </c>
+      <c r="N93" s="3"/>
+      <c r="O93" s="25"/>
+      <c r="P93" s="25"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A94" s="67" t="s">
+        <v>719</v>
+      </c>
+      <c r="B94" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="C94" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D94" s="35" t="s">
+        <v>709</v>
+      </c>
+      <c r="E94" s="36">
+        <v>4488700</v>
+      </c>
+      <c r="F94" s="49">
+        <v>10.9</v>
+      </c>
+      <c r="G94" s="45" t="s">
+        <v>692</v>
+      </c>
+      <c r="H94" s="34">
+        <v>10</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3">
+        <v>1</v>
+      </c>
+      <c r="N94" s="3"/>
+      <c r="O94" s="35" t="s">
+        <v>710</v>
+      </c>
+      <c r="P94" s="36"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A95" s="55" t="s">
+        <v>720</v>
+      </c>
+      <c r="B95" s="26" t="s">
+        <v>721</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D95" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="E95" s="25">
+        <v>4047700</v>
+      </c>
+      <c r="F95" s="45">
+        <v>370</v>
+      </c>
+      <c r="G95" s="45" t="s">
+        <v>692</v>
+      </c>
+      <c r="H95" s="1">
+        <v>1</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A96" s="24" t="s">
+        <v>722</v>
+      </c>
+      <c r="B96" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="E96" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="F96" s="45">
+        <v>675</v>
+      </c>
+      <c r="G96" s="45" t="s">
+        <v>692</v>
+      </c>
+      <c r="H96" s="1">
+        <v>1</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3">
+        <v>1</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A97" s="24" t="s">
         <v>723</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B97" s="25" t="s">
         <v>724</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C97" s="26" t="s">
         <v>713</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D97" s="26" t="s">
         <v>714</v>
       </c>
-      <c r="E55" s="26" t="s">
+      <c r="E97" s="26" t="s">
         <v>715</v>
       </c>
-      <c r="F55" s="45">
+      <c r="F97" s="45">
         <v>1484</v>
       </c>
-      <c r="G55" s="45" t="s">
+      <c r="G97" s="45" t="s">
         <v>692</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H97" s="1">
         <v>1</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="I97" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3">
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3">
         <v>1</v>
       </c>
-      <c r="L55" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="E57" s="26" t="s">
+      <c r="N97" s="3"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="E99" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="F57" s="45">
-        <f>SUM(F2:F56)</f>
+      <c r="F99" s="45">
+        <f>SUM(F2:F98)</f>
         <v>61558.65</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M51">
-    <sortCondition ref="A2:A51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O93">
+    <sortCondition ref="A2:A93"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28106,14 +29291,14 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A1" s="55" t="s">
         <v>471</v>
       </c>
@@ -28190,7 +29375,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>597</v>
       </c>
@@ -28243,7 +29428,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>598</v>
       </c>
@@ -28254,7 +29439,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>599</v>
       </c>
@@ -28286,7 +29471,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>600</v>
       </c>
@@ -28360,7 +29545,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>601</v>
       </c>
@@ -28437,7 +29622,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>602</v>
       </c>
@@ -28514,70 +29699,70 @@
         <v>647</v>
       </c>
     </row>
-    <row r="20" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L20" s="24"/>
     </row>
-    <row r="21" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L21" s="24"/>
     </row>
-    <row r="22" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L22" s="24"/>
     </row>
-    <row r="23" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L23" s="24"/>
     </row>
-    <row r="24" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L24" s="24"/>
     </row>
-    <row r="25" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L25" s="24"/>
     </row>
-    <row r="26" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L26" s="24"/>
     </row>
-    <row r="27" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L27" s="24"/>
     </row>
-    <row r="28" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L28" s="24"/>
     </row>
-    <row r="29" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L29" s="24"/>
     </row>
-    <row r="30" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L30" s="24"/>
     </row>
-    <row r="31" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L31" s="24"/>
     </row>
-    <row r="32" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L32" s="24"/>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L33" s="24"/>
     </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L34" s="24"/>
     </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L35" s="24"/>
     </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L36" s="24"/>
     </row>
-    <row r="37" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L37" s="24"/>
     </row>
-    <row r="38" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L38" s="24"/>
     </row>
-    <row r="39" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L39" s="24"/>
     </row>
-    <row r="40" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L40" s="24"/>
     </row>
-    <row r="41" spans="12:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="12:12" x14ac:dyDescent="0.4">
       <c r="L41" s="24"/>
     </row>
   </sheetData>
@@ -28595,7 +29780,7 @@
       <selection activeCell="P3" sqref="P3:Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.1640625" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -28613,7 +29798,7 @@
     <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>157</v>
       </c>
@@ -28666,7 +29851,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="56" t="s">
         <v>688</v>
       </c>
@@ -28721,7 +29906,7 @@
         <v>19.930490000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="56" t="s">
         <v>689</v>
       </c>
@@ -28776,7 +29961,7 @@
         <v>19.930490000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="56" t="s">
         <v>690</v>
       </c>
@@ -28828,7 +30013,7 @@
         <v>6.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="75" t="s">
         <v>605</v>
       </c>
@@ -28883,7 +30068,7 @@
         <v>12.234389999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" s="77" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="75" t="s">
         <v>606</v>
       </c>
@@ -28938,7 +30123,7 @@
         <v>12.234389999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="70" t="s">
         <v>607</v>
       </c>
@@ -28993,7 +30178,7 @@
         <v>0.115344</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="70" t="s">
         <v>608</v>
       </c>
@@ -29062,7 +30247,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -29080,7 +30265,7 @@
     <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
         <v>202</v>
       </c>
@@ -29108,7 +30293,7 @@
       <c r="M1" s="23"/>
       <c r="N1" s="23"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -29125,7 +30310,7 @@
         <v>0.94259999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>350</v>
       </c>
@@ -29142,32 +30327,32 @@
         <v>1.4041999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="E9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="H11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="J12" s="3"/>
     </row>
   </sheetData>
